--- a/processed_data/participants_cleaned/infantlanglab_utk_participant data_6 to 9 mnths_gaze following.xlsx
+++ b/processed_data/participants_cleaned/infantlanglab_utk_participant data_6 to 9 mnths_gaze following.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InfantLanguageLab\Documents\ILPLL\LabProjects\EyeGaze\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krista/Repos/gaze-following-analysis/processed_data/participants_cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CEDB23-6A19-4086-A06D-CCF4A6505940}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE00AA64-ABA2-E24A-8529-9BCB609B1B48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6-9 mos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="89">
   <si>
     <t>lab</t>
   </si>
@@ -285,12 +285,15 @@
   <si>
     <t>Hears 10% Dutch.</t>
   </si>
+  <si>
+    <t>subid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -660,39 +663,40 @@
   <dimension ref="A1:AS1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
     <col min="11" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" customWidth="1"/>
     <col min="16" max="21" width="10.5" customWidth="1"/>
-    <col min="22" max="22" width="12.625" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
     <col min="23" max="23" width="10.5" customWidth="1"/>
     <col min="24" max="24" width="11" customWidth="1"/>
-    <col min="25" max="25" width="12.875" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" customWidth="1"/>
     <col min="26" max="26" width="11" customWidth="1"/>
-    <col min="27" max="27" width="12.875" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" customWidth="1"/>
     <col min="28" max="32" width="10.5" customWidth="1"/>
-    <col min="33" max="33" width="12.875" customWidth="1"/>
-    <col min="34" max="34" width="16.375" customWidth="1"/>
-    <col min="35" max="35" width="19.375" customWidth="1"/>
+    <col min="33" max="33" width="12.83203125" customWidth="1"/>
+    <col min="34" max="34" width="16.33203125" customWidth="1"/>
+    <col min="35" max="35" width="19.33203125" customWidth="1"/>
     <col min="36" max="45" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -823,7 +827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
@@ -960,7 +964,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1097,7 +1101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
@@ -1508,7 +1512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -1645,7 +1649,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1782,7 +1786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -2056,7 +2060,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -2193,7 +2197,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -2330,7 +2334,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -2467,7 +2471,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -2604,7 +2608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3015,7 +3019,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -3152,7 +3156,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3336,7 +3340,7 @@
       <c r="AR20" s="4"/>
       <c r="AS20" s="4"/>
     </row>
-    <row r="21" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3379,7 +3383,7 @@
       <c r="AR21" s="4"/>
       <c r="AS21" s="4"/>
     </row>
-    <row r="22" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3426,7 +3430,7 @@
       <c r="AR22" s="4"/>
       <c r="AS22" s="4"/>
     </row>
-    <row r="23" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3473,7 +3477,7 @@
       <c r="AR23" s="4"/>
       <c r="AS23" s="4"/>
     </row>
-    <row r="24" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="15.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3520,7 +3524,7 @@
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
     </row>
-    <row r="25" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3567,7 +3571,7 @@
       <c r="AR25" s="4"/>
       <c r="AS25" s="4"/>
     </row>
-    <row r="26" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3614,7 +3618,7 @@
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
     </row>
-    <row r="27" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3661,7 +3665,7 @@
       <c r="AR27" s="4"/>
       <c r="AS27" s="4"/>
     </row>
-    <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3708,7 +3712,7 @@
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
     </row>
-    <row r="29" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3755,7 +3759,7 @@
       <c r="AR29" s="4"/>
       <c r="AS29" s="4"/>
     </row>
-    <row r="30" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="15.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3802,7 +3806,7 @@
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
     </row>
-    <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3849,7 +3853,7 @@
       <c r="AR31" s="4"/>
       <c r="AS31" s="4"/>
     </row>
-    <row r="32" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3896,7 +3900,7 @@
       <c r="AR32" s="4"/>
       <c r="AS32" s="4"/>
     </row>
-    <row r="33" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3943,7 +3947,7 @@
       <c r="AR33" s="4"/>
       <c r="AS33" s="4"/>
     </row>
-    <row r="34" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3990,7 +3994,7 @@
       <c r="AR34" s="4"/>
       <c r="AS34" s="4"/>
     </row>
-    <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -4037,7 +4041,7 @@
       <c r="AR35" s="4"/>
       <c r="AS35" s="4"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4084,7 +4088,7 @@
       <c r="AR36" s="4"/>
       <c r="AS36" s="4"/>
     </row>
-    <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4131,7 +4135,7 @@
       <c r="AR37" s="4"/>
       <c r="AS37" s="4"/>
     </row>
-    <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4178,7 +4182,7 @@
       <c r="AR38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4225,7 +4229,7 @@
       <c r="AR39" s="4"/>
       <c r="AS39" s="4"/>
     </row>
-    <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4272,7 +4276,7 @@
       <c r="AR40" s="4"/>
       <c r="AS40" s="4"/>
     </row>
-    <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4319,7 +4323,7 @@
       <c r="AR41" s="4"/>
       <c r="AS41" s="4"/>
     </row>
-    <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -4366,7 +4370,7 @@
       <c r="AR42" s="4"/>
       <c r="AS42" s="4"/>
     </row>
-    <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4413,7 +4417,7 @@
       <c r="AR43" s="4"/>
       <c r="AS43" s="4"/>
     </row>
-    <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4460,7 +4464,7 @@
       <c r="AR44" s="4"/>
       <c r="AS44" s="4"/>
     </row>
-    <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -4507,7 +4511,7 @@
       <c r="AR45" s="4"/>
       <c r="AS45" s="4"/>
     </row>
-    <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -4554,7 +4558,7 @@
       <c r="AR46" s="4"/>
       <c r="AS46" s="4"/>
     </row>
-    <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" ht="15.75" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -4601,7 +4605,7 @@
       <c r="AR47" s="4"/>
       <c r="AS47" s="4"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4648,7 +4652,7 @@
       <c r="AR48" s="4"/>
       <c r="AS48" s="4"/>
     </row>
-    <row r="49" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -4695,7 +4699,7 @@
       <c r="AR49" s="4"/>
       <c r="AS49" s="4"/>
     </row>
-    <row r="50" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -4742,7 +4746,7 @@
       <c r="AR50" s="4"/>
       <c r="AS50" s="4"/>
     </row>
-    <row r="51" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -4789,7 +4793,7 @@
       <c r="AR51" s="4"/>
       <c r="AS51" s="4"/>
     </row>
-    <row r="52" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" ht="15.75" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -4836,7 +4840,7 @@
       <c r="AR52" s="4"/>
       <c r="AS52" s="4"/>
     </row>
-    <row r="53" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" ht="15.75" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4883,7 +4887,7 @@
       <c r="AR53" s="4"/>
       <c r="AS53" s="4"/>
     </row>
-    <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" ht="15.75" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -4930,7 +4934,7 @@
       <c r="AR54" s="4"/>
       <c r="AS54" s="4"/>
     </row>
-    <row r="55" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" ht="15.75" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -4977,7 +4981,7 @@
       <c r="AR55" s="4"/>
       <c r="AS55" s="4"/>
     </row>
-    <row r="56" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" ht="15.75" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -5024,7 +5028,7 @@
       <c r="AR56" s="4"/>
       <c r="AS56" s="4"/>
     </row>
-    <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" ht="15.75" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -5071,7 +5075,7 @@
       <c r="AR57" s="4"/>
       <c r="AS57" s="4"/>
     </row>
-    <row r="58" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" ht="15.75" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -5118,7 +5122,7 @@
       <c r="AR58" s="4"/>
       <c r="AS58" s="4"/>
     </row>
-    <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" ht="15.75" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -5165,7 +5169,7 @@
       <c r="AR59" s="4"/>
       <c r="AS59" s="4"/>
     </row>
-    <row r="60" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -5212,7 +5216,7 @@
       <c r="AR60" s="4"/>
       <c r="AS60" s="4"/>
     </row>
-    <row r="61" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" ht="15.75" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -5259,7 +5263,7 @@
       <c r="AR61" s="4"/>
       <c r="AS61" s="4"/>
     </row>
-    <row r="62" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -5306,7 +5310,7 @@
       <c r="AR62" s="4"/>
       <c r="AS62" s="4"/>
     </row>
-    <row r="63" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -5353,7 +5357,7 @@
       <c r="AR63" s="4"/>
       <c r="AS63" s="4"/>
     </row>
-    <row r="64" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" ht="15.75" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -5400,7 +5404,7 @@
       <c r="AR64" s="4"/>
       <c r="AS64" s="4"/>
     </row>
-    <row r="65" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" ht="15.75" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -5447,7 +5451,7 @@
       <c r="AR65" s="4"/>
       <c r="AS65" s="4"/>
     </row>
-    <row r="66" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" ht="15.75" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -5494,7 +5498,7 @@
       <c r="AR66" s="4"/>
       <c r="AS66" s="4"/>
     </row>
-    <row r="67" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" ht="15.75" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -5541,7 +5545,7 @@
       <c r="AR67" s="4"/>
       <c r="AS67" s="4"/>
     </row>
-    <row r="68" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" ht="15.75" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -5588,7 +5592,7 @@
       <c r="AR68" s="4"/>
       <c r="AS68" s="4"/>
     </row>
-    <row r="69" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" ht="15.75" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -5635,7 +5639,7 @@
       <c r="AR69" s="4"/>
       <c r="AS69" s="4"/>
     </row>
-    <row r="70" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" ht="15.75" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -5682,7 +5686,7 @@
       <c r="AR70" s="4"/>
       <c r="AS70" s="4"/>
     </row>
-    <row r="71" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" ht="15.75" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -5729,7 +5733,7 @@
       <c r="AR71" s="4"/>
       <c r="AS71" s="4"/>
     </row>
-    <row r="72" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" ht="15.75" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -5776,7 +5780,7 @@
       <c r="AR72" s="4"/>
       <c r="AS72" s="4"/>
     </row>
-    <row r="73" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:45" ht="15.75" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -5823,7 +5827,7 @@
       <c r="AR73" s="4"/>
       <c r="AS73" s="4"/>
     </row>
-    <row r="74" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" ht="15.75" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -5870,7 +5874,7 @@
       <c r="AR74" s="4"/>
       <c r="AS74" s="4"/>
     </row>
-    <row r="75" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" ht="15.75" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -5917,7 +5921,7 @@
       <c r="AR75" s="4"/>
       <c r="AS75" s="4"/>
     </row>
-    <row r="76" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" ht="15.75" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -5964,7 +5968,7 @@
       <c r="AR76" s="4"/>
       <c r="AS76" s="4"/>
     </row>
-    <row r="77" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" ht="15.75" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6011,7 +6015,7 @@
       <c r="AR77" s="4"/>
       <c r="AS77" s="4"/>
     </row>
-    <row r="78" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" ht="15.75" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6058,7 +6062,7 @@
       <c r="AR78" s="4"/>
       <c r="AS78" s="4"/>
     </row>
-    <row r="79" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" ht="15.75" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6105,7 +6109,7 @@
       <c r="AR79" s="4"/>
       <c r="AS79" s="4"/>
     </row>
-    <row r="80" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" ht="15.75" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6152,7 +6156,7 @@
       <c r="AR80" s="4"/>
       <c r="AS80" s="4"/>
     </row>
-    <row r="81" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" ht="15.75" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6199,7 +6203,7 @@
       <c r="AR81" s="4"/>
       <c r="AS81" s="4"/>
     </row>
-    <row r="82" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:45" ht="15.75" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6246,7 +6250,7 @@
       <c r="AR82" s="4"/>
       <c r="AS82" s="4"/>
     </row>
-    <row r="83" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" ht="15.75" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6293,7 +6297,7 @@
       <c r="AR83" s="4"/>
       <c r="AS83" s="4"/>
     </row>
-    <row r="84" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" ht="15.75" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6340,7 +6344,7 @@
       <c r="AR84" s="4"/>
       <c r="AS84" s="4"/>
     </row>
-    <row r="85" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" ht="15.75" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6387,7 +6391,7 @@
       <c r="AR85" s="4"/>
       <c r="AS85" s="4"/>
     </row>
-    <row r="86" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:45" ht="15.75" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6434,7 +6438,7 @@
       <c r="AR86" s="4"/>
       <c r="AS86" s="4"/>
     </row>
-    <row r="87" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:45" ht="15.75" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6481,7 +6485,7 @@
       <c r="AR87" s="4"/>
       <c r="AS87" s="4"/>
     </row>
-    <row r="88" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:45" ht="15.75" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6528,7 +6532,7 @@
       <c r="AR88" s="4"/>
       <c r="AS88" s="4"/>
     </row>
-    <row r="89" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:45" ht="15.75" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6575,7 +6579,7 @@
       <c r="AR89" s="4"/>
       <c r="AS89" s="4"/>
     </row>
-    <row r="90" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" ht="15.75" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6622,7 +6626,7 @@
       <c r="AR90" s="4"/>
       <c r="AS90" s="4"/>
     </row>
-    <row r="91" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" ht="15.75" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -6669,7 +6673,7 @@
       <c r="AR91" s="4"/>
       <c r="AS91" s="4"/>
     </row>
-    <row r="92" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" ht="15.75" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -6716,7 +6720,7 @@
       <c r="AR92" s="4"/>
       <c r="AS92" s="4"/>
     </row>
-    <row r="93" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:45" ht="15.75" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -6763,7 +6767,7 @@
       <c r="AR93" s="4"/>
       <c r="AS93" s="4"/>
     </row>
-    <row r="94" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:45" ht="15.75" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -6810,7 +6814,7 @@
       <c r="AR94" s="4"/>
       <c r="AS94" s="4"/>
     </row>
-    <row r="95" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:45" ht="15.75" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -6857,7 +6861,7 @@
       <c r="AR95" s="4"/>
       <c r="AS95" s="4"/>
     </row>
-    <row r="96" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:45" ht="15.75" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -6904,7 +6908,7 @@
       <c r="AR96" s="4"/>
       <c r="AS96" s="4"/>
     </row>
-    <row r="97" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:45" ht="15.75" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -6951,7 +6955,7 @@
       <c r="AR97" s="4"/>
       <c r="AS97" s="4"/>
     </row>
-    <row r="98" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" ht="15.75" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -6998,7 +7002,7 @@
       <c r="AR98" s="4"/>
       <c r="AS98" s="4"/>
     </row>
-    <row r="99" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" ht="15.75" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -7045,7 +7049,7 @@
       <c r="AR99" s="4"/>
       <c r="AS99" s="4"/>
     </row>
-    <row r="100" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" ht="15.75" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -7092,7 +7096,7 @@
       <c r="AR100" s="4"/>
       <c r="AS100" s="4"/>
     </row>
-    <row r="101" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" ht="15.75" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -7139,7 +7143,7 @@
       <c r="AR101" s="4"/>
       <c r="AS101" s="4"/>
     </row>
-    <row r="102" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" ht="15.75" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -7186,7 +7190,7 @@
       <c r="AR102" s="4"/>
       <c r="AS102" s="4"/>
     </row>
-    <row r="103" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" ht="15.75" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -7233,7 +7237,7 @@
       <c r="AR103" s="4"/>
       <c r="AS103" s="4"/>
     </row>
-    <row r="104" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" ht="15.75" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -7280,7 +7284,7 @@
       <c r="AR104" s="4"/>
       <c r="AS104" s="4"/>
     </row>
-    <row r="105" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" ht="15.75" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -7327,7 +7331,7 @@
       <c r="AR105" s="4"/>
       <c r="AS105" s="4"/>
     </row>
-    <row r="106" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" ht="15.75" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -7374,7 +7378,7 @@
       <c r="AR106" s="4"/>
       <c r="AS106" s="4"/>
     </row>
-    <row r="107" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" ht="15.75" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -7421,7 +7425,7 @@
       <c r="AR107" s="4"/>
       <c r="AS107" s="4"/>
     </row>
-    <row r="108" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" ht="15.75" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -7468,7 +7472,7 @@
       <c r="AR108" s="4"/>
       <c r="AS108" s="4"/>
     </row>
-    <row r="109" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" ht="15.75" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -7515,7 +7519,7 @@
       <c r="AR109" s="4"/>
       <c r="AS109" s="4"/>
     </row>
-    <row r="110" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" ht="15.75" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -7562,7 +7566,7 @@
       <c r="AR110" s="4"/>
       <c r="AS110" s="4"/>
     </row>
-    <row r="111" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" ht="15.75" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -7609,7 +7613,7 @@
       <c r="AR111" s="4"/>
       <c r="AS111" s="4"/>
     </row>
-    <row r="112" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:45" ht="15.75" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -7656,7 +7660,7 @@
       <c r="AR112" s="4"/>
       <c r="AS112" s="4"/>
     </row>
-    <row r="113" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" ht="15.75" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -7703,7 +7707,7 @@
       <c r="AR113" s="4"/>
       <c r="AS113" s="4"/>
     </row>
-    <row r="114" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" ht="15.75" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -7750,7 +7754,7 @@
       <c r="AR114" s="4"/>
       <c r="AS114" s="4"/>
     </row>
-    <row r="115" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:45" ht="15.75" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -7797,7 +7801,7 @@
       <c r="AR115" s="4"/>
       <c r="AS115" s="4"/>
     </row>
-    <row r="116" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" ht="15.75" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -7844,7 +7848,7 @@
       <c r="AR116" s="4"/>
       <c r="AS116" s="4"/>
     </row>
-    <row r="117" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" ht="15.75" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -7891,7 +7895,7 @@
       <c r="AR117" s="4"/>
       <c r="AS117" s="4"/>
     </row>
-    <row r="118" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:45" ht="15.75" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -7938,7 +7942,7 @@
       <c r="AR118" s="4"/>
       <c r="AS118" s="4"/>
     </row>
-    <row r="119" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" ht="15.75" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -7985,7 +7989,7 @@
       <c r="AR119" s="4"/>
       <c r="AS119" s="4"/>
     </row>
-    <row r="120" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:45" ht="15.75" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -8032,7 +8036,7 @@
       <c r="AR120" s="4"/>
       <c r="AS120" s="4"/>
     </row>
-    <row r="121" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:45" ht="15.75" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -8079,7 +8083,7 @@
       <c r="AR121" s="4"/>
       <c r="AS121" s="4"/>
     </row>
-    <row r="122" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:45" ht="15.75" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -8126,7 +8130,7 @@
       <c r="AR122" s="4"/>
       <c r="AS122" s="4"/>
     </row>
-    <row r="123" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:45" ht="15.75" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -8173,7 +8177,7 @@
       <c r="AR123" s="4"/>
       <c r="AS123" s="4"/>
     </row>
-    <row r="124" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:45" ht="15.75" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -8220,7 +8224,7 @@
       <c r="AR124" s="4"/>
       <c r="AS124" s="4"/>
     </row>
-    <row r="125" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:45" ht="15.75" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -8267,7 +8271,7 @@
       <c r="AR125" s="4"/>
       <c r="AS125" s="4"/>
     </row>
-    <row r="126" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:45" ht="15.75" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -8314,7 +8318,7 @@
       <c r="AR126" s="4"/>
       <c r="AS126" s="4"/>
     </row>
-    <row r="127" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:45" ht="15.75" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -8361,7 +8365,7 @@
       <c r="AR127" s="4"/>
       <c r="AS127" s="4"/>
     </row>
-    <row r="128" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:45" ht="15.75" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -8408,7 +8412,7 @@
       <c r="AR128" s="4"/>
       <c r="AS128" s="4"/>
     </row>
-    <row r="129" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:45" ht="15.75" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -8455,7 +8459,7 @@
       <c r="AR129" s="4"/>
       <c r="AS129" s="4"/>
     </row>
-    <row r="130" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:45" ht="15.75" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -8502,7 +8506,7 @@
       <c r="AR130" s="4"/>
       <c r="AS130" s="4"/>
     </row>
-    <row r="131" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:45" ht="15.75" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -8549,7 +8553,7 @@
       <c r="AR131" s="4"/>
       <c r="AS131" s="4"/>
     </row>
-    <row r="132" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:45" ht="15.75" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -8596,7 +8600,7 @@
       <c r="AR132" s="4"/>
       <c r="AS132" s="4"/>
     </row>
-    <row r="133" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:45" ht="15.75" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -8643,7 +8647,7 @@
       <c r="AR133" s="4"/>
       <c r="AS133" s="4"/>
     </row>
-    <row r="134" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:45" ht="15.75" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -8690,7 +8694,7 @@
       <c r="AR134" s="4"/>
       <c r="AS134" s="4"/>
     </row>
-    <row r="135" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:45" ht="15.75" customHeight="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -8737,7 +8741,7 @@
       <c r="AR135" s="4"/>
       <c r="AS135" s="4"/>
     </row>
-    <row r="136" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:45" ht="15.75" customHeight="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -8784,7 +8788,7 @@
       <c r="AR136" s="4"/>
       <c r="AS136" s="4"/>
     </row>
-    <row r="137" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:45" ht="15.75" customHeight="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -8831,7 +8835,7 @@
       <c r="AR137" s="4"/>
       <c r="AS137" s="4"/>
     </row>
-    <row r="138" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:45" ht="15.75" customHeight="1">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -8878,7 +8882,7 @@
       <c r="AR138" s="4"/>
       <c r="AS138" s="4"/>
     </row>
-    <row r="139" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:45" ht="15.75" customHeight="1">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -8925,7 +8929,7 @@
       <c r="AR139" s="4"/>
       <c r="AS139" s="4"/>
     </row>
-    <row r="140" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:45" ht="15.75" customHeight="1">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -8972,7 +8976,7 @@
       <c r="AR140" s="4"/>
       <c r="AS140" s="4"/>
     </row>
-    <row r="141" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:45" ht="15.75" customHeight="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -9019,7 +9023,7 @@
       <c r="AR141" s="4"/>
       <c r="AS141" s="4"/>
     </row>
-    <row r="142" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:45" ht="15.75" customHeight="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -9066,7 +9070,7 @@
       <c r="AR142" s="4"/>
       <c r="AS142" s="4"/>
     </row>
-    <row r="143" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:45" ht="15.75" customHeight="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -9113,7 +9117,7 @@
       <c r="AR143" s="4"/>
       <c r="AS143" s="4"/>
     </row>
-    <row r="144" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:45" ht="15.75" customHeight="1">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -9160,7 +9164,7 @@
       <c r="AR144" s="4"/>
       <c r="AS144" s="4"/>
     </row>
-    <row r="145" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:45" ht="15.75" customHeight="1">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -9207,7 +9211,7 @@
       <c r="AR145" s="4"/>
       <c r="AS145" s="4"/>
     </row>
-    <row r="146" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:45" ht="15.75" customHeight="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -9254,7 +9258,7 @@
       <c r="AR146" s="4"/>
       <c r="AS146" s="4"/>
     </row>
-    <row r="147" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:45" ht="15.75" customHeight="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -9301,7 +9305,7 @@
       <c r="AR147" s="4"/>
       <c r="AS147" s="4"/>
     </row>
-    <row r="148" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:45" ht="15.75" customHeight="1">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -9348,7 +9352,7 @@
       <c r="AR148" s="4"/>
       <c r="AS148" s="4"/>
     </row>
-    <row r="149" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:45" ht="15.75" customHeight="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -9395,7 +9399,7 @@
       <c r="AR149" s="4"/>
       <c r="AS149" s="4"/>
     </row>
-    <row r="150" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:45" ht="15.75" customHeight="1">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -9442,7 +9446,7 @@
       <c r="AR150" s="4"/>
       <c r="AS150" s="4"/>
     </row>
-    <row r="151" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:45" ht="15.75" customHeight="1">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -9489,7 +9493,7 @@
       <c r="AR151" s="4"/>
       <c r="AS151" s="4"/>
     </row>
-    <row r="152" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:45" ht="15.75" customHeight="1">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -9536,7 +9540,7 @@
       <c r="AR152" s="4"/>
       <c r="AS152" s="4"/>
     </row>
-    <row r="153" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:45" ht="15.75" customHeight="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -9583,7 +9587,7 @@
       <c r="AR153" s="4"/>
       <c r="AS153" s="4"/>
     </row>
-    <row r="154" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:45" ht="15.75" customHeight="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -9630,7 +9634,7 @@
       <c r="AR154" s="4"/>
       <c r="AS154" s="4"/>
     </row>
-    <row r="155" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:45" ht="15.75" customHeight="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -9677,7 +9681,7 @@
       <c r="AR155" s="4"/>
       <c r="AS155" s="4"/>
     </row>
-    <row r="156" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:45" ht="15.75" customHeight="1">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -9724,7 +9728,7 @@
       <c r="AR156" s="4"/>
       <c r="AS156" s="4"/>
     </row>
-    <row r="157" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:45" ht="15.75" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -9771,7 +9775,7 @@
       <c r="AR157" s="4"/>
       <c r="AS157" s="4"/>
     </row>
-    <row r="158" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:45" ht="15.75" customHeight="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -9818,7 +9822,7 @@
       <c r="AR158" s="4"/>
       <c r="AS158" s="4"/>
     </row>
-    <row r="159" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:45" ht="15.75" customHeight="1">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -9865,7 +9869,7 @@
       <c r="AR159" s="4"/>
       <c r="AS159" s="4"/>
     </row>
-    <row r="160" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:45" ht="15.75" customHeight="1">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -9912,7 +9916,7 @@
       <c r="AR160" s="4"/>
       <c r="AS160" s="4"/>
     </row>
-    <row r="161" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:45" ht="15.75" customHeight="1">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -9959,7 +9963,7 @@
       <c r="AR161" s="4"/>
       <c r="AS161" s="4"/>
     </row>
-    <row r="162" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:45" ht="15.75" customHeight="1">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -10006,7 +10010,7 @@
       <c r="AR162" s="4"/>
       <c r="AS162" s="4"/>
     </row>
-    <row r="163" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:45" ht="15.75" customHeight="1">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -10053,7 +10057,7 @@
       <c r="AR163" s="4"/>
       <c r="AS163" s="4"/>
     </row>
-    <row r="164" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:45" ht="15.75" customHeight="1">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -10100,7 +10104,7 @@
       <c r="AR164" s="4"/>
       <c r="AS164" s="4"/>
     </row>
-    <row r="165" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:45" ht="15.75" customHeight="1">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -10147,7 +10151,7 @@
       <c r="AR165" s="4"/>
       <c r="AS165" s="4"/>
     </row>
-    <row r="166" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:45" ht="15.75" customHeight="1">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -10194,7 +10198,7 @@
       <c r="AR166" s="4"/>
       <c r="AS166" s="4"/>
     </row>
-    <row r="167" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:45" ht="15.75" customHeight="1">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -10241,7 +10245,7 @@
       <c r="AR167" s="4"/>
       <c r="AS167" s="4"/>
     </row>
-    <row r="168" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:45" ht="15.75" customHeight="1">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -10288,7 +10292,7 @@
       <c r="AR168" s="4"/>
       <c r="AS168" s="4"/>
     </row>
-    <row r="169" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:45" ht="15.75" customHeight="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -10335,7 +10339,7 @@
       <c r="AR169" s="4"/>
       <c r="AS169" s="4"/>
     </row>
-    <row r="170" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:45" ht="15.75" customHeight="1">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -10382,7 +10386,7 @@
       <c r="AR170" s="4"/>
       <c r="AS170" s="4"/>
     </row>
-    <row r="171" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:45" ht="15.75" customHeight="1">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -10429,7 +10433,7 @@
       <c r="AR171" s="4"/>
       <c r="AS171" s="4"/>
     </row>
-    <row r="172" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:45" ht="15.75" customHeight="1">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -10476,7 +10480,7 @@
       <c r="AR172" s="4"/>
       <c r="AS172" s="4"/>
     </row>
-    <row r="173" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:45" ht="15.75" customHeight="1">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -10523,7 +10527,7 @@
       <c r="AR173" s="4"/>
       <c r="AS173" s="4"/>
     </row>
-    <row r="174" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:45" ht="15.75" customHeight="1">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -10570,7 +10574,7 @@
       <c r="AR174" s="4"/>
       <c r="AS174" s="4"/>
     </row>
-    <row r="175" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:45" ht="15.75" customHeight="1">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -10617,7 +10621,7 @@
       <c r="AR175" s="4"/>
       <c r="AS175" s="4"/>
     </row>
-    <row r="176" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:45" ht="15.75" customHeight="1">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -10664,7 +10668,7 @@
       <c r="AR176" s="4"/>
       <c r="AS176" s="4"/>
     </row>
-    <row r="177" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:45" ht="15.75" customHeight="1">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -10711,7 +10715,7 @@
       <c r="AR177" s="4"/>
       <c r="AS177" s="4"/>
     </row>
-    <row r="178" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:45" ht="15.75" customHeight="1">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -10758,7 +10762,7 @@
       <c r="AR178" s="4"/>
       <c r="AS178" s="4"/>
     </row>
-    <row r="179" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:45" ht="15.75" customHeight="1">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -10805,7 +10809,7 @@
       <c r="AR179" s="4"/>
       <c r="AS179" s="4"/>
     </row>
-    <row r="180" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:45" ht="15.75" customHeight="1">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -10852,7 +10856,7 @@
       <c r="AR180" s="4"/>
       <c r="AS180" s="4"/>
     </row>
-    <row r="181" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:45" ht="15.75" customHeight="1">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -10899,7 +10903,7 @@
       <c r="AR181" s="4"/>
       <c r="AS181" s="4"/>
     </row>
-    <row r="182" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:45" ht="15.75" customHeight="1">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -10946,7 +10950,7 @@
       <c r="AR182" s="4"/>
       <c r="AS182" s="4"/>
     </row>
-    <row r="183" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:45" ht="15.75" customHeight="1">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -10993,7 +10997,7 @@
       <c r="AR183" s="4"/>
       <c r="AS183" s="4"/>
     </row>
-    <row r="184" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:45" ht="15.75" customHeight="1">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -11040,7 +11044,7 @@
       <c r="AR184" s="4"/>
       <c r="AS184" s="4"/>
     </row>
-    <row r="185" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:45" ht="15.75" customHeight="1">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -11087,7 +11091,7 @@
       <c r="AR185" s="4"/>
       <c r="AS185" s="4"/>
     </row>
-    <row r="186" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:45" ht="15.75" customHeight="1">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -11134,7 +11138,7 @@
       <c r="AR186" s="4"/>
       <c r="AS186" s="4"/>
     </row>
-    <row r="187" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:45" ht="15.75" customHeight="1">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -11181,7 +11185,7 @@
       <c r="AR187" s="4"/>
       <c r="AS187" s="4"/>
     </row>
-    <row r="188" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:45" ht="15.75" customHeight="1">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -11228,7 +11232,7 @@
       <c r="AR188" s="4"/>
       <c r="AS188" s="4"/>
     </row>
-    <row r="189" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:45" ht="15.75" customHeight="1">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -11275,7 +11279,7 @@
       <c r="AR189" s="4"/>
       <c r="AS189" s="4"/>
     </row>
-    <row r="190" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:45" ht="15.75" customHeight="1">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -11322,7 +11326,7 @@
       <c r="AR190" s="4"/>
       <c r="AS190" s="4"/>
     </row>
-    <row r="191" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:45" ht="15.75" customHeight="1">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -11369,7 +11373,7 @@
       <c r="AR191" s="4"/>
       <c r="AS191" s="4"/>
     </row>
-    <row r="192" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:45" ht="15.75" customHeight="1">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -11416,7 +11420,7 @@
       <c r="AR192" s="4"/>
       <c r="AS192" s="4"/>
     </row>
-    <row r="193" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:45" ht="15.75" customHeight="1">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -11463,7 +11467,7 @@
       <c r="AR193" s="4"/>
       <c r="AS193" s="4"/>
     </row>
-    <row r="194" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:45" ht="15.75" customHeight="1">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -11510,7 +11514,7 @@
       <c r="AR194" s="4"/>
       <c r="AS194" s="4"/>
     </row>
-    <row r="195" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:45" ht="15.75" customHeight="1">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -11557,7 +11561,7 @@
       <c r="AR195" s="4"/>
       <c r="AS195" s="4"/>
     </row>
-    <row r="196" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:45" ht="15.75" customHeight="1">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -11604,7 +11608,7 @@
       <c r="AR196" s="4"/>
       <c r="AS196" s="4"/>
     </row>
-    <row r="197" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:45" ht="15.75" customHeight="1">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -11651,7 +11655,7 @@
       <c r="AR197" s="4"/>
       <c r="AS197" s="4"/>
     </row>
-    <row r="198" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:45" ht="15.75" customHeight="1">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -11698,7 +11702,7 @@
       <c r="AR198" s="4"/>
       <c r="AS198" s="4"/>
     </row>
-    <row r="199" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:45" ht="15.75" customHeight="1">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -11745,7 +11749,7 @@
       <c r="AR199" s="4"/>
       <c r="AS199" s="4"/>
     </row>
-    <row r="200" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:45" ht="15.75" customHeight="1">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -11792,7 +11796,7 @@
       <c r="AR200" s="4"/>
       <c r="AS200" s="4"/>
     </row>
-    <row r="201" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:45" ht="15.75" customHeight="1">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -11839,7 +11843,7 @@
       <c r="AR201" s="4"/>
       <c r="AS201" s="4"/>
     </row>
-    <row r="202" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:45" ht="15.75" customHeight="1">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -11886,7 +11890,7 @@
       <c r="AR202" s="4"/>
       <c r="AS202" s="4"/>
     </row>
-    <row r="203" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:45" ht="15.75" customHeight="1">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -11933,7 +11937,7 @@
       <c r="AR203" s="4"/>
       <c r="AS203" s="4"/>
     </row>
-    <row r="204" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:45" ht="15.75" customHeight="1">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -11980,7 +11984,7 @@
       <c r="AR204" s="4"/>
       <c r="AS204" s="4"/>
     </row>
-    <row r="205" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:45" ht="15.75" customHeight="1">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -12027,7 +12031,7 @@
       <c r="AR205" s="4"/>
       <c r="AS205" s="4"/>
     </row>
-    <row r="206" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:45" ht="15.75" customHeight="1">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -12074,7 +12078,7 @@
       <c r="AR206" s="4"/>
       <c r="AS206" s="4"/>
     </row>
-    <row r="207" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:45" ht="15.75" customHeight="1">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -12121,7 +12125,7 @@
       <c r="AR207" s="4"/>
       <c r="AS207" s="4"/>
     </row>
-    <row r="208" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:45" ht="15.75" customHeight="1">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -12168,7 +12172,7 @@
       <c r="AR208" s="4"/>
       <c r="AS208" s="4"/>
     </row>
-    <row r="209" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:45" ht="15.75" customHeight="1">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -12215,7 +12219,7 @@
       <c r="AR209" s="4"/>
       <c r="AS209" s="4"/>
     </row>
-    <row r="210" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:45" ht="15.75" customHeight="1">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -12262,7 +12266,7 @@
       <c r="AR210" s="4"/>
       <c r="AS210" s="4"/>
     </row>
-    <row r="211" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:45" ht="15.75" customHeight="1">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -12309,7 +12313,7 @@
       <c r="AR211" s="4"/>
       <c r="AS211" s="4"/>
     </row>
-    <row r="212" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:45" ht="15.75" customHeight="1">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -12356,7 +12360,7 @@
       <c r="AR212" s="4"/>
       <c r="AS212" s="4"/>
     </row>
-    <row r="213" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:45" ht="15.75" customHeight="1">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -12403,7 +12407,7 @@
       <c r="AR213" s="4"/>
       <c r="AS213" s="4"/>
     </row>
-    <row r="214" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:45" ht="15.75" customHeight="1">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -12450,7 +12454,7 @@
       <c r="AR214" s="4"/>
       <c r="AS214" s="4"/>
     </row>
-    <row r="215" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:45" ht="15.75" customHeight="1">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -12497,7 +12501,7 @@
       <c r="AR215" s="4"/>
       <c r="AS215" s="4"/>
     </row>
-    <row r="216" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:45" ht="15.75" customHeight="1">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -12544,7 +12548,7 @@
       <c r="AR216" s="4"/>
       <c r="AS216" s="4"/>
     </row>
-    <row r="217" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:45" ht="15.75" customHeight="1">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -12591,7 +12595,7 @@
       <c r="AR217" s="4"/>
       <c r="AS217" s="4"/>
     </row>
-    <row r="218" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:45" ht="15.75" customHeight="1">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -12638,7 +12642,7 @@
       <c r="AR218" s="4"/>
       <c r="AS218" s="4"/>
     </row>
-    <row r="219" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:45" ht="15.75" customHeight="1">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -12685,7 +12689,7 @@
       <c r="AR219" s="4"/>
       <c r="AS219" s="4"/>
     </row>
-    <row r="220" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:45" ht="15.75" customHeight="1">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -12732,7 +12736,7 @@
       <c r="AR220" s="4"/>
       <c r="AS220" s="4"/>
     </row>
-    <row r="221" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:45" ht="15.75" customHeight="1">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -12779,7 +12783,7 @@
       <c r="AR221" s="4"/>
       <c r="AS221" s="4"/>
     </row>
-    <row r="222" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:45" ht="15.75" customHeight="1">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -12826,7 +12830,7 @@
       <c r="AR222" s="4"/>
       <c r="AS222" s="4"/>
     </row>
-    <row r="223" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:45" ht="15.75" customHeight="1">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -12873,7 +12877,7 @@
       <c r="AR223" s="4"/>
       <c r="AS223" s="4"/>
     </row>
-    <row r="224" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:45" ht="15.75" customHeight="1">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -12920,7 +12924,7 @@
       <c r="AR224" s="4"/>
       <c r="AS224" s="4"/>
     </row>
-    <row r="225" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:45" ht="15.75" customHeight="1">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -12967,7 +12971,7 @@
       <c r="AR225" s="4"/>
       <c r="AS225" s="4"/>
     </row>
-    <row r="226" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:45" ht="15.75" customHeight="1">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -13014,7 +13018,7 @@
       <c r="AR226" s="4"/>
       <c r="AS226" s="4"/>
     </row>
-    <row r="227" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:45" ht="15.75" customHeight="1">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -13061,7 +13065,7 @@
       <c r="AR227" s="4"/>
       <c r="AS227" s="4"/>
     </row>
-    <row r="228" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:45" ht="15.75" customHeight="1">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -13108,7 +13112,7 @@
       <c r="AR228" s="4"/>
       <c r="AS228" s="4"/>
     </row>
-    <row r="229" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:45" ht="15.75" customHeight="1">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -13155,7 +13159,7 @@
       <c r="AR229" s="4"/>
       <c r="AS229" s="4"/>
     </row>
-    <row r="230" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:45" ht="15.75" customHeight="1">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -13202,7 +13206,7 @@
       <c r="AR230" s="4"/>
       <c r="AS230" s="4"/>
     </row>
-    <row r="231" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:45" ht="15.75" customHeight="1">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -13249,7 +13253,7 @@
       <c r="AR231" s="4"/>
       <c r="AS231" s="4"/>
     </row>
-    <row r="232" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:45" ht="15.75" customHeight="1">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -13296,7 +13300,7 @@
       <c r="AR232" s="4"/>
       <c r="AS232" s="4"/>
     </row>
-    <row r="233" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:45" ht="15.75" customHeight="1">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -13343,7 +13347,7 @@
       <c r="AR233" s="4"/>
       <c r="AS233" s="4"/>
     </row>
-    <row r="234" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:45" ht="15.75" customHeight="1">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -13390,7 +13394,7 @@
       <c r="AR234" s="4"/>
       <c r="AS234" s="4"/>
     </row>
-    <row r="235" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:45" ht="15.75" customHeight="1">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -13437,7 +13441,7 @@
       <c r="AR235" s="4"/>
       <c r="AS235" s="4"/>
     </row>
-    <row r="236" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:45" ht="15.75" customHeight="1">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -13484,7 +13488,7 @@
       <c r="AR236" s="4"/>
       <c r="AS236" s="4"/>
     </row>
-    <row r="237" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:45" ht="15.75" customHeight="1">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -13531,7 +13535,7 @@
       <c r="AR237" s="4"/>
       <c r="AS237" s="4"/>
     </row>
-    <row r="238" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:45" ht="15.75" customHeight="1">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -13578,7 +13582,7 @@
       <c r="AR238" s="4"/>
       <c r="AS238" s="4"/>
     </row>
-    <row r="239" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:45" ht="15.75" customHeight="1">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -13625,7 +13629,7 @@
       <c r="AR239" s="4"/>
       <c r="AS239" s="4"/>
     </row>
-    <row r="240" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:45" ht="15.75" customHeight="1">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -13672,7 +13676,7 @@
       <c r="AR240" s="4"/>
       <c r="AS240" s="4"/>
     </row>
-    <row r="241" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:45" ht="15.75" customHeight="1">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -13719,7 +13723,7 @@
       <c r="AR241" s="4"/>
       <c r="AS241" s="4"/>
     </row>
-    <row r="242" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:45" ht="15.75" customHeight="1">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -13766,7 +13770,7 @@
       <c r="AR242" s="4"/>
       <c r="AS242" s="4"/>
     </row>
-    <row r="243" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:45" ht="15.75" customHeight="1">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -13813,7 +13817,7 @@
       <c r="AR243" s="4"/>
       <c r="AS243" s="4"/>
     </row>
-    <row r="244" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:45" ht="15.75" customHeight="1">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -13860,7 +13864,7 @@
       <c r="AR244" s="4"/>
       <c r="AS244" s="4"/>
     </row>
-    <row r="245" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:45" ht="15.75" customHeight="1">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -13907,7 +13911,7 @@
       <c r="AR245" s="4"/>
       <c r="AS245" s="4"/>
     </row>
-    <row r="246" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:45" ht="15.75" customHeight="1">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -13954,7 +13958,7 @@
       <c r="AR246" s="4"/>
       <c r="AS246" s="4"/>
     </row>
-    <row r="247" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:45" ht="15.75" customHeight="1">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -14001,7 +14005,7 @@
       <c r="AR247" s="4"/>
       <c r="AS247" s="4"/>
     </row>
-    <row r="248" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:45" ht="15.75" customHeight="1">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -14048,7 +14052,7 @@
       <c r="AR248" s="4"/>
       <c r="AS248" s="4"/>
     </row>
-    <row r="249" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:45" ht="15.75" customHeight="1">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -14095,7 +14099,7 @@
       <c r="AR249" s="4"/>
       <c r="AS249" s="4"/>
     </row>
-    <row r="250" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:45" ht="15.75" customHeight="1">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -14142,7 +14146,7 @@
       <c r="AR250" s="4"/>
       <c r="AS250" s="4"/>
     </row>
-    <row r="251" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:45" ht="15.75" customHeight="1">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -14189,7 +14193,7 @@
       <c r="AR251" s="4"/>
       <c r="AS251" s="4"/>
     </row>
-    <row r="252" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:45" ht="15.75" customHeight="1">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -14236,7 +14240,7 @@
       <c r="AR252" s="4"/>
       <c r="AS252" s="4"/>
     </row>
-    <row r="253" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:45" ht="15.75" customHeight="1">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -14283,7 +14287,7 @@
       <c r="AR253" s="4"/>
       <c r="AS253" s="4"/>
     </row>
-    <row r="254" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:45" ht="15.75" customHeight="1">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -14330,7 +14334,7 @@
       <c r="AR254" s="4"/>
       <c r="AS254" s="4"/>
     </row>
-    <row r="255" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:45" ht="15.75" customHeight="1">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -14377,7 +14381,7 @@
       <c r="AR255" s="4"/>
       <c r="AS255" s="4"/>
     </row>
-    <row r="256" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:45" ht="15.75" customHeight="1">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -14424,7 +14428,7 @@
       <c r="AR256" s="4"/>
       <c r="AS256" s="4"/>
     </row>
-    <row r="257" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:45" ht="15.75" customHeight="1">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -14471,7 +14475,7 @@
       <c r="AR257" s="4"/>
       <c r="AS257" s="4"/>
     </row>
-    <row r="258" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:45" ht="15.75" customHeight="1">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -14518,7 +14522,7 @@
       <c r="AR258" s="4"/>
       <c r="AS258" s="4"/>
     </row>
-    <row r="259" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:45" ht="15.75" customHeight="1">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -14565,7 +14569,7 @@
       <c r="AR259" s="4"/>
       <c r="AS259" s="4"/>
     </row>
-    <row r="260" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:45" ht="15.75" customHeight="1">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -14612,7 +14616,7 @@
       <c r="AR260" s="4"/>
       <c r="AS260" s="4"/>
     </row>
-    <row r="261" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:45" ht="15.75" customHeight="1">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -14659,7 +14663,7 @@
       <c r="AR261" s="4"/>
       <c r="AS261" s="4"/>
     </row>
-    <row r="262" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:45" ht="15.75" customHeight="1">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -14706,7 +14710,7 @@
       <c r="AR262" s="4"/>
       <c r="AS262" s="4"/>
     </row>
-    <row r="263" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:45" ht="15.75" customHeight="1">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -14753,7 +14757,7 @@
       <c r="AR263" s="4"/>
       <c r="AS263" s="4"/>
     </row>
-    <row r="264" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:45" ht="15.75" customHeight="1">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -14800,7 +14804,7 @@
       <c r="AR264" s="4"/>
       <c r="AS264" s="4"/>
     </row>
-    <row r="265" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:45" ht="15.75" customHeight="1">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -14847,7 +14851,7 @@
       <c r="AR265" s="4"/>
       <c r="AS265" s="4"/>
     </row>
-    <row r="266" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:45" ht="15.75" customHeight="1">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -14894,7 +14898,7 @@
       <c r="AR266" s="4"/>
       <c r="AS266" s="4"/>
     </row>
-    <row r="267" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:45" ht="15.75" customHeight="1">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -14941,7 +14945,7 @@
       <c r="AR267" s="4"/>
       <c r="AS267" s="4"/>
     </row>
-    <row r="268" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:45" ht="15.75" customHeight="1">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -14988,7 +14992,7 @@
       <c r="AR268" s="4"/>
       <c r="AS268" s="4"/>
     </row>
-    <row r="269" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:45" ht="15.75" customHeight="1">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -15035,7 +15039,7 @@
       <c r="AR269" s="4"/>
       <c r="AS269" s="4"/>
     </row>
-    <row r="270" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:45" ht="15.75" customHeight="1">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -15082,7 +15086,7 @@
       <c r="AR270" s="4"/>
       <c r="AS270" s="4"/>
     </row>
-    <row r="271" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:45" ht="15.75" customHeight="1">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -15129,7 +15133,7 @@
       <c r="AR271" s="4"/>
       <c r="AS271" s="4"/>
     </row>
-    <row r="272" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:45" ht="15.75" customHeight="1">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -15176,7 +15180,7 @@
       <c r="AR272" s="4"/>
       <c r="AS272" s="4"/>
     </row>
-    <row r="273" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:45" ht="15.75" customHeight="1">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -15223,7 +15227,7 @@
       <c r="AR273" s="4"/>
       <c r="AS273" s="4"/>
     </row>
-    <row r="274" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:45" ht="15.75" customHeight="1">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -15270,7 +15274,7 @@
       <c r="AR274" s="4"/>
       <c r="AS274" s="4"/>
     </row>
-    <row r="275" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:45" ht="15.75" customHeight="1">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -15317,7 +15321,7 @@
       <c r="AR275" s="4"/>
       <c r="AS275" s="4"/>
     </row>
-    <row r="276" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:45" ht="15.75" customHeight="1">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -15364,7 +15368,7 @@
       <c r="AR276" s="4"/>
       <c r="AS276" s="4"/>
     </row>
-    <row r="277" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:45" ht="15.75" customHeight="1">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -15411,7 +15415,7 @@
       <c r="AR277" s="4"/>
       <c r="AS277" s="4"/>
     </row>
-    <row r="278" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:45" ht="15.75" customHeight="1">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -15458,7 +15462,7 @@
       <c r="AR278" s="4"/>
       <c r="AS278" s="4"/>
     </row>
-    <row r="279" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:45" ht="15.75" customHeight="1">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -15505,7 +15509,7 @@
       <c r="AR279" s="4"/>
       <c r="AS279" s="4"/>
     </row>
-    <row r="280" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:45" ht="15.75" customHeight="1">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -15552,7 +15556,7 @@
       <c r="AR280" s="4"/>
       <c r="AS280" s="4"/>
     </row>
-    <row r="281" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:45" ht="15.75" customHeight="1">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -15599,7 +15603,7 @@
       <c r="AR281" s="4"/>
       <c r="AS281" s="4"/>
     </row>
-    <row r="282" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:45" ht="15.75" customHeight="1">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -15646,7 +15650,7 @@
       <c r="AR282" s="4"/>
       <c r="AS282" s="4"/>
     </row>
-    <row r="283" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:45" ht="15.75" customHeight="1">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -15693,7 +15697,7 @@
       <c r="AR283" s="4"/>
       <c r="AS283" s="4"/>
     </row>
-    <row r="284" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:45" ht="15.75" customHeight="1">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -15740,7 +15744,7 @@
       <c r="AR284" s="4"/>
       <c r="AS284" s="4"/>
     </row>
-    <row r="285" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:45" ht="15.75" customHeight="1">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -15787,7 +15791,7 @@
       <c r="AR285" s="4"/>
       <c r="AS285" s="4"/>
     </row>
-    <row r="286" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:45" ht="15.75" customHeight="1">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -15834,7 +15838,7 @@
       <c r="AR286" s="4"/>
       <c r="AS286" s="4"/>
     </row>
-    <row r="287" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:45" ht="15.75" customHeight="1">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -15881,7 +15885,7 @@
       <c r="AR287" s="4"/>
       <c r="AS287" s="4"/>
     </row>
-    <row r="288" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:45" ht="15.75" customHeight="1">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -15928,7 +15932,7 @@
       <c r="AR288" s="4"/>
       <c r="AS288" s="4"/>
     </row>
-    <row r="289" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:45" ht="15.75" customHeight="1">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -15975,7 +15979,7 @@
       <c r="AR289" s="4"/>
       <c r="AS289" s="4"/>
     </row>
-    <row r="290" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:45" ht="15.75" customHeight="1">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -16022,7 +16026,7 @@
       <c r="AR290" s="4"/>
       <c r="AS290" s="4"/>
     </row>
-    <row r="291" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:45" ht="15.75" customHeight="1">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -16069,7 +16073,7 @@
       <c r="AR291" s="4"/>
       <c r="AS291" s="4"/>
     </row>
-    <row r="292" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:45" ht="15.75" customHeight="1">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -16116,7 +16120,7 @@
       <c r="AR292" s="4"/>
       <c r="AS292" s="4"/>
     </row>
-    <row r="293" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:45" ht="15.75" customHeight="1">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -16163,7 +16167,7 @@
       <c r="AR293" s="4"/>
       <c r="AS293" s="4"/>
     </row>
-    <row r="294" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:45" ht="15.75" customHeight="1">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -16210,7 +16214,7 @@
       <c r="AR294" s="4"/>
       <c r="AS294" s="4"/>
     </row>
-    <row r="295" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:45" ht="15.75" customHeight="1">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -16257,7 +16261,7 @@
       <c r="AR295" s="4"/>
       <c r="AS295" s="4"/>
     </row>
-    <row r="296" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:45" ht="15.75" customHeight="1">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -16304,7 +16308,7 @@
       <c r="AR296" s="4"/>
       <c r="AS296" s="4"/>
     </row>
-    <row r="297" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:45" ht="15.75" customHeight="1">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -16351,7 +16355,7 @@
       <c r="AR297" s="4"/>
       <c r="AS297" s="4"/>
     </row>
-    <row r="298" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:45" ht="15.75" customHeight="1">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -16398,7 +16402,7 @@
       <c r="AR298" s="4"/>
       <c r="AS298" s="4"/>
     </row>
-    <row r="299" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:45" ht="15.75" customHeight="1">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -16445,7 +16449,7 @@
       <c r="AR299" s="4"/>
       <c r="AS299" s="4"/>
     </row>
-    <row r="300" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:45" ht="15.75" customHeight="1">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -16492,7 +16496,7 @@
       <c r="AR300" s="4"/>
       <c r="AS300" s="4"/>
     </row>
-    <row r="301" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:45" ht="15.75" customHeight="1">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -16539,7 +16543,7 @@
       <c r="AR301" s="4"/>
       <c r="AS301" s="4"/>
     </row>
-    <row r="302" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:45" ht="15.75" customHeight="1">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -16586,7 +16590,7 @@
       <c r="AR302" s="4"/>
       <c r="AS302" s="4"/>
     </row>
-    <row r="303" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:45" ht="15.75" customHeight="1">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -16633,7 +16637,7 @@
       <c r="AR303" s="4"/>
       <c r="AS303" s="4"/>
     </row>
-    <row r="304" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:45" ht="15.75" customHeight="1">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -16680,7 +16684,7 @@
       <c r="AR304" s="4"/>
       <c r="AS304" s="4"/>
     </row>
-    <row r="305" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:45" ht="15.75" customHeight="1">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -16727,7 +16731,7 @@
       <c r="AR305" s="4"/>
       <c r="AS305" s="4"/>
     </row>
-    <row r="306" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:45" ht="15.75" customHeight="1">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -16774,7 +16778,7 @@
       <c r="AR306" s="4"/>
       <c r="AS306" s="4"/>
     </row>
-    <row r="307" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:45" ht="15.75" customHeight="1">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -16821,7 +16825,7 @@
       <c r="AR307" s="4"/>
       <c r="AS307" s="4"/>
     </row>
-    <row r="308" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:45" ht="15.75" customHeight="1">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -16868,7 +16872,7 @@
       <c r="AR308" s="4"/>
       <c r="AS308" s="4"/>
     </row>
-    <row r="309" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:45" ht="15.75" customHeight="1">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -16915,7 +16919,7 @@
       <c r="AR309" s="4"/>
       <c r="AS309" s="4"/>
     </row>
-    <row r="310" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:45" ht="15.75" customHeight="1">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -16962,7 +16966,7 @@
       <c r="AR310" s="4"/>
       <c r="AS310" s="4"/>
     </row>
-    <row r="311" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:45" ht="15.75" customHeight="1">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -17009,7 +17013,7 @@
       <c r="AR311" s="4"/>
       <c r="AS311" s="4"/>
     </row>
-    <row r="312" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:45" ht="15.75" customHeight="1">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -17056,7 +17060,7 @@
       <c r="AR312" s="4"/>
       <c r="AS312" s="4"/>
     </row>
-    <row r="313" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:45" ht="15.75" customHeight="1">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -17103,7 +17107,7 @@
       <c r="AR313" s="4"/>
       <c r="AS313" s="4"/>
     </row>
-    <row r="314" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:45" ht="15.75" customHeight="1">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -17150,7 +17154,7 @@
       <c r="AR314" s="4"/>
       <c r="AS314" s="4"/>
     </row>
-    <row r="315" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:45" ht="15.75" customHeight="1">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -17197,7 +17201,7 @@
       <c r="AR315" s="4"/>
       <c r="AS315" s="4"/>
     </row>
-    <row r="316" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:45" ht="15.75" customHeight="1">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -17244,7 +17248,7 @@
       <c r="AR316" s="4"/>
       <c r="AS316" s="4"/>
     </row>
-    <row r="317" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:45" ht="15.75" customHeight="1">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -17291,7 +17295,7 @@
       <c r="AR317" s="4"/>
       <c r="AS317" s="4"/>
     </row>
-    <row r="318" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:45" ht="15.75" customHeight="1">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -17338,7 +17342,7 @@
       <c r="AR318" s="4"/>
       <c r="AS318" s="4"/>
     </row>
-    <row r="319" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:45" ht="15.75" customHeight="1">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -17385,7 +17389,7 @@
       <c r="AR319" s="4"/>
       <c r="AS319" s="4"/>
     </row>
-    <row r="320" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:45" ht="15.75" customHeight="1">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -17432,7 +17436,7 @@
       <c r="AR320" s="4"/>
       <c r="AS320" s="4"/>
     </row>
-    <row r="321" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:45" ht="15.75" customHeight="1">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -17479,7 +17483,7 @@
       <c r="AR321" s="4"/>
       <c r="AS321" s="4"/>
     </row>
-    <row r="322" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:45" ht="15.75" customHeight="1">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -17526,7 +17530,7 @@
       <c r="AR322" s="4"/>
       <c r="AS322" s="4"/>
     </row>
-    <row r="323" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:45" ht="15.75" customHeight="1">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -17573,7 +17577,7 @@
       <c r="AR323" s="4"/>
       <c r="AS323" s="4"/>
     </row>
-    <row r="324" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:45" ht="15.75" customHeight="1">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -17620,7 +17624,7 @@
       <c r="AR324" s="4"/>
       <c r="AS324" s="4"/>
     </row>
-    <row r="325" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:45" ht="15.75" customHeight="1">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -17667,7 +17671,7 @@
       <c r="AR325" s="4"/>
       <c r="AS325" s="4"/>
     </row>
-    <row r="326" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:45" ht="15.75" customHeight="1">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -17714,7 +17718,7 @@
       <c r="AR326" s="4"/>
       <c r="AS326" s="4"/>
     </row>
-    <row r="327" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:45" ht="15.75" customHeight="1">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -17761,7 +17765,7 @@
       <c r="AR327" s="4"/>
       <c r="AS327" s="4"/>
     </row>
-    <row r="328" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:45" ht="15.75" customHeight="1">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -17808,7 +17812,7 @@
       <c r="AR328" s="4"/>
       <c r="AS328" s="4"/>
     </row>
-    <row r="329" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:45" ht="15.75" customHeight="1">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -17855,7 +17859,7 @@
       <c r="AR329" s="4"/>
       <c r="AS329" s="4"/>
     </row>
-    <row r="330" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:45" ht="15.75" customHeight="1">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -17902,7 +17906,7 @@
       <c r="AR330" s="4"/>
       <c r="AS330" s="4"/>
     </row>
-    <row r="331" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:45" ht="15.75" customHeight="1">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -17949,7 +17953,7 @@
       <c r="AR331" s="4"/>
       <c r="AS331" s="4"/>
     </row>
-    <row r="332" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:45" ht="15.75" customHeight="1">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -17996,7 +18000,7 @@
       <c r="AR332" s="4"/>
       <c r="AS332" s="4"/>
     </row>
-    <row r="333" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:45" ht="15.75" customHeight="1">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -18043,7 +18047,7 @@
       <c r="AR333" s="4"/>
       <c r="AS333" s="4"/>
     </row>
-    <row r="334" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:45" ht="15.75" customHeight="1">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -18090,7 +18094,7 @@
       <c r="AR334" s="4"/>
       <c r="AS334" s="4"/>
     </row>
-    <row r="335" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:45" ht="15.75" customHeight="1">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -18137,7 +18141,7 @@
       <c r="AR335" s="4"/>
       <c r="AS335" s="4"/>
     </row>
-    <row r="336" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:45" ht="15.75" customHeight="1">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -18184,7 +18188,7 @@
       <c r="AR336" s="4"/>
       <c r="AS336" s="4"/>
     </row>
-    <row r="337" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:45" ht="15.75" customHeight="1">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -18231,7 +18235,7 @@
       <c r="AR337" s="4"/>
       <c r="AS337" s="4"/>
     </row>
-    <row r="338" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:45" ht="15.75" customHeight="1">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -18278,7 +18282,7 @@
       <c r="AR338" s="4"/>
       <c r="AS338" s="4"/>
     </row>
-    <row r="339" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:45" ht="15.75" customHeight="1">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -18325,7 +18329,7 @@
       <c r="AR339" s="4"/>
       <c r="AS339" s="4"/>
     </row>
-    <row r="340" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:45" ht="15.75" customHeight="1">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -18372,7 +18376,7 @@
       <c r="AR340" s="4"/>
       <c r="AS340" s="4"/>
     </row>
-    <row r="341" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:45" ht="15.75" customHeight="1">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -18419,7 +18423,7 @@
       <c r="AR341" s="4"/>
       <c r="AS341" s="4"/>
     </row>
-    <row r="342" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:45" ht="15.75" customHeight="1">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -18466,7 +18470,7 @@
       <c r="AR342" s="4"/>
       <c r="AS342" s="4"/>
     </row>
-    <row r="343" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:45" ht="15.75" customHeight="1">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -18513,7 +18517,7 @@
       <c r="AR343" s="4"/>
       <c r="AS343" s="4"/>
     </row>
-    <row r="344" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:45" ht="15.75" customHeight="1">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -18560,7 +18564,7 @@
       <c r="AR344" s="4"/>
       <c r="AS344" s="4"/>
     </row>
-    <row r="345" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:45" ht="15.75" customHeight="1">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -18607,7 +18611,7 @@
       <c r="AR345" s="4"/>
       <c r="AS345" s="4"/>
     </row>
-    <row r="346" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:45" ht="15.75" customHeight="1">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -18654,7 +18658,7 @@
       <c r="AR346" s="4"/>
       <c r="AS346" s="4"/>
     </row>
-    <row r="347" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:45" ht="15.75" customHeight="1">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -18701,7 +18705,7 @@
       <c r="AR347" s="4"/>
       <c r="AS347" s="4"/>
     </row>
-    <row r="348" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:45" ht="15.75" customHeight="1">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -18748,7 +18752,7 @@
       <c r="AR348" s="4"/>
       <c r="AS348" s="4"/>
     </row>
-    <row r="349" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:45" ht="15.75" customHeight="1">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -18795,7 +18799,7 @@
       <c r="AR349" s="4"/>
       <c r="AS349" s="4"/>
     </row>
-    <row r="350" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:45" ht="15.75" customHeight="1">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -18842,7 +18846,7 @@
       <c r="AR350" s="4"/>
       <c r="AS350" s="4"/>
     </row>
-    <row r="351" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:45" ht="15.75" customHeight="1">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -18889,7 +18893,7 @@
       <c r="AR351" s="4"/>
       <c r="AS351" s="4"/>
     </row>
-    <row r="352" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:45" ht="15.75" customHeight="1">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -18936,7 +18940,7 @@
       <c r="AR352" s="4"/>
       <c r="AS352" s="4"/>
     </row>
-    <row r="353" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:45" ht="15.75" customHeight="1">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -18983,7 +18987,7 @@
       <c r="AR353" s="4"/>
       <c r="AS353" s="4"/>
     </row>
-    <row r="354" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:45" ht="15.75" customHeight="1">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -19030,7 +19034,7 @@
       <c r="AR354" s="4"/>
       <c r="AS354" s="4"/>
     </row>
-    <row r="355" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:45" ht="15.75" customHeight="1">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -19077,7 +19081,7 @@
       <c r="AR355" s="4"/>
       <c r="AS355" s="4"/>
     </row>
-    <row r="356" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:45" ht="15.75" customHeight="1">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -19124,7 +19128,7 @@
       <c r="AR356" s="4"/>
       <c r="AS356" s="4"/>
     </row>
-    <row r="357" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:45" ht="15.75" customHeight="1">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -19171,7 +19175,7 @@
       <c r="AR357" s="4"/>
       <c r="AS357" s="4"/>
     </row>
-    <row r="358" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:45" ht="15.75" customHeight="1">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -19218,7 +19222,7 @@
       <c r="AR358" s="4"/>
       <c r="AS358" s="4"/>
     </row>
-    <row r="359" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:45" ht="15.75" customHeight="1">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -19265,7 +19269,7 @@
       <c r="AR359" s="4"/>
       <c r="AS359" s="4"/>
     </row>
-    <row r="360" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:45" ht="15.75" customHeight="1">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -19312,7 +19316,7 @@
       <c r="AR360" s="4"/>
       <c r="AS360" s="4"/>
     </row>
-    <row r="361" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:45" ht="15.75" customHeight="1">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -19359,7 +19363,7 @@
       <c r="AR361" s="4"/>
       <c r="AS361" s="4"/>
     </row>
-    <row r="362" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:45" ht="15.75" customHeight="1">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -19406,7 +19410,7 @@
       <c r="AR362" s="4"/>
       <c r="AS362" s="4"/>
     </row>
-    <row r="363" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:45" ht="15.75" customHeight="1">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -19453,7 +19457,7 @@
       <c r="AR363" s="4"/>
       <c r="AS363" s="4"/>
     </row>
-    <row r="364" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:45" ht="15.75" customHeight="1">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -19500,7 +19504,7 @@
       <c r="AR364" s="4"/>
       <c r="AS364" s="4"/>
     </row>
-    <row r="365" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:45" ht="15.75" customHeight="1">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -19547,7 +19551,7 @@
       <c r="AR365" s="4"/>
       <c r="AS365" s="4"/>
     </row>
-    <row r="366" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:45" ht="15.75" customHeight="1">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -19594,7 +19598,7 @@
       <c r="AR366" s="4"/>
       <c r="AS366" s="4"/>
     </row>
-    <row r="367" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:45" ht="15.75" customHeight="1">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -19641,7 +19645,7 @@
       <c r="AR367" s="4"/>
       <c r="AS367" s="4"/>
     </row>
-    <row r="368" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:45" ht="15.75" customHeight="1">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -19688,7 +19692,7 @@
       <c r="AR368" s="4"/>
       <c r="AS368" s="4"/>
     </row>
-    <row r="369" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:45" ht="15.75" customHeight="1">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -19735,7 +19739,7 @@
       <c r="AR369" s="4"/>
       <c r="AS369" s="4"/>
     </row>
-    <row r="370" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:45" ht="15.75" customHeight="1">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -19782,7 +19786,7 @@
       <c r="AR370" s="4"/>
       <c r="AS370" s="4"/>
     </row>
-    <row r="371" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:45" ht="15.75" customHeight="1">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -19829,7 +19833,7 @@
       <c r="AR371" s="4"/>
       <c r="AS371" s="4"/>
     </row>
-    <row r="372" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:45" ht="15.75" customHeight="1">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -19876,7 +19880,7 @@
       <c r="AR372" s="4"/>
       <c r="AS372" s="4"/>
     </row>
-    <row r="373" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:45" ht="15.75" customHeight="1">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -19923,7 +19927,7 @@
       <c r="AR373" s="4"/>
       <c r="AS373" s="4"/>
     </row>
-    <row r="374" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:45" ht="15.75" customHeight="1">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -19970,7 +19974,7 @@
       <c r="AR374" s="4"/>
       <c r="AS374" s="4"/>
     </row>
-    <row r="375" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:45" ht="15.75" customHeight="1">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -20017,7 +20021,7 @@
       <c r="AR375" s="4"/>
       <c r="AS375" s="4"/>
     </row>
-    <row r="376" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:45" ht="15.75" customHeight="1">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -20064,7 +20068,7 @@
       <c r="AR376" s="4"/>
       <c r="AS376" s="4"/>
     </row>
-    <row r="377" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:45" ht="15.75" customHeight="1">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -20111,7 +20115,7 @@
       <c r="AR377" s="4"/>
       <c r="AS377" s="4"/>
     </row>
-    <row r="378" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:45" ht="15.75" customHeight="1">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -20158,7 +20162,7 @@
       <c r="AR378" s="4"/>
       <c r="AS378" s="4"/>
     </row>
-    <row r="379" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:45" ht="15.75" customHeight="1">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -20205,7 +20209,7 @@
       <c r="AR379" s="4"/>
       <c r="AS379" s="4"/>
     </row>
-    <row r="380" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:45" ht="15.75" customHeight="1">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -20252,7 +20256,7 @@
       <c r="AR380" s="4"/>
       <c r="AS380" s="4"/>
     </row>
-    <row r="381" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:45" ht="15.75" customHeight="1">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -20299,7 +20303,7 @@
       <c r="AR381" s="4"/>
       <c r="AS381" s="4"/>
     </row>
-    <row r="382" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:45" ht="15.75" customHeight="1">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -20346,7 +20350,7 @@
       <c r="AR382" s="4"/>
       <c r="AS382" s="4"/>
     </row>
-    <row r="383" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:45" ht="15.75" customHeight="1">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -20393,7 +20397,7 @@
       <c r="AR383" s="4"/>
       <c r="AS383" s="4"/>
     </row>
-    <row r="384" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:45" ht="15.75" customHeight="1">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -20440,7 +20444,7 @@
       <c r="AR384" s="4"/>
       <c r="AS384" s="4"/>
     </row>
-    <row r="385" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:45" ht="15.75" customHeight="1">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -20487,7 +20491,7 @@
       <c r="AR385" s="4"/>
       <c r="AS385" s="4"/>
     </row>
-    <row r="386" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:45" ht="15.75" customHeight="1">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -20534,7 +20538,7 @@
       <c r="AR386" s="4"/>
       <c r="AS386" s="4"/>
     </row>
-    <row r="387" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:45" ht="15.75" customHeight="1">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -20581,7 +20585,7 @@
       <c r="AR387" s="4"/>
       <c r="AS387" s="4"/>
     </row>
-    <row r="388" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:45" ht="15.75" customHeight="1">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -20628,7 +20632,7 @@
       <c r="AR388" s="4"/>
       <c r="AS388" s="4"/>
     </row>
-    <row r="389" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:45" ht="15.75" customHeight="1">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -20675,7 +20679,7 @@
       <c r="AR389" s="4"/>
       <c r="AS389" s="4"/>
     </row>
-    <row r="390" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:45" ht="15.75" customHeight="1">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -20722,7 +20726,7 @@
       <c r="AR390" s="4"/>
       <c r="AS390" s="4"/>
     </row>
-    <row r="391" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:45" ht="15.75" customHeight="1">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -20769,7 +20773,7 @@
       <c r="AR391" s="4"/>
       <c r="AS391" s="4"/>
     </row>
-    <row r="392" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:45" ht="15.75" customHeight="1">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -20816,7 +20820,7 @@
       <c r="AR392" s="4"/>
       <c r="AS392" s="4"/>
     </row>
-    <row r="393" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:45" ht="15.75" customHeight="1">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -20863,7 +20867,7 @@
       <c r="AR393" s="4"/>
       <c r="AS393" s="4"/>
     </row>
-    <row r="394" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:45" ht="15.75" customHeight="1">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -20910,7 +20914,7 @@
       <c r="AR394" s="4"/>
       <c r="AS394" s="4"/>
     </row>
-    <row r="395" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:45" ht="15.75" customHeight="1">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -20957,7 +20961,7 @@
       <c r="AR395" s="4"/>
       <c r="AS395" s="4"/>
     </row>
-    <row r="396" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:45" ht="15.75" customHeight="1">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -21004,7 +21008,7 @@
       <c r="AR396" s="4"/>
       <c r="AS396" s="4"/>
     </row>
-    <row r="397" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:45" ht="15.75" customHeight="1">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -21051,7 +21055,7 @@
       <c r="AR397" s="4"/>
       <c r="AS397" s="4"/>
     </row>
-    <row r="398" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:45" ht="15.75" customHeight="1">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -21098,7 +21102,7 @@
       <c r="AR398" s="4"/>
       <c r="AS398" s="4"/>
     </row>
-    <row r="399" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:45" ht="15.75" customHeight="1">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -21145,7 +21149,7 @@
       <c r="AR399" s="4"/>
       <c r="AS399" s="4"/>
     </row>
-    <row r="400" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:45" ht="15.75" customHeight="1">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -21192,7 +21196,7 @@
       <c r="AR400" s="4"/>
       <c r="AS400" s="4"/>
     </row>
-    <row r="401" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:45" ht="15.75" customHeight="1">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -21239,7 +21243,7 @@
       <c r="AR401" s="4"/>
       <c r="AS401" s="4"/>
     </row>
-    <row r="402" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:45" ht="15.75" customHeight="1">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -21286,7 +21290,7 @@
       <c r="AR402" s="4"/>
       <c r="AS402" s="4"/>
     </row>
-    <row r="403" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:45" ht="15.75" customHeight="1">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -21333,7 +21337,7 @@
       <c r="AR403" s="4"/>
       <c r="AS403" s="4"/>
     </row>
-    <row r="404" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:45" ht="15.75" customHeight="1">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -21380,7 +21384,7 @@
       <c r="AR404" s="4"/>
       <c r="AS404" s="4"/>
     </row>
-    <row r="405" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:45" ht="15.75" customHeight="1">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -21427,7 +21431,7 @@
       <c r="AR405" s="4"/>
       <c r="AS405" s="4"/>
     </row>
-    <row r="406" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:45" ht="15.75" customHeight="1">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -21474,7 +21478,7 @@
       <c r="AR406" s="4"/>
       <c r="AS406" s="4"/>
     </row>
-    <row r="407" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:45" ht="15.75" customHeight="1">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -21521,7 +21525,7 @@
       <c r="AR407" s="4"/>
       <c r="AS407" s="4"/>
     </row>
-    <row r="408" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:45" ht="15.75" customHeight="1">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -21568,7 +21572,7 @@
       <c r="AR408" s="4"/>
       <c r="AS408" s="4"/>
     </row>
-    <row r="409" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:45" ht="15.75" customHeight="1">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -21615,7 +21619,7 @@
       <c r="AR409" s="4"/>
       <c r="AS409" s="4"/>
     </row>
-    <row r="410" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:45" ht="15.75" customHeight="1">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -21662,7 +21666,7 @@
       <c r="AR410" s="4"/>
       <c r="AS410" s="4"/>
     </row>
-    <row r="411" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:45" ht="15.75" customHeight="1">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -21709,7 +21713,7 @@
       <c r="AR411" s="4"/>
       <c r="AS411" s="4"/>
     </row>
-    <row r="412" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:45" ht="15.75" customHeight="1">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -21756,7 +21760,7 @@
       <c r="AR412" s="4"/>
       <c r="AS412" s="4"/>
     </row>
-    <row r="413" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:45" ht="15.75" customHeight="1">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -21803,7 +21807,7 @@
       <c r="AR413" s="4"/>
       <c r="AS413" s="4"/>
     </row>
-    <row r="414" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:45" ht="15.75" customHeight="1">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -21850,7 +21854,7 @@
       <c r="AR414" s="4"/>
       <c r="AS414" s="4"/>
     </row>
-    <row r="415" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:45" ht="15.75" customHeight="1">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -21897,7 +21901,7 @@
       <c r="AR415" s="4"/>
       <c r="AS415" s="4"/>
     </row>
-    <row r="416" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:45" ht="15.75" customHeight="1">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -21944,7 +21948,7 @@
       <c r="AR416" s="4"/>
       <c r="AS416" s="4"/>
     </row>
-    <row r="417" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:45" ht="15.75" customHeight="1">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -21991,7 +21995,7 @@
       <c r="AR417" s="4"/>
       <c r="AS417" s="4"/>
     </row>
-    <row r="418" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:45" ht="15.75" customHeight="1">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -22038,7 +22042,7 @@
       <c r="AR418" s="4"/>
       <c r="AS418" s="4"/>
     </row>
-    <row r="419" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:45" ht="15.75" customHeight="1">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -22085,7 +22089,7 @@
       <c r="AR419" s="4"/>
       <c r="AS419" s="4"/>
     </row>
-    <row r="420" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:45" ht="15.75" customHeight="1">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -22132,7 +22136,7 @@
       <c r="AR420" s="4"/>
       <c r="AS420" s="4"/>
     </row>
-    <row r="421" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:45" ht="15.75" customHeight="1">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -22179,7 +22183,7 @@
       <c r="AR421" s="4"/>
       <c r="AS421" s="4"/>
     </row>
-    <row r="422" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:45" ht="15.75" customHeight="1">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -22226,7 +22230,7 @@
       <c r="AR422" s="4"/>
       <c r="AS422" s="4"/>
     </row>
-    <row r="423" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:45" ht="15.75" customHeight="1">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -22273,7 +22277,7 @@
       <c r="AR423" s="4"/>
       <c r="AS423" s="4"/>
     </row>
-    <row r="424" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:45" ht="15.75" customHeight="1">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -22320,7 +22324,7 @@
       <c r="AR424" s="4"/>
       <c r="AS424" s="4"/>
     </row>
-    <row r="425" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:45" ht="15.75" customHeight="1">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -22367,7 +22371,7 @@
       <c r="AR425" s="4"/>
       <c r="AS425" s="4"/>
     </row>
-    <row r="426" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:45" ht="15.75" customHeight="1">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -22414,7 +22418,7 @@
       <c r="AR426" s="4"/>
       <c r="AS426" s="4"/>
     </row>
-    <row r="427" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:45" ht="15.75" customHeight="1">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -22461,7 +22465,7 @@
       <c r="AR427" s="4"/>
       <c r="AS427" s="4"/>
     </row>
-    <row r="428" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:45" ht="15.75" customHeight="1">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -22508,7 +22512,7 @@
       <c r="AR428" s="4"/>
       <c r="AS428" s="4"/>
     </row>
-    <row r="429" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:45" ht="15.75" customHeight="1">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -22555,7 +22559,7 @@
       <c r="AR429" s="4"/>
       <c r="AS429" s="4"/>
     </row>
-    <row r="430" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:45" ht="15.75" customHeight="1">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -22602,7 +22606,7 @@
       <c r="AR430" s="4"/>
       <c r="AS430" s="4"/>
     </row>
-    <row r="431" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:45" ht="15.75" customHeight="1">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -22649,7 +22653,7 @@
       <c r="AR431" s="4"/>
       <c r="AS431" s="4"/>
     </row>
-    <row r="432" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:45" ht="15.75" customHeight="1">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -22696,7 +22700,7 @@
       <c r="AR432" s="4"/>
       <c r="AS432" s="4"/>
     </row>
-    <row r="433" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:45" ht="15.75" customHeight="1">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -22743,7 +22747,7 @@
       <c r="AR433" s="4"/>
       <c r="AS433" s="4"/>
     </row>
-    <row r="434" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:45" ht="15.75" customHeight="1">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -22790,7 +22794,7 @@
       <c r="AR434" s="4"/>
       <c r="AS434" s="4"/>
     </row>
-    <row r="435" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:45" ht="15.75" customHeight="1">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -22837,7 +22841,7 @@
       <c r="AR435" s="4"/>
       <c r="AS435" s="4"/>
     </row>
-    <row r="436" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:45" ht="15.75" customHeight="1">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -22884,7 +22888,7 @@
       <c r="AR436" s="4"/>
       <c r="AS436" s="4"/>
     </row>
-    <row r="437" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:45" ht="15.75" customHeight="1">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -22931,7 +22935,7 @@
       <c r="AR437" s="4"/>
       <c r="AS437" s="4"/>
     </row>
-    <row r="438" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:45" ht="15.75" customHeight="1">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -22978,7 +22982,7 @@
       <c r="AR438" s="4"/>
       <c r="AS438" s="4"/>
     </row>
-    <row r="439" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:45" ht="15.75" customHeight="1">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -23025,7 +23029,7 @@
       <c r="AR439" s="4"/>
       <c r="AS439" s="4"/>
     </row>
-    <row r="440" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:45" ht="15.75" customHeight="1">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -23072,7 +23076,7 @@
       <c r="AR440" s="4"/>
       <c r="AS440" s="4"/>
     </row>
-    <row r="441" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:45" ht="15.75" customHeight="1">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -23119,7 +23123,7 @@
       <c r="AR441" s="4"/>
       <c r="AS441" s="4"/>
     </row>
-    <row r="442" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:45" ht="15.75" customHeight="1">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -23166,7 +23170,7 @@
       <c r="AR442" s="4"/>
       <c r="AS442" s="4"/>
     </row>
-    <row r="443" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:45" ht="15.75" customHeight="1">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -23213,7 +23217,7 @@
       <c r="AR443" s="4"/>
       <c r="AS443" s="4"/>
     </row>
-    <row r="444" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:45" ht="15.75" customHeight="1">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -23260,7 +23264,7 @@
       <c r="AR444" s="4"/>
       <c r="AS444" s="4"/>
     </row>
-    <row r="445" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:45" ht="15.75" customHeight="1">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -23307,7 +23311,7 @@
       <c r="AR445" s="4"/>
       <c r="AS445" s="4"/>
     </row>
-    <row r="446" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:45" ht="15.75" customHeight="1">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -23354,7 +23358,7 @@
       <c r="AR446" s="4"/>
       <c r="AS446" s="4"/>
     </row>
-    <row r="447" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:45" ht="15.75" customHeight="1">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -23401,7 +23405,7 @@
       <c r="AR447" s="4"/>
       <c r="AS447" s="4"/>
     </row>
-    <row r="448" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:45" ht="15.75" customHeight="1">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -23448,7 +23452,7 @@
       <c r="AR448" s="4"/>
       <c r="AS448" s="4"/>
     </row>
-    <row r="449" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:45" ht="15.75" customHeight="1">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -23495,7 +23499,7 @@
       <c r="AR449" s="4"/>
       <c r="AS449" s="4"/>
     </row>
-    <row r="450" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:45" ht="15.75" customHeight="1">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -23542,7 +23546,7 @@
       <c r="AR450" s="4"/>
       <c r="AS450" s="4"/>
     </row>
-    <row r="451" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:45" ht="15.75" customHeight="1">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -23589,7 +23593,7 @@
       <c r="AR451" s="4"/>
       <c r="AS451" s="4"/>
     </row>
-    <row r="452" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:45" ht="15.75" customHeight="1">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -23636,7 +23640,7 @@
       <c r="AR452" s="4"/>
       <c r="AS452" s="4"/>
     </row>
-    <row r="453" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:45" ht="15.75" customHeight="1">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -23683,7 +23687,7 @@
       <c r="AR453" s="4"/>
       <c r="AS453" s="4"/>
     </row>
-    <row r="454" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:45" ht="15.75" customHeight="1">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -23730,7 +23734,7 @@
       <c r="AR454" s="4"/>
       <c r="AS454" s="4"/>
     </row>
-    <row r="455" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:45" ht="15.75" customHeight="1">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -23777,7 +23781,7 @@
       <c r="AR455" s="4"/>
       <c r="AS455" s="4"/>
     </row>
-    <row r="456" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:45" ht="15.75" customHeight="1">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -23824,7 +23828,7 @@
       <c r="AR456" s="4"/>
       <c r="AS456" s="4"/>
     </row>
-    <row r="457" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:45" ht="15.75" customHeight="1">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -23871,7 +23875,7 @@
       <c r="AR457" s="4"/>
       <c r="AS457" s="4"/>
     </row>
-    <row r="458" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:45" ht="15.75" customHeight="1">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -23918,7 +23922,7 @@
       <c r="AR458" s="4"/>
       <c r="AS458" s="4"/>
     </row>
-    <row r="459" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:45" ht="15.75" customHeight="1">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -23965,7 +23969,7 @@
       <c r="AR459" s="4"/>
       <c r="AS459" s="4"/>
     </row>
-    <row r="460" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:45" ht="15.75" customHeight="1">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -24012,7 +24016,7 @@
       <c r="AR460" s="4"/>
       <c r="AS460" s="4"/>
     </row>
-    <row r="461" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:45" ht="15.75" customHeight="1">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -24059,7 +24063,7 @@
       <c r="AR461" s="4"/>
       <c r="AS461" s="4"/>
     </row>
-    <row r="462" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:45" ht="15.75" customHeight="1">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -24106,7 +24110,7 @@
       <c r="AR462" s="4"/>
       <c r="AS462" s="4"/>
     </row>
-    <row r="463" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:45" ht="15.75" customHeight="1">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -24153,7 +24157,7 @@
       <c r="AR463" s="4"/>
       <c r="AS463" s="4"/>
     </row>
-    <row r="464" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:45" ht="15.75" customHeight="1">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -24200,7 +24204,7 @@
       <c r="AR464" s="4"/>
       <c r="AS464" s="4"/>
     </row>
-    <row r="465" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:45" ht="15.75" customHeight="1">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -24247,7 +24251,7 @@
       <c r="AR465" s="4"/>
       <c r="AS465" s="4"/>
     </row>
-    <row r="466" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:45" ht="15.75" customHeight="1">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -24294,7 +24298,7 @@
       <c r="AR466" s="4"/>
       <c r="AS466" s="4"/>
     </row>
-    <row r="467" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:45" ht="15.75" customHeight="1">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -24341,7 +24345,7 @@
       <c r="AR467" s="4"/>
       <c r="AS467" s="4"/>
     </row>
-    <row r="468" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:45" ht="15.75" customHeight="1">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -24388,7 +24392,7 @@
       <c r="AR468" s="4"/>
       <c r="AS468" s="4"/>
     </row>
-    <row r="469" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:45" ht="15.75" customHeight="1">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -24435,7 +24439,7 @@
       <c r="AR469" s="4"/>
       <c r="AS469" s="4"/>
     </row>
-    <row r="470" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:45" ht="15.75" customHeight="1">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -24482,7 +24486,7 @@
       <c r="AR470" s="4"/>
       <c r="AS470" s="4"/>
     </row>
-    <row r="471" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:45" ht="15.75" customHeight="1">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -24529,7 +24533,7 @@
       <c r="AR471" s="4"/>
       <c r="AS471" s="4"/>
     </row>
-    <row r="472" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:45" ht="15.75" customHeight="1">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -24576,7 +24580,7 @@
       <c r="AR472" s="4"/>
       <c r="AS472" s="4"/>
     </row>
-    <row r="473" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:45" ht="15.75" customHeight="1">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -24623,7 +24627,7 @@
       <c r="AR473" s="4"/>
       <c r="AS473" s="4"/>
     </row>
-    <row r="474" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:45" ht="15.75" customHeight="1">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -24670,7 +24674,7 @@
       <c r="AR474" s="4"/>
       <c r="AS474" s="4"/>
     </row>
-    <row r="475" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:45" ht="15.75" customHeight="1">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -24717,7 +24721,7 @@
       <c r="AR475" s="4"/>
       <c r="AS475" s="4"/>
     </row>
-    <row r="476" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:45" ht="15.75" customHeight="1">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -24764,7 +24768,7 @@
       <c r="AR476" s="4"/>
       <c r="AS476" s="4"/>
     </row>
-    <row r="477" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:45" ht="15.75" customHeight="1">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -24811,7 +24815,7 @@
       <c r="AR477" s="4"/>
       <c r="AS477" s="4"/>
     </row>
-    <row r="478" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:45" ht="15.75" customHeight="1">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -24858,7 +24862,7 @@
       <c r="AR478" s="4"/>
       <c r="AS478" s="4"/>
     </row>
-    <row r="479" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:45" ht="15.75" customHeight="1">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -24905,7 +24909,7 @@
       <c r="AR479" s="4"/>
       <c r="AS479" s="4"/>
     </row>
-    <row r="480" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:45" ht="15.75" customHeight="1">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -24952,7 +24956,7 @@
       <c r="AR480" s="4"/>
       <c r="AS480" s="4"/>
     </row>
-    <row r="481" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:45" ht="15.75" customHeight="1">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -24999,7 +25003,7 @@
       <c r="AR481" s="4"/>
       <c r="AS481" s="4"/>
     </row>
-    <row r="482" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:45" ht="15.75" customHeight="1">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -25046,7 +25050,7 @@
       <c r="AR482" s="4"/>
       <c r="AS482" s="4"/>
     </row>
-    <row r="483" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:45" ht="15.75" customHeight="1">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -25093,7 +25097,7 @@
       <c r="AR483" s="4"/>
       <c r="AS483" s="4"/>
     </row>
-    <row r="484" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:45" ht="15.75" customHeight="1">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -25140,7 +25144,7 @@
       <c r="AR484" s="4"/>
       <c r="AS484" s="4"/>
     </row>
-    <row r="485" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:45" ht="15.75" customHeight="1">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -25187,7 +25191,7 @@
       <c r="AR485" s="4"/>
       <c r="AS485" s="4"/>
     </row>
-    <row r="486" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:45" ht="15.75" customHeight="1">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -25234,7 +25238,7 @@
       <c r="AR486" s="4"/>
       <c r="AS486" s="4"/>
     </row>
-    <row r="487" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:45" ht="15.75" customHeight="1">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -25281,7 +25285,7 @@
       <c r="AR487" s="4"/>
       <c r="AS487" s="4"/>
     </row>
-    <row r="488" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:45" ht="15.75" customHeight="1">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -25328,7 +25332,7 @@
       <c r="AR488" s="4"/>
       <c r="AS488" s="4"/>
     </row>
-    <row r="489" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:45" ht="15.75" customHeight="1">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -25375,7 +25379,7 @@
       <c r="AR489" s="4"/>
       <c r="AS489" s="4"/>
     </row>
-    <row r="490" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:45" ht="15.75" customHeight="1">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -25422,7 +25426,7 @@
       <c r="AR490" s="4"/>
       <c r="AS490" s="4"/>
     </row>
-    <row r="491" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:45" ht="15.75" customHeight="1">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -25469,7 +25473,7 @@
       <c r="AR491" s="4"/>
       <c r="AS491" s="4"/>
     </row>
-    <row r="492" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:45" ht="15.75" customHeight="1">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -25516,7 +25520,7 @@
       <c r="AR492" s="4"/>
       <c r="AS492" s="4"/>
     </row>
-    <row r="493" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:45" ht="15.75" customHeight="1">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -25563,7 +25567,7 @@
       <c r="AR493" s="4"/>
       <c r="AS493" s="4"/>
     </row>
-    <row r="494" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:45" ht="15.75" customHeight="1">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -25610,7 +25614,7 @@
       <c r="AR494" s="4"/>
       <c r="AS494" s="4"/>
     </row>
-    <row r="495" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:45" ht="15.75" customHeight="1">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -25657,7 +25661,7 @@
       <c r="AR495" s="4"/>
       <c r="AS495" s="4"/>
     </row>
-    <row r="496" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:45" ht="15.75" customHeight="1">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -25704,7 +25708,7 @@
       <c r="AR496" s="4"/>
       <c r="AS496" s="4"/>
     </row>
-    <row r="497" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:45" ht="15.75" customHeight="1">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -25751,7 +25755,7 @@
       <c r="AR497" s="4"/>
       <c r="AS497" s="4"/>
     </row>
-    <row r="498" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:45" ht="15.75" customHeight="1">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -25798,7 +25802,7 @@
       <c r="AR498" s="4"/>
       <c r="AS498" s="4"/>
     </row>
-    <row r="499" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:45" ht="15.75" customHeight="1">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -25845,7 +25849,7 @@
       <c r="AR499" s="4"/>
       <c r="AS499" s="4"/>
     </row>
-    <row r="500" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:45" ht="15.75" customHeight="1">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -25892,7 +25896,7 @@
       <c r="AR500" s="4"/>
       <c r="AS500" s="4"/>
     </row>
-    <row r="501" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:45" ht="15.75" customHeight="1">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -25939,7 +25943,7 @@
       <c r="AR501" s="4"/>
       <c r="AS501" s="4"/>
     </row>
-    <row r="502" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:45" ht="15.75" customHeight="1">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -25986,7 +25990,7 @@
       <c r="AR502" s="4"/>
       <c r="AS502" s="4"/>
     </row>
-    <row r="503" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:45" ht="15.75" customHeight="1">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -26033,7 +26037,7 @@
       <c r="AR503" s="4"/>
       <c r="AS503" s="4"/>
     </row>
-    <row r="504" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:45" ht="15.75" customHeight="1">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -26080,7 +26084,7 @@
       <c r="AR504" s="4"/>
       <c r="AS504" s="4"/>
     </row>
-    <row r="505" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:45" ht="15.75" customHeight="1">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -26127,7 +26131,7 @@
       <c r="AR505" s="4"/>
       <c r="AS505" s="4"/>
     </row>
-    <row r="506" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:45" ht="15.75" customHeight="1">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -26174,7 +26178,7 @@
       <c r="AR506" s="4"/>
       <c r="AS506" s="4"/>
     </row>
-    <row r="507" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:45" ht="15.75" customHeight="1">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -26221,7 +26225,7 @@
       <c r="AR507" s="4"/>
       <c r="AS507" s="4"/>
     </row>
-    <row r="508" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:45" ht="15.75" customHeight="1">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -26268,7 +26272,7 @@
       <c r="AR508" s="4"/>
       <c r="AS508" s="4"/>
     </row>
-    <row r="509" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:45" ht="15.75" customHeight="1">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -26315,7 +26319,7 @@
       <c r="AR509" s="4"/>
       <c r="AS509" s="4"/>
     </row>
-    <row r="510" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:45" ht="15.75" customHeight="1">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -26362,7 +26366,7 @@
       <c r="AR510" s="4"/>
       <c r="AS510" s="4"/>
     </row>
-    <row r="511" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:45" ht="15.75" customHeight="1">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -26409,7 +26413,7 @@
       <c r="AR511" s="4"/>
       <c r="AS511" s="4"/>
     </row>
-    <row r="512" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:45" ht="15.75" customHeight="1">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -26456,7 +26460,7 @@
       <c r="AR512" s="4"/>
       <c r="AS512" s="4"/>
     </row>
-    <row r="513" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:45" ht="15.75" customHeight="1">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -26503,7 +26507,7 @@
       <c r="AR513" s="4"/>
       <c r="AS513" s="4"/>
     </row>
-    <row r="514" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:45" ht="15.75" customHeight="1">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -26550,7 +26554,7 @@
       <c r="AR514" s="4"/>
       <c r="AS514" s="4"/>
     </row>
-    <row r="515" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:45" ht="15.75" customHeight="1">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -26597,7 +26601,7 @@
       <c r="AR515" s="4"/>
       <c r="AS515" s="4"/>
     </row>
-    <row r="516" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:45" ht="15.75" customHeight="1">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -26644,7 +26648,7 @@
       <c r="AR516" s="4"/>
       <c r="AS516" s="4"/>
     </row>
-    <row r="517" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:45" ht="15.75" customHeight="1">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -26691,7 +26695,7 @@
       <c r="AR517" s="4"/>
       <c r="AS517" s="4"/>
     </row>
-    <row r="518" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:45" ht="15.75" customHeight="1">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -26738,7 +26742,7 @@
       <c r="AR518" s="4"/>
       <c r="AS518" s="4"/>
     </row>
-    <row r="519" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:45" ht="15.75" customHeight="1">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -26785,7 +26789,7 @@
       <c r="AR519" s="4"/>
       <c r="AS519" s="4"/>
     </row>
-    <row r="520" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:45" ht="15.75" customHeight="1">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -26832,7 +26836,7 @@
       <c r="AR520" s="4"/>
       <c r="AS520" s="4"/>
     </row>
-    <row r="521" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:45" ht="15.75" customHeight="1">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -26879,7 +26883,7 @@
       <c r="AR521" s="4"/>
       <c r="AS521" s="4"/>
     </row>
-    <row r="522" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:45" ht="15.75" customHeight="1">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -26926,7 +26930,7 @@
       <c r="AR522" s="4"/>
       <c r="AS522" s="4"/>
     </row>
-    <row r="523" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:45" ht="15.75" customHeight="1">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -26973,7 +26977,7 @@
       <c r="AR523" s="4"/>
       <c r="AS523" s="4"/>
     </row>
-    <row r="524" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:45" ht="15.75" customHeight="1">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -27020,7 +27024,7 @@
       <c r="AR524" s="4"/>
       <c r="AS524" s="4"/>
     </row>
-    <row r="525" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:45" ht="15.75" customHeight="1">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -27067,7 +27071,7 @@
       <c r="AR525" s="4"/>
       <c r="AS525" s="4"/>
     </row>
-    <row r="526" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:45" ht="15.75" customHeight="1">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -27114,7 +27118,7 @@
       <c r="AR526" s="4"/>
       <c r="AS526" s="4"/>
     </row>
-    <row r="527" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:45" ht="15.75" customHeight="1">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -27161,7 +27165,7 @@
       <c r="AR527" s="4"/>
       <c r="AS527" s="4"/>
     </row>
-    <row r="528" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:45" ht="15.75" customHeight="1">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -27208,7 +27212,7 @@
       <c r="AR528" s="4"/>
       <c r="AS528" s="4"/>
     </row>
-    <row r="529" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:45" ht="15.75" customHeight="1">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -27255,7 +27259,7 @@
       <c r="AR529" s="4"/>
       <c r="AS529" s="4"/>
     </row>
-    <row r="530" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:45" ht="15.75" customHeight="1">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -27302,7 +27306,7 @@
       <c r="AR530" s="4"/>
       <c r="AS530" s="4"/>
     </row>
-    <row r="531" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:45" ht="15.75" customHeight="1">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -27349,7 +27353,7 @@
       <c r="AR531" s="4"/>
       <c r="AS531" s="4"/>
     </row>
-    <row r="532" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:45" ht="15.75" customHeight="1">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -27396,7 +27400,7 @@
       <c r="AR532" s="4"/>
       <c r="AS532" s="4"/>
     </row>
-    <row r="533" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:45" ht="15.75" customHeight="1">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -27443,7 +27447,7 @@
       <c r="AR533" s="4"/>
       <c r="AS533" s="4"/>
     </row>
-    <row r="534" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:45" ht="15.75" customHeight="1">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -27490,7 +27494,7 @@
       <c r="AR534" s="4"/>
       <c r="AS534" s="4"/>
     </row>
-    <row r="535" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:45" ht="15.75" customHeight="1">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -27537,7 +27541,7 @@
       <c r="AR535" s="4"/>
       <c r="AS535" s="4"/>
     </row>
-    <row r="536" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:45" ht="15.75" customHeight="1">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -27584,7 +27588,7 @@
       <c r="AR536" s="4"/>
       <c r="AS536" s="4"/>
     </row>
-    <row r="537" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:45" ht="15.75" customHeight="1">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -27631,7 +27635,7 @@
       <c r="AR537" s="4"/>
       <c r="AS537" s="4"/>
     </row>
-    <row r="538" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:45" ht="15.75" customHeight="1">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -27678,7 +27682,7 @@
       <c r="AR538" s="4"/>
       <c r="AS538" s="4"/>
     </row>
-    <row r="539" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:45" ht="15.75" customHeight="1">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -27725,7 +27729,7 @@
       <c r="AR539" s="4"/>
       <c r="AS539" s="4"/>
     </row>
-    <row r="540" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:45" ht="15.75" customHeight="1">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -27772,7 +27776,7 @@
       <c r="AR540" s="4"/>
       <c r="AS540" s="4"/>
     </row>
-    <row r="541" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:45" ht="15.75" customHeight="1">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -27819,7 +27823,7 @@
       <c r="AR541" s="4"/>
       <c r="AS541" s="4"/>
     </row>
-    <row r="542" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:45" ht="15.75" customHeight="1">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -27866,7 +27870,7 @@
       <c r="AR542" s="4"/>
       <c r="AS542" s="4"/>
     </row>
-    <row r="543" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:45" ht="15.75" customHeight="1">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -27913,7 +27917,7 @@
       <c r="AR543" s="4"/>
       <c r="AS543" s="4"/>
     </row>
-    <row r="544" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:45" ht="15.75" customHeight="1">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -27960,7 +27964,7 @@
       <c r="AR544" s="4"/>
       <c r="AS544" s="4"/>
     </row>
-    <row r="545" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:45" ht="15.75" customHeight="1">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -28007,7 +28011,7 @@
       <c r="AR545" s="4"/>
       <c r="AS545" s="4"/>
     </row>
-    <row r="546" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:45" ht="15.75" customHeight="1">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -28054,7 +28058,7 @@
       <c r="AR546" s="4"/>
       <c r="AS546" s="4"/>
     </row>
-    <row r="547" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:45" ht="15.75" customHeight="1">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -28101,7 +28105,7 @@
       <c r="AR547" s="4"/>
       <c r="AS547" s="4"/>
     </row>
-    <row r="548" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:45" ht="15.75" customHeight="1">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -28148,7 +28152,7 @@
       <c r="AR548" s="4"/>
       <c r="AS548" s="4"/>
     </row>
-    <row r="549" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:45" ht="15.75" customHeight="1">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -28195,7 +28199,7 @@
       <c r="AR549" s="4"/>
       <c r="AS549" s="4"/>
     </row>
-    <row r="550" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:45" ht="15.75" customHeight="1">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -28242,7 +28246,7 @@
       <c r="AR550" s="4"/>
       <c r="AS550" s="4"/>
     </row>
-    <row r="551" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:45" ht="15.75" customHeight="1">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -28289,7 +28293,7 @@
       <c r="AR551" s="4"/>
       <c r="AS551" s="4"/>
     </row>
-    <row r="552" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:45" ht="15.75" customHeight="1">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -28336,7 +28340,7 @@
       <c r="AR552" s="4"/>
       <c r="AS552" s="4"/>
     </row>
-    <row r="553" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:45" ht="15.75" customHeight="1">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -28383,7 +28387,7 @@
       <c r="AR553" s="4"/>
       <c r="AS553" s="4"/>
     </row>
-    <row r="554" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:45" ht="15.75" customHeight="1">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -28430,7 +28434,7 @@
       <c r="AR554" s="4"/>
       <c r="AS554" s="4"/>
     </row>
-    <row r="555" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:45" ht="15.75" customHeight="1">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -28477,7 +28481,7 @@
       <c r="AR555" s="4"/>
       <c r="AS555" s="4"/>
     </row>
-    <row r="556" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:45" ht="15.75" customHeight="1">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -28524,7 +28528,7 @@
       <c r="AR556" s="4"/>
       <c r="AS556" s="4"/>
     </row>
-    <row r="557" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:45" ht="15.75" customHeight="1">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -28571,7 +28575,7 @@
       <c r="AR557" s="4"/>
       <c r="AS557" s="4"/>
     </row>
-    <row r="558" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:45" ht="15.75" customHeight="1">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -28618,7 +28622,7 @@
       <c r="AR558" s="4"/>
       <c r="AS558" s="4"/>
     </row>
-    <row r="559" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:45" ht="15.75" customHeight="1">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -28665,7 +28669,7 @@
       <c r="AR559" s="4"/>
       <c r="AS559" s="4"/>
     </row>
-    <row r="560" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:45" ht="15.75" customHeight="1">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -28712,7 +28716,7 @@
       <c r="AR560" s="4"/>
       <c r="AS560" s="4"/>
     </row>
-    <row r="561" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:45" ht="15.75" customHeight="1">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -28759,7 +28763,7 @@
       <c r="AR561" s="4"/>
       <c r="AS561" s="4"/>
     </row>
-    <row r="562" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:45" ht="15.75" customHeight="1">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -28806,7 +28810,7 @@
       <c r="AR562" s="4"/>
       <c r="AS562" s="4"/>
     </row>
-    <row r="563" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:45" ht="15.75" customHeight="1">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -28853,7 +28857,7 @@
       <c r="AR563" s="4"/>
       <c r="AS563" s="4"/>
     </row>
-    <row r="564" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:45" ht="15.75" customHeight="1">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -28900,7 +28904,7 @@
       <c r="AR564" s="4"/>
       <c r="AS564" s="4"/>
     </row>
-    <row r="565" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:45" ht="15.75" customHeight="1">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -28947,7 +28951,7 @@
       <c r="AR565" s="4"/>
       <c r="AS565" s="4"/>
     </row>
-    <row r="566" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:45" ht="15.75" customHeight="1">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -28994,7 +28998,7 @@
       <c r="AR566" s="4"/>
       <c r="AS566" s="4"/>
     </row>
-    <row r="567" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:45" ht="15.75" customHeight="1">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -29041,7 +29045,7 @@
       <c r="AR567" s="4"/>
       <c r="AS567" s="4"/>
     </row>
-    <row r="568" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:45" ht="15.75" customHeight="1">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -29088,7 +29092,7 @@
       <c r="AR568" s="4"/>
       <c r="AS568" s="4"/>
     </row>
-    <row r="569" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:45" ht="15.75" customHeight="1">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -29135,7 +29139,7 @@
       <c r="AR569" s="4"/>
       <c r="AS569" s="4"/>
     </row>
-    <row r="570" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:45" ht="15.75" customHeight="1">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -29182,7 +29186,7 @@
       <c r="AR570" s="4"/>
       <c r="AS570" s="4"/>
     </row>
-    <row r="571" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:45" ht="15.75" customHeight="1">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -29229,7 +29233,7 @@
       <c r="AR571" s="4"/>
       <c r="AS571" s="4"/>
     </row>
-    <row r="572" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:45" ht="15.75" customHeight="1">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -29276,7 +29280,7 @@
       <c r="AR572" s="4"/>
       <c r="AS572" s="4"/>
     </row>
-    <row r="573" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:45" ht="15.75" customHeight="1">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -29323,7 +29327,7 @@
       <c r="AR573" s="4"/>
       <c r="AS573" s="4"/>
     </row>
-    <row r="574" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:45" ht="15.75" customHeight="1">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -29370,7 +29374,7 @@
       <c r="AR574" s="4"/>
       <c r="AS574" s="4"/>
     </row>
-    <row r="575" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:45" ht="15.75" customHeight="1">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -29417,7 +29421,7 @@
       <c r="AR575" s="4"/>
       <c r="AS575" s="4"/>
     </row>
-    <row r="576" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:45" ht="15.75" customHeight="1">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -29464,7 +29468,7 @@
       <c r="AR576" s="4"/>
       <c r="AS576" s="4"/>
     </row>
-    <row r="577" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:45" ht="15.75" customHeight="1">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -29511,7 +29515,7 @@
       <c r="AR577" s="4"/>
       <c r="AS577" s="4"/>
     </row>
-    <row r="578" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:45" ht="15.75" customHeight="1">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -29558,7 +29562,7 @@
       <c r="AR578" s="4"/>
       <c r="AS578" s="4"/>
     </row>
-    <row r="579" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:45" ht="15.75" customHeight="1">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -29605,7 +29609,7 @@
       <c r="AR579" s="4"/>
       <c r="AS579" s="4"/>
     </row>
-    <row r="580" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:45" ht="15.75" customHeight="1">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -29652,7 +29656,7 @@
       <c r="AR580" s="4"/>
       <c r="AS580" s="4"/>
     </row>
-    <row r="581" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:45" ht="15.75" customHeight="1">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -29699,7 +29703,7 @@
       <c r="AR581" s="4"/>
       <c r="AS581" s="4"/>
     </row>
-    <row r="582" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:45" ht="15.75" customHeight="1">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -29746,7 +29750,7 @@
       <c r="AR582" s="4"/>
       <c r="AS582" s="4"/>
     </row>
-    <row r="583" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:45" ht="15.75" customHeight="1">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -29793,7 +29797,7 @@
       <c r="AR583" s="4"/>
       <c r="AS583" s="4"/>
     </row>
-    <row r="584" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:45" ht="15.75" customHeight="1">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -29840,7 +29844,7 @@
       <c r="AR584" s="4"/>
       <c r="AS584" s="4"/>
     </row>
-    <row r="585" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:45" ht="15.75" customHeight="1">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -29887,7 +29891,7 @@
       <c r="AR585" s="4"/>
       <c r="AS585" s="4"/>
     </row>
-    <row r="586" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:45" ht="15.75" customHeight="1">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -29934,7 +29938,7 @@
       <c r="AR586" s="4"/>
       <c r="AS586" s="4"/>
     </row>
-    <row r="587" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:45" ht="15.75" customHeight="1">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -29981,7 +29985,7 @@
       <c r="AR587" s="4"/>
       <c r="AS587" s="4"/>
     </row>
-    <row r="588" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:45" ht="15.75" customHeight="1">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -30028,7 +30032,7 @@
       <c r="AR588" s="4"/>
       <c r="AS588" s="4"/>
     </row>
-    <row r="589" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:45" ht="15.75" customHeight="1">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -30075,7 +30079,7 @@
       <c r="AR589" s="4"/>
       <c r="AS589" s="4"/>
     </row>
-    <row r="590" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:45" ht="15.75" customHeight="1">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -30122,7 +30126,7 @@
       <c r="AR590" s="4"/>
       <c r="AS590" s="4"/>
     </row>
-    <row r="591" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:45" ht="15.75" customHeight="1">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -30169,7 +30173,7 @@
       <c r="AR591" s="4"/>
       <c r="AS591" s="4"/>
     </row>
-    <row r="592" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:45" ht="15.75" customHeight="1">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -30216,7 +30220,7 @@
       <c r="AR592" s="4"/>
       <c r="AS592" s="4"/>
     </row>
-    <row r="593" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:45" ht="15.75" customHeight="1">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -30263,7 +30267,7 @@
       <c r="AR593" s="4"/>
       <c r="AS593" s="4"/>
     </row>
-    <row r="594" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:45" ht="15.75" customHeight="1">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -30310,7 +30314,7 @@
       <c r="AR594" s="4"/>
       <c r="AS594" s="4"/>
     </row>
-    <row r="595" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:45" ht="15.75" customHeight="1">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -30357,7 +30361,7 @@
       <c r="AR595" s="4"/>
       <c r="AS595" s="4"/>
     </row>
-    <row r="596" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:45" ht="15.75" customHeight="1">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -30404,7 +30408,7 @@
       <c r="AR596" s="4"/>
       <c r="AS596" s="4"/>
     </row>
-    <row r="597" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:45" ht="15.75" customHeight="1">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -30451,7 +30455,7 @@
       <c r="AR597" s="4"/>
       <c r="AS597" s="4"/>
     </row>
-    <row r="598" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:45" ht="15.75" customHeight="1">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -30498,7 +30502,7 @@
       <c r="AR598" s="4"/>
       <c r="AS598" s="4"/>
     </row>
-    <row r="599" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:45" ht="15.75" customHeight="1">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -30545,7 +30549,7 @@
       <c r="AR599" s="4"/>
       <c r="AS599" s="4"/>
     </row>
-    <row r="600" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:45" ht="15.75" customHeight="1">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -30592,7 +30596,7 @@
       <c r="AR600" s="4"/>
       <c r="AS600" s="4"/>
     </row>
-    <row r="601" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:45" ht="15.75" customHeight="1">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -30639,7 +30643,7 @@
       <c r="AR601" s="4"/>
       <c r="AS601" s="4"/>
     </row>
-    <row r="602" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:45" ht="15.75" customHeight="1">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -30686,7 +30690,7 @@
       <c r="AR602" s="4"/>
       <c r="AS602" s="4"/>
     </row>
-    <row r="603" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:45" ht="15.75" customHeight="1">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -30733,7 +30737,7 @@
       <c r="AR603" s="4"/>
       <c r="AS603" s="4"/>
     </row>
-    <row r="604" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:45" ht="15.75" customHeight="1">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -30780,7 +30784,7 @@
       <c r="AR604" s="4"/>
       <c r="AS604" s="4"/>
     </row>
-    <row r="605" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:45" ht="15.75" customHeight="1">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -30827,7 +30831,7 @@
       <c r="AR605" s="4"/>
       <c r="AS605" s="4"/>
     </row>
-    <row r="606" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:45" ht="15.75" customHeight="1">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -30874,7 +30878,7 @@
       <c r="AR606" s="4"/>
       <c r="AS606" s="4"/>
     </row>
-    <row r="607" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:45" ht="15.75" customHeight="1">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -30921,7 +30925,7 @@
       <c r="AR607" s="4"/>
       <c r="AS607" s="4"/>
     </row>
-    <row r="608" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:45" ht="15.75" customHeight="1">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -30968,7 +30972,7 @@
       <c r="AR608" s="4"/>
       <c r="AS608" s="4"/>
     </row>
-    <row r="609" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:45" ht="15.75" customHeight="1">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -31015,7 +31019,7 @@
       <c r="AR609" s="4"/>
       <c r="AS609" s="4"/>
     </row>
-    <row r="610" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:45" ht="15.75" customHeight="1">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -31062,7 +31066,7 @@
       <c r="AR610" s="4"/>
       <c r="AS610" s="4"/>
     </row>
-    <row r="611" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:45" ht="15.75" customHeight="1">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -31109,7 +31113,7 @@
       <c r="AR611" s="4"/>
       <c r="AS611" s="4"/>
     </row>
-    <row r="612" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:45" ht="15.75" customHeight="1">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -31156,7 +31160,7 @@
       <c r="AR612" s="4"/>
       <c r="AS612" s="4"/>
     </row>
-    <row r="613" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:45" ht="15.75" customHeight="1">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -31203,7 +31207,7 @@
       <c r="AR613" s="4"/>
       <c r="AS613" s="4"/>
     </row>
-    <row r="614" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:45" ht="15.75" customHeight="1">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -31250,7 +31254,7 @@
       <c r="AR614" s="4"/>
       <c r="AS614" s="4"/>
     </row>
-    <row r="615" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:45" ht="15.75" customHeight="1">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -31297,7 +31301,7 @@
       <c r="AR615" s="4"/>
       <c r="AS615" s="4"/>
     </row>
-    <row r="616" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:45" ht="15.75" customHeight="1">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -31344,7 +31348,7 @@
       <c r="AR616" s="4"/>
       <c r="AS616" s="4"/>
     </row>
-    <row r="617" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:45" ht="15.75" customHeight="1">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -31391,7 +31395,7 @@
       <c r="AR617" s="4"/>
       <c r="AS617" s="4"/>
     </row>
-    <row r="618" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:45" ht="15.75" customHeight="1">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -31438,7 +31442,7 @@
       <c r="AR618" s="4"/>
       <c r="AS618" s="4"/>
     </row>
-    <row r="619" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:45" ht="15.75" customHeight="1">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -31485,7 +31489,7 @@
       <c r="AR619" s="4"/>
       <c r="AS619" s="4"/>
     </row>
-    <row r="620" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:45" ht="15.75" customHeight="1">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -31532,7 +31536,7 @@
       <c r="AR620" s="4"/>
       <c r="AS620" s="4"/>
     </row>
-    <row r="621" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:45" ht="15.75" customHeight="1">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -31579,7 +31583,7 @@
       <c r="AR621" s="4"/>
       <c r="AS621" s="4"/>
     </row>
-    <row r="622" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:45" ht="15.75" customHeight="1">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -31626,7 +31630,7 @@
       <c r="AR622" s="4"/>
       <c r="AS622" s="4"/>
     </row>
-    <row r="623" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:45" ht="15.75" customHeight="1">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -31673,7 +31677,7 @@
       <c r="AR623" s="4"/>
       <c r="AS623" s="4"/>
     </row>
-    <row r="624" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:45" ht="15.75" customHeight="1">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -31720,7 +31724,7 @@
       <c r="AR624" s="4"/>
       <c r="AS624" s="4"/>
     </row>
-    <row r="625" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:45" ht="15.75" customHeight="1">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -31767,7 +31771,7 @@
       <c r="AR625" s="4"/>
       <c r="AS625" s="4"/>
     </row>
-    <row r="626" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:45" ht="15.75" customHeight="1">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -31814,7 +31818,7 @@
       <c r="AR626" s="4"/>
       <c r="AS626" s="4"/>
     </row>
-    <row r="627" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:45" ht="15.75" customHeight="1">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -31861,7 +31865,7 @@
       <c r="AR627" s="4"/>
       <c r="AS627" s="4"/>
     </row>
-    <row r="628" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:45" ht="15.75" customHeight="1">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -31908,7 +31912,7 @@
       <c r="AR628" s="4"/>
       <c r="AS628" s="4"/>
     </row>
-    <row r="629" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:45" ht="15.75" customHeight="1">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -31955,7 +31959,7 @@
       <c r="AR629" s="4"/>
       <c r="AS629" s="4"/>
     </row>
-    <row r="630" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:45" ht="15.75" customHeight="1">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -32002,7 +32006,7 @@
       <c r="AR630" s="4"/>
       <c r="AS630" s="4"/>
     </row>
-    <row r="631" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:45" ht="15.75" customHeight="1">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -32049,7 +32053,7 @@
       <c r="AR631" s="4"/>
       <c r="AS631" s="4"/>
     </row>
-    <row r="632" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:45" ht="15.75" customHeight="1">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -32096,7 +32100,7 @@
       <c r="AR632" s="4"/>
       <c r="AS632" s="4"/>
     </row>
-    <row r="633" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:45" ht="15.75" customHeight="1">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -32143,7 +32147,7 @@
       <c r="AR633" s="4"/>
       <c r="AS633" s="4"/>
     </row>
-    <row r="634" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:45" ht="15.75" customHeight="1">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -32190,7 +32194,7 @@
       <c r="AR634" s="4"/>
       <c r="AS634" s="4"/>
     </row>
-    <row r="635" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:45" ht="15.75" customHeight="1">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -32237,7 +32241,7 @@
       <c r="AR635" s="4"/>
       <c r="AS635" s="4"/>
     </row>
-    <row r="636" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:45" ht="15.75" customHeight="1">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -32284,7 +32288,7 @@
       <c r="AR636" s="4"/>
       <c r="AS636" s="4"/>
     </row>
-    <row r="637" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:45" ht="15.75" customHeight="1">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -32331,7 +32335,7 @@
       <c r="AR637" s="4"/>
       <c r="AS637" s="4"/>
     </row>
-    <row r="638" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:45" ht="15.75" customHeight="1">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -32378,7 +32382,7 @@
       <c r="AR638" s="4"/>
       <c r="AS638" s="4"/>
     </row>
-    <row r="639" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:45" ht="15.75" customHeight="1">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -32425,7 +32429,7 @@
       <c r="AR639" s="4"/>
       <c r="AS639" s="4"/>
     </row>
-    <row r="640" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:45" ht="15.75" customHeight="1">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -32472,7 +32476,7 @@
       <c r="AR640" s="4"/>
       <c r="AS640" s="4"/>
     </row>
-    <row r="641" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:45" ht="15.75" customHeight="1">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -32519,7 +32523,7 @@
       <c r="AR641" s="4"/>
       <c r="AS641" s="4"/>
     </row>
-    <row r="642" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:45" ht="15.75" customHeight="1">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -32566,7 +32570,7 @@
       <c r="AR642" s="4"/>
       <c r="AS642" s="4"/>
     </row>
-    <row r="643" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:45" ht="15.75" customHeight="1">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -32613,7 +32617,7 @@
       <c r="AR643" s="4"/>
       <c r="AS643" s="4"/>
     </row>
-    <row r="644" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:45" ht="15.75" customHeight="1">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -32660,7 +32664,7 @@
       <c r="AR644" s="4"/>
       <c r="AS644" s="4"/>
     </row>
-    <row r="645" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:45" ht="15.75" customHeight="1">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -32707,7 +32711,7 @@
       <c r="AR645" s="4"/>
       <c r="AS645" s="4"/>
     </row>
-    <row r="646" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:45" ht="15.75" customHeight="1">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -32754,7 +32758,7 @@
       <c r="AR646" s="4"/>
       <c r="AS646" s="4"/>
     </row>
-    <row r="647" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:45" ht="15.75" customHeight="1">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -32801,7 +32805,7 @@
       <c r="AR647" s="4"/>
       <c r="AS647" s="4"/>
     </row>
-    <row r="648" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:45" ht="15.75" customHeight="1">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -32848,7 +32852,7 @@
       <c r="AR648" s="4"/>
       <c r="AS648" s="4"/>
     </row>
-    <row r="649" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:45" ht="15.75" customHeight="1">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -32895,7 +32899,7 @@
       <c r="AR649" s="4"/>
       <c r="AS649" s="4"/>
     </row>
-    <row r="650" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:45" ht="15.75" customHeight="1">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -32942,7 +32946,7 @@
       <c r="AR650" s="4"/>
       <c r="AS650" s="4"/>
     </row>
-    <row r="651" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:45" ht="15.75" customHeight="1">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -32989,7 +32993,7 @@
       <c r="AR651" s="4"/>
       <c r="AS651" s="4"/>
     </row>
-    <row r="652" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:45" ht="15.75" customHeight="1">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -33036,7 +33040,7 @@
       <c r="AR652" s="4"/>
       <c r="AS652" s="4"/>
     </row>
-    <row r="653" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:45" ht="15.75" customHeight="1">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -33083,7 +33087,7 @@
       <c r="AR653" s="4"/>
       <c r="AS653" s="4"/>
     </row>
-    <row r="654" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:45" ht="15.75" customHeight="1">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -33130,7 +33134,7 @@
       <c r="AR654" s="4"/>
       <c r="AS654" s="4"/>
     </row>
-    <row r="655" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:45" ht="15.75" customHeight="1">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -33177,7 +33181,7 @@
       <c r="AR655" s="4"/>
       <c r="AS655" s="4"/>
     </row>
-    <row r="656" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:45" ht="15.75" customHeight="1">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -33224,7 +33228,7 @@
       <c r="AR656" s="4"/>
       <c r="AS656" s="4"/>
     </row>
-    <row r="657" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:45" ht="15.75" customHeight="1">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -33271,7 +33275,7 @@
       <c r="AR657" s="4"/>
       <c r="AS657" s="4"/>
     </row>
-    <row r="658" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:45" ht="15.75" customHeight="1">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -33318,7 +33322,7 @@
       <c r="AR658" s="4"/>
       <c r="AS658" s="4"/>
     </row>
-    <row r="659" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:45" ht="15.75" customHeight="1">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -33365,7 +33369,7 @@
       <c r="AR659" s="4"/>
       <c r="AS659" s="4"/>
     </row>
-    <row r="660" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:45" ht="15.75" customHeight="1">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -33412,7 +33416,7 @@
       <c r="AR660" s="4"/>
       <c r="AS660" s="4"/>
     </row>
-    <row r="661" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:45" ht="15.75" customHeight="1">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -33459,7 +33463,7 @@
       <c r="AR661" s="4"/>
       <c r="AS661" s="4"/>
     </row>
-    <row r="662" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:45" ht="15.75" customHeight="1">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -33506,7 +33510,7 @@
       <c r="AR662" s="4"/>
       <c r="AS662" s="4"/>
     </row>
-    <row r="663" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:45" ht="15.75" customHeight="1">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -33553,7 +33557,7 @@
       <c r="AR663" s="4"/>
       <c r="AS663" s="4"/>
     </row>
-    <row r="664" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:45" ht="15.75" customHeight="1">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -33600,7 +33604,7 @@
       <c r="AR664" s="4"/>
       <c r="AS664" s="4"/>
     </row>
-    <row r="665" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:45" ht="15.75" customHeight="1">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -33647,7 +33651,7 @@
       <c r="AR665" s="4"/>
       <c r="AS665" s="4"/>
     </row>
-    <row r="666" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:45" ht="15.75" customHeight="1">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -33694,7 +33698,7 @@
       <c r="AR666" s="4"/>
       <c r="AS666" s="4"/>
     </row>
-    <row r="667" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:45" ht="15.75" customHeight="1">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -33741,7 +33745,7 @@
       <c r="AR667" s="4"/>
       <c r="AS667" s="4"/>
     </row>
-    <row r="668" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:45" ht="15.75" customHeight="1">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -33788,7 +33792,7 @@
       <c r="AR668" s="4"/>
       <c r="AS668" s="4"/>
     </row>
-    <row r="669" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:45" ht="15.75" customHeight="1">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -33835,7 +33839,7 @@
       <c r="AR669" s="4"/>
       <c r="AS669" s="4"/>
     </row>
-    <row r="670" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:45" ht="15.75" customHeight="1">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -33882,7 +33886,7 @@
       <c r="AR670" s="4"/>
       <c r="AS670" s="4"/>
     </row>
-    <row r="671" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:45" ht="15.75" customHeight="1">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -33929,7 +33933,7 @@
       <c r="AR671" s="4"/>
       <c r="AS671" s="4"/>
     </row>
-    <row r="672" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:45" ht="15.75" customHeight="1">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -33976,7 +33980,7 @@
       <c r="AR672" s="4"/>
       <c r="AS672" s="4"/>
     </row>
-    <row r="673" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:45" ht="15.75" customHeight="1">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -34023,7 +34027,7 @@
       <c r="AR673" s="4"/>
       <c r="AS673" s="4"/>
     </row>
-    <row r="674" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:45" ht="15.75" customHeight="1">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -34070,7 +34074,7 @@
       <c r="AR674" s="4"/>
       <c r="AS674" s="4"/>
     </row>
-    <row r="675" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:45" ht="15.75" customHeight="1">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -34117,7 +34121,7 @@
       <c r="AR675" s="4"/>
       <c r="AS675" s="4"/>
     </row>
-    <row r="676" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:45" ht="15.75" customHeight="1">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -34164,7 +34168,7 @@
       <c r="AR676" s="4"/>
       <c r="AS676" s="4"/>
     </row>
-    <row r="677" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:45" ht="15.75" customHeight="1">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -34211,7 +34215,7 @@
       <c r="AR677" s="4"/>
       <c r="AS677" s="4"/>
     </row>
-    <row r="678" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:45" ht="15.75" customHeight="1">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -34258,7 +34262,7 @@
       <c r="AR678" s="4"/>
       <c r="AS678" s="4"/>
     </row>
-    <row r="679" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:45" ht="15.75" customHeight="1">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -34305,7 +34309,7 @@
       <c r="AR679" s="4"/>
       <c r="AS679" s="4"/>
     </row>
-    <row r="680" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:45" ht="15.75" customHeight="1">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -34352,7 +34356,7 @@
       <c r="AR680" s="4"/>
       <c r="AS680" s="4"/>
     </row>
-    <row r="681" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:45" ht="15.75" customHeight="1">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -34399,7 +34403,7 @@
       <c r="AR681" s="4"/>
       <c r="AS681" s="4"/>
     </row>
-    <row r="682" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:45" ht="15.75" customHeight="1">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -34446,7 +34450,7 @@
       <c r="AR682" s="4"/>
       <c r="AS682" s="4"/>
     </row>
-    <row r="683" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:45" ht="15.75" customHeight="1">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -34493,7 +34497,7 @@
       <c r="AR683" s="4"/>
       <c r="AS683" s="4"/>
     </row>
-    <row r="684" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:45" ht="15.75" customHeight="1">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -34540,7 +34544,7 @@
       <c r="AR684" s="4"/>
       <c r="AS684" s="4"/>
     </row>
-    <row r="685" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:45" ht="15.75" customHeight="1">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -34587,7 +34591,7 @@
       <c r="AR685" s="4"/>
       <c r="AS685" s="4"/>
     </row>
-    <row r="686" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:45" ht="15.75" customHeight="1">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -34634,7 +34638,7 @@
       <c r="AR686" s="4"/>
       <c r="AS686" s="4"/>
     </row>
-    <row r="687" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:45" ht="15.75" customHeight="1">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -34681,7 +34685,7 @@
       <c r="AR687" s="4"/>
       <c r="AS687" s="4"/>
     </row>
-    <row r="688" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:45" ht="15.75" customHeight="1">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -34728,7 +34732,7 @@
       <c r="AR688" s="4"/>
       <c r="AS688" s="4"/>
     </row>
-    <row r="689" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:45" ht="15.75" customHeight="1">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -34775,7 +34779,7 @@
       <c r="AR689" s="4"/>
       <c r="AS689" s="4"/>
     </row>
-    <row r="690" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:45" ht="15.75" customHeight="1">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -34822,7 +34826,7 @@
       <c r="AR690" s="4"/>
       <c r="AS690" s="4"/>
     </row>
-    <row r="691" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:45" ht="15.75" customHeight="1">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -34869,7 +34873,7 @@
       <c r="AR691" s="4"/>
       <c r="AS691" s="4"/>
     </row>
-    <row r="692" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:45" ht="15.75" customHeight="1">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -34916,7 +34920,7 @@
       <c r="AR692" s="4"/>
       <c r="AS692" s="4"/>
     </row>
-    <row r="693" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:45" ht="15.75" customHeight="1">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -34963,7 +34967,7 @@
       <c r="AR693" s="4"/>
       <c r="AS693" s="4"/>
     </row>
-    <row r="694" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:45" ht="15.75" customHeight="1">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -35010,7 +35014,7 @@
       <c r="AR694" s="4"/>
       <c r="AS694" s="4"/>
     </row>
-    <row r="695" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:45" ht="15.75" customHeight="1">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -35057,7 +35061,7 @@
       <c r="AR695" s="4"/>
       <c r="AS695" s="4"/>
     </row>
-    <row r="696" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:45" ht="15.75" customHeight="1">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -35104,7 +35108,7 @@
       <c r="AR696" s="4"/>
       <c r="AS696" s="4"/>
     </row>
-    <row r="697" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:45" ht="15.75" customHeight="1">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -35151,7 +35155,7 @@
       <c r="AR697" s="4"/>
       <c r="AS697" s="4"/>
     </row>
-    <row r="698" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:45" ht="15.75" customHeight="1">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -35198,7 +35202,7 @@
       <c r="AR698" s="4"/>
       <c r="AS698" s="4"/>
     </row>
-    <row r="699" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:45" ht="15.75" customHeight="1">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -35245,7 +35249,7 @@
       <c r="AR699" s="4"/>
       <c r="AS699" s="4"/>
     </row>
-    <row r="700" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:45" ht="15.75" customHeight="1">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -35292,7 +35296,7 @@
       <c r="AR700" s="4"/>
       <c r="AS700" s="4"/>
     </row>
-    <row r="701" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:45" ht="15.75" customHeight="1">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -35339,7 +35343,7 @@
       <c r="AR701" s="4"/>
       <c r="AS701" s="4"/>
     </row>
-    <row r="702" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:45" ht="15.75" customHeight="1">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -35386,7 +35390,7 @@
       <c r="AR702" s="4"/>
       <c r="AS702" s="4"/>
     </row>
-    <row r="703" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:45" ht="15.75" customHeight="1">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -35433,7 +35437,7 @@
       <c r="AR703" s="4"/>
       <c r="AS703" s="4"/>
     </row>
-    <row r="704" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:45" ht="15.75" customHeight="1">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -35480,7 +35484,7 @@
       <c r="AR704" s="4"/>
       <c r="AS704" s="4"/>
     </row>
-    <row r="705" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:45" ht="15.75" customHeight="1">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -35527,7 +35531,7 @@
       <c r="AR705" s="4"/>
       <c r="AS705" s="4"/>
     </row>
-    <row r="706" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:45" ht="15.75" customHeight="1">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -35574,7 +35578,7 @@
       <c r="AR706" s="4"/>
       <c r="AS706" s="4"/>
     </row>
-    <row r="707" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:45" ht="15.75" customHeight="1">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -35621,7 +35625,7 @@
       <c r="AR707" s="4"/>
       <c r="AS707" s="4"/>
     </row>
-    <row r="708" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:45" ht="15.75" customHeight="1">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -35668,7 +35672,7 @@
       <c r="AR708" s="4"/>
       <c r="AS708" s="4"/>
     </row>
-    <row r="709" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:45" ht="15.75" customHeight="1">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -35715,7 +35719,7 @@
       <c r="AR709" s="4"/>
       <c r="AS709" s="4"/>
     </row>
-    <row r="710" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:45" ht="15.75" customHeight="1">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -35762,7 +35766,7 @@
       <c r="AR710" s="4"/>
       <c r="AS710" s="4"/>
     </row>
-    <row r="711" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:45" ht="15.75" customHeight="1">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -35809,7 +35813,7 @@
       <c r="AR711" s="4"/>
       <c r="AS711" s="4"/>
     </row>
-    <row r="712" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:45" ht="15.75" customHeight="1">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -35856,7 +35860,7 @@
       <c r="AR712" s="4"/>
       <c r="AS712" s="4"/>
     </row>
-    <row r="713" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:45" ht="15.75" customHeight="1">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -35903,7 +35907,7 @@
       <c r="AR713" s="4"/>
       <c r="AS713" s="4"/>
     </row>
-    <row r="714" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:45" ht="15.75" customHeight="1">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -35950,7 +35954,7 @@
       <c r="AR714" s="4"/>
       <c r="AS714" s="4"/>
     </row>
-    <row r="715" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:45" ht="15.75" customHeight="1">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -35997,7 +36001,7 @@
       <c r="AR715" s="4"/>
       <c r="AS715" s="4"/>
     </row>
-    <row r="716" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:45" ht="15.75" customHeight="1">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -36044,7 +36048,7 @@
       <c r="AR716" s="4"/>
       <c r="AS716" s="4"/>
     </row>
-    <row r="717" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:45" ht="15.75" customHeight="1">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -36091,7 +36095,7 @@
       <c r="AR717" s="4"/>
       <c r="AS717" s="4"/>
     </row>
-    <row r="718" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:45" ht="15.75" customHeight="1">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -36138,7 +36142,7 @@
       <c r="AR718" s="4"/>
       <c r="AS718" s="4"/>
     </row>
-    <row r="719" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:45" ht="15.75" customHeight="1">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -36185,7 +36189,7 @@
       <c r="AR719" s="4"/>
       <c r="AS719" s="4"/>
     </row>
-    <row r="720" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:45" ht="15.75" customHeight="1">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -36232,7 +36236,7 @@
       <c r="AR720" s="4"/>
       <c r="AS720" s="4"/>
     </row>
-    <row r="721" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:45" ht="15.75" customHeight="1">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -36279,7 +36283,7 @@
       <c r="AR721" s="4"/>
       <c r="AS721" s="4"/>
     </row>
-    <row r="722" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:45" ht="15.75" customHeight="1">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -36326,7 +36330,7 @@
       <c r="AR722" s="4"/>
       <c r="AS722" s="4"/>
     </row>
-    <row r="723" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:45" ht="15.75" customHeight="1">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -36373,7 +36377,7 @@
       <c r="AR723" s="4"/>
       <c r="AS723" s="4"/>
     </row>
-    <row r="724" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:45" ht="15.75" customHeight="1">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -36420,7 +36424,7 @@
       <c r="AR724" s="4"/>
       <c r="AS724" s="4"/>
     </row>
-    <row r="725" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:45" ht="15.75" customHeight="1">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -36467,7 +36471,7 @@
       <c r="AR725" s="4"/>
       <c r="AS725" s="4"/>
     </row>
-    <row r="726" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:45" ht="15.75" customHeight="1">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -36514,7 +36518,7 @@
       <c r="AR726" s="4"/>
       <c r="AS726" s="4"/>
     </row>
-    <row r="727" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:45" ht="15.75" customHeight="1">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -36561,7 +36565,7 @@
       <c r="AR727" s="4"/>
       <c r="AS727" s="4"/>
     </row>
-    <row r="728" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:45" ht="15.75" customHeight="1">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -36608,7 +36612,7 @@
       <c r="AR728" s="4"/>
       <c r="AS728" s="4"/>
     </row>
-    <row r="729" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:45" ht="15.75" customHeight="1">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -36655,7 +36659,7 @@
       <c r="AR729" s="4"/>
       <c r="AS729" s="4"/>
     </row>
-    <row r="730" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:45" ht="15.75" customHeight="1">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -36702,7 +36706,7 @@
       <c r="AR730" s="4"/>
       <c r="AS730" s="4"/>
     </row>
-    <row r="731" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:45" ht="15.75" customHeight="1">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -36749,7 +36753,7 @@
       <c r="AR731" s="4"/>
       <c r="AS731" s="4"/>
     </row>
-    <row r="732" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:45" ht="15.75" customHeight="1">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -36796,7 +36800,7 @@
       <c r="AR732" s="4"/>
       <c r="AS732" s="4"/>
     </row>
-    <row r="733" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:45" ht="15.75" customHeight="1">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -36843,7 +36847,7 @@
       <c r="AR733" s="4"/>
       <c r="AS733" s="4"/>
     </row>
-    <row r="734" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:45" ht="15.75" customHeight="1">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -36890,7 +36894,7 @@
       <c r="AR734" s="4"/>
       <c r="AS734" s="4"/>
     </row>
-    <row r="735" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:45" ht="15.75" customHeight="1">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -36937,7 +36941,7 @@
       <c r="AR735" s="4"/>
       <c r="AS735" s="4"/>
     </row>
-    <row r="736" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:45" ht="15.75" customHeight="1">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -36984,7 +36988,7 @@
       <c r="AR736" s="4"/>
       <c r="AS736" s="4"/>
     </row>
-    <row r="737" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:45" ht="15.75" customHeight="1">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -37031,7 +37035,7 @@
       <c r="AR737" s="4"/>
       <c r="AS737" s="4"/>
     </row>
-    <row r="738" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:45" ht="15.75" customHeight="1">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -37078,7 +37082,7 @@
       <c r="AR738" s="4"/>
       <c r="AS738" s="4"/>
     </row>
-    <row r="739" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:45" ht="15.75" customHeight="1">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -37125,7 +37129,7 @@
       <c r="AR739" s="4"/>
       <c r="AS739" s="4"/>
     </row>
-    <row r="740" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:45" ht="15.75" customHeight="1">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -37172,7 +37176,7 @@
       <c r="AR740" s="4"/>
       <c r="AS740" s="4"/>
     </row>
-    <row r="741" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:45" ht="15.75" customHeight="1">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -37219,7 +37223,7 @@
       <c r="AR741" s="4"/>
       <c r="AS741" s="4"/>
     </row>
-    <row r="742" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:45" ht="15.75" customHeight="1">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -37266,7 +37270,7 @@
       <c r="AR742" s="4"/>
       <c r="AS742" s="4"/>
     </row>
-    <row r="743" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:45" ht="15.75" customHeight="1">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -37313,7 +37317,7 @@
       <c r="AR743" s="4"/>
       <c r="AS743" s="4"/>
     </row>
-    <row r="744" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:45" ht="15.75" customHeight="1">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -37360,7 +37364,7 @@
       <c r="AR744" s="4"/>
       <c r="AS744" s="4"/>
     </row>
-    <row r="745" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:45" ht="15.75" customHeight="1">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -37407,7 +37411,7 @@
       <c r="AR745" s="4"/>
       <c r="AS745" s="4"/>
     </row>
-    <row r="746" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:45" ht="15.75" customHeight="1">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -37454,7 +37458,7 @@
       <c r="AR746" s="4"/>
       <c r="AS746" s="4"/>
     </row>
-    <row r="747" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:45" ht="15.75" customHeight="1">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -37501,7 +37505,7 @@
       <c r="AR747" s="4"/>
       <c r="AS747" s="4"/>
     </row>
-    <row r="748" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:45" ht="15.75" customHeight="1">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -37548,7 +37552,7 @@
       <c r="AR748" s="4"/>
       <c r="AS748" s="4"/>
     </row>
-    <row r="749" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:45" ht="15.75" customHeight="1">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -37595,7 +37599,7 @@
       <c r="AR749" s="4"/>
       <c r="AS749" s="4"/>
     </row>
-    <row r="750" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:45" ht="15.75" customHeight="1">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -37642,7 +37646,7 @@
       <c r="AR750" s="4"/>
       <c r="AS750" s="4"/>
     </row>
-    <row r="751" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:45" ht="15.75" customHeight="1">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -37689,7 +37693,7 @@
       <c r="AR751" s="4"/>
       <c r="AS751" s="4"/>
     </row>
-    <row r="752" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:45" ht="15.75" customHeight="1">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -37736,7 +37740,7 @@
       <c r="AR752" s="4"/>
       <c r="AS752" s="4"/>
     </row>
-    <row r="753" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:45" ht="15.75" customHeight="1">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -37783,7 +37787,7 @@
       <c r="AR753" s="4"/>
       <c r="AS753" s="4"/>
     </row>
-    <row r="754" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:45" ht="15.75" customHeight="1">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -37830,7 +37834,7 @@
       <c r="AR754" s="4"/>
       <c r="AS754" s="4"/>
     </row>
-    <row r="755" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:45" ht="15.75" customHeight="1">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -37877,7 +37881,7 @@
       <c r="AR755" s="4"/>
       <c r="AS755" s="4"/>
     </row>
-    <row r="756" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:45" ht="15.75" customHeight="1">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -37924,7 +37928,7 @@
       <c r="AR756" s="4"/>
       <c r="AS756" s="4"/>
     </row>
-    <row r="757" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:45" ht="15.75" customHeight="1">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -37971,7 +37975,7 @@
       <c r="AR757" s="4"/>
       <c r="AS757" s="4"/>
     </row>
-    <row r="758" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:45" ht="15.75" customHeight="1">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -38018,7 +38022,7 @@
       <c r="AR758" s="4"/>
       <c r="AS758" s="4"/>
     </row>
-    <row r="759" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:45" ht="15.75" customHeight="1">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -38065,7 +38069,7 @@
       <c r="AR759" s="4"/>
       <c r="AS759" s="4"/>
     </row>
-    <row r="760" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:45" ht="15.75" customHeight="1">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -38112,7 +38116,7 @@
       <c r="AR760" s="4"/>
       <c r="AS760" s="4"/>
     </row>
-    <row r="761" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:45" ht="15.75" customHeight="1">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -38159,7 +38163,7 @@
       <c r="AR761" s="4"/>
       <c r="AS761" s="4"/>
     </row>
-    <row r="762" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:45" ht="15.75" customHeight="1">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -38206,7 +38210,7 @@
       <c r="AR762" s="4"/>
       <c r="AS762" s="4"/>
     </row>
-    <row r="763" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:45" ht="15.75" customHeight="1">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -38253,7 +38257,7 @@
       <c r="AR763" s="4"/>
       <c r="AS763" s="4"/>
     </row>
-    <row r="764" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:45" ht="15.75" customHeight="1">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -38300,7 +38304,7 @@
       <c r="AR764" s="4"/>
       <c r="AS764" s="4"/>
     </row>
-    <row r="765" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:45" ht="15.75" customHeight="1">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -38347,7 +38351,7 @@
       <c r="AR765" s="4"/>
       <c r="AS765" s="4"/>
     </row>
-    <row r="766" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:45" ht="15.75" customHeight="1">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -38394,7 +38398,7 @@
       <c r="AR766" s="4"/>
       <c r="AS766" s="4"/>
     </row>
-    <row r="767" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:45" ht="15.75" customHeight="1">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -38441,7 +38445,7 @@
       <c r="AR767" s="4"/>
       <c r="AS767" s="4"/>
     </row>
-    <row r="768" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:45" ht="15.75" customHeight="1">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -38488,7 +38492,7 @@
       <c r="AR768" s="4"/>
       <c r="AS768" s="4"/>
     </row>
-    <row r="769" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:45" ht="15.75" customHeight="1">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -38535,7 +38539,7 @@
       <c r="AR769" s="4"/>
       <c r="AS769" s="4"/>
     </row>
-    <row r="770" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:45" ht="15.75" customHeight="1">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -38582,7 +38586,7 @@
       <c r="AR770" s="4"/>
       <c r="AS770" s="4"/>
     </row>
-    <row r="771" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:45" ht="15.75" customHeight="1">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -38629,7 +38633,7 @@
       <c r="AR771" s="4"/>
       <c r="AS771" s="4"/>
     </row>
-    <row r="772" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:45" ht="15.75" customHeight="1">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -38676,7 +38680,7 @@
       <c r="AR772" s="4"/>
       <c r="AS772" s="4"/>
     </row>
-    <row r="773" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:45" ht="15.75" customHeight="1">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -38723,7 +38727,7 @@
       <c r="AR773" s="4"/>
       <c r="AS773" s="4"/>
     </row>
-    <row r="774" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:45" ht="15.75" customHeight="1">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -38770,7 +38774,7 @@
       <c r="AR774" s="4"/>
       <c r="AS774" s="4"/>
     </row>
-    <row r="775" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:45" ht="15.75" customHeight="1">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -38817,7 +38821,7 @@
       <c r="AR775" s="4"/>
       <c r="AS775" s="4"/>
     </row>
-    <row r="776" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:45" ht="15.75" customHeight="1">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -38864,7 +38868,7 @@
       <c r="AR776" s="4"/>
       <c r="AS776" s="4"/>
     </row>
-    <row r="777" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:45" ht="15.75" customHeight="1">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -38911,7 +38915,7 @@
       <c r="AR777" s="4"/>
       <c r="AS777" s="4"/>
     </row>
-    <row r="778" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:45" ht="15.75" customHeight="1">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -38958,7 +38962,7 @@
       <c r="AR778" s="4"/>
       <c r="AS778" s="4"/>
     </row>
-    <row r="779" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:45" ht="15.75" customHeight="1">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -39005,7 +39009,7 @@
       <c r="AR779" s="4"/>
       <c r="AS779" s="4"/>
     </row>
-    <row r="780" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:45" ht="15.75" customHeight="1">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -39052,7 +39056,7 @@
       <c r="AR780" s="4"/>
       <c r="AS780" s="4"/>
     </row>
-    <row r="781" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:45" ht="15.75" customHeight="1">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -39099,7 +39103,7 @@
       <c r="AR781" s="4"/>
       <c r="AS781" s="4"/>
     </row>
-    <row r="782" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:45" ht="15.75" customHeight="1">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -39146,7 +39150,7 @@
       <c r="AR782" s="4"/>
       <c r="AS782" s="4"/>
     </row>
-    <row r="783" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:45" ht="15.75" customHeight="1">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -39193,7 +39197,7 @@
       <c r="AR783" s="4"/>
       <c r="AS783" s="4"/>
     </row>
-    <row r="784" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:45" ht="15.75" customHeight="1">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -39240,7 +39244,7 @@
       <c r="AR784" s="4"/>
       <c r="AS784" s="4"/>
     </row>
-    <row r="785" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:45" ht="15.75" customHeight="1">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -39287,7 +39291,7 @@
       <c r="AR785" s="4"/>
       <c r="AS785" s="4"/>
     </row>
-    <row r="786" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:45" ht="15.75" customHeight="1">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -39334,7 +39338,7 @@
       <c r="AR786" s="4"/>
       <c r="AS786" s="4"/>
     </row>
-    <row r="787" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:45" ht="15.75" customHeight="1">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -39381,7 +39385,7 @@
       <c r="AR787" s="4"/>
       <c r="AS787" s="4"/>
     </row>
-    <row r="788" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:45" ht="15.75" customHeight="1">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -39428,7 +39432,7 @@
       <c r="AR788" s="4"/>
       <c r="AS788" s="4"/>
     </row>
-    <row r="789" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:45" ht="15.75" customHeight="1">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -39475,7 +39479,7 @@
       <c r="AR789" s="4"/>
       <c r="AS789" s="4"/>
     </row>
-    <row r="790" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:45" ht="15.75" customHeight="1">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -39522,7 +39526,7 @@
       <c r="AR790" s="4"/>
       <c r="AS790" s="4"/>
     </row>
-    <row r="791" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:45" ht="15.75" customHeight="1">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -39569,7 +39573,7 @@
       <c r="AR791" s="4"/>
       <c r="AS791" s="4"/>
     </row>
-    <row r="792" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:45" ht="15.75" customHeight="1">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -39616,7 +39620,7 @@
       <c r="AR792" s="4"/>
       <c r="AS792" s="4"/>
     </row>
-    <row r="793" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:45" ht="15.75" customHeight="1">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -39663,7 +39667,7 @@
       <c r="AR793" s="4"/>
       <c r="AS793" s="4"/>
     </row>
-    <row r="794" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:45" ht="15.75" customHeight="1">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -39710,7 +39714,7 @@
       <c r="AR794" s="4"/>
       <c r="AS794" s="4"/>
     </row>
-    <row r="795" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:45" ht="15.75" customHeight="1">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -39757,7 +39761,7 @@
       <c r="AR795" s="4"/>
       <c r="AS795" s="4"/>
     </row>
-    <row r="796" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:45" ht="15.75" customHeight="1">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -39804,7 +39808,7 @@
       <c r="AR796" s="4"/>
       <c r="AS796" s="4"/>
     </row>
-    <row r="797" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:45" ht="15.75" customHeight="1">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -39851,7 +39855,7 @@
       <c r="AR797" s="4"/>
       <c r="AS797" s="4"/>
     </row>
-    <row r="798" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:45" ht="15.75" customHeight="1">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -39898,7 +39902,7 @@
       <c r="AR798" s="4"/>
       <c r="AS798" s="4"/>
     </row>
-    <row r="799" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:45" ht="15.75" customHeight="1">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -39945,7 +39949,7 @@
       <c r="AR799" s="4"/>
       <c r="AS799" s="4"/>
     </row>
-    <row r="800" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:45" ht="15.75" customHeight="1">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -39992,7 +39996,7 @@
       <c r="AR800" s="4"/>
       <c r="AS800" s="4"/>
     </row>
-    <row r="801" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:45" ht="15.75" customHeight="1">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -40039,7 +40043,7 @@
       <c r="AR801" s="4"/>
       <c r="AS801" s="4"/>
     </row>
-    <row r="802" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:45" ht="15.75" customHeight="1">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -40086,7 +40090,7 @@
       <c r="AR802" s="4"/>
       <c r="AS802" s="4"/>
     </row>
-    <row r="803" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:45" ht="15.75" customHeight="1">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -40133,7 +40137,7 @@
       <c r="AR803" s="4"/>
       <c r="AS803" s="4"/>
     </row>
-    <row r="804" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:45" ht="15.75" customHeight="1">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -40180,7 +40184,7 @@
       <c r="AR804" s="4"/>
       <c r="AS804" s="4"/>
     </row>
-    <row r="805" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:45" ht="15.75" customHeight="1">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -40227,7 +40231,7 @@
       <c r="AR805" s="4"/>
       <c r="AS805" s="4"/>
     </row>
-    <row r="806" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:45" ht="15.75" customHeight="1">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -40274,7 +40278,7 @@
       <c r="AR806" s="4"/>
       <c r="AS806" s="4"/>
     </row>
-    <row r="807" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:45" ht="15.75" customHeight="1">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -40321,7 +40325,7 @@
       <c r="AR807" s="4"/>
       <c r="AS807" s="4"/>
     </row>
-    <row r="808" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:45" ht="15.75" customHeight="1">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -40368,7 +40372,7 @@
       <c r="AR808" s="4"/>
       <c r="AS808" s="4"/>
     </row>
-    <row r="809" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:45" ht="15.75" customHeight="1">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -40415,7 +40419,7 @@
       <c r="AR809" s="4"/>
       <c r="AS809" s="4"/>
     </row>
-    <row r="810" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:45" ht="15.75" customHeight="1">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -40462,7 +40466,7 @@
       <c r="AR810" s="4"/>
       <c r="AS810" s="4"/>
     </row>
-    <row r="811" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:45" ht="15.75" customHeight="1">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -40509,7 +40513,7 @@
       <c r="AR811" s="4"/>
       <c r="AS811" s="4"/>
     </row>
-    <row r="812" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:45" ht="15.75" customHeight="1">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -40556,7 +40560,7 @@
       <c r="AR812" s="4"/>
       <c r="AS812" s="4"/>
     </row>
-    <row r="813" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:45" ht="15.75" customHeight="1">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -40603,7 +40607,7 @@
       <c r="AR813" s="4"/>
       <c r="AS813" s="4"/>
     </row>
-    <row r="814" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:45" ht="15.75" customHeight="1">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -40650,7 +40654,7 @@
       <c r="AR814" s="4"/>
       <c r="AS814" s="4"/>
     </row>
-    <row r="815" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:45" ht="15.75" customHeight="1">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -40697,7 +40701,7 @@
       <c r="AR815" s="4"/>
       <c r="AS815" s="4"/>
     </row>
-    <row r="816" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:45" ht="15.75" customHeight="1">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -40744,7 +40748,7 @@
       <c r="AR816" s="4"/>
       <c r="AS816" s="4"/>
     </row>
-    <row r="817" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:45" ht="15.75" customHeight="1">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -40791,7 +40795,7 @@
       <c r="AR817" s="4"/>
       <c r="AS817" s="4"/>
     </row>
-    <row r="818" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:45" ht="15.75" customHeight="1">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -40838,7 +40842,7 @@
       <c r="AR818" s="4"/>
       <c r="AS818" s="4"/>
     </row>
-    <row r="819" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:45" ht="15.75" customHeight="1">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -40885,7 +40889,7 @@
       <c r="AR819" s="4"/>
       <c r="AS819" s="4"/>
     </row>
-    <row r="820" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:45" ht="15.75" customHeight="1">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -40932,7 +40936,7 @@
       <c r="AR820" s="4"/>
       <c r="AS820" s="4"/>
     </row>
-    <row r="821" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:45" ht="15.75" customHeight="1">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -40979,7 +40983,7 @@
       <c r="AR821" s="4"/>
       <c r="AS821" s="4"/>
     </row>
-    <row r="822" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:45" ht="15.75" customHeight="1">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -41026,7 +41030,7 @@
       <c r="AR822" s="4"/>
       <c r="AS822" s="4"/>
     </row>
-    <row r="823" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:45" ht="15.75" customHeight="1">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -41073,7 +41077,7 @@
       <c r="AR823" s="4"/>
       <c r="AS823" s="4"/>
     </row>
-    <row r="824" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:45" ht="15.75" customHeight="1">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -41120,7 +41124,7 @@
       <c r="AR824" s="4"/>
       <c r="AS824" s="4"/>
     </row>
-    <row r="825" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:45" ht="15.75" customHeight="1">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -41167,7 +41171,7 @@
       <c r="AR825" s="4"/>
       <c r="AS825" s="4"/>
     </row>
-    <row r="826" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:45" ht="15.75" customHeight="1">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -41214,7 +41218,7 @@
       <c r="AR826" s="4"/>
       <c r="AS826" s="4"/>
     </row>
-    <row r="827" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:45" ht="15.75" customHeight="1">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -41261,7 +41265,7 @@
       <c r="AR827" s="4"/>
       <c r="AS827" s="4"/>
     </row>
-    <row r="828" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:45" ht="15.75" customHeight="1">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -41308,7 +41312,7 @@
       <c r="AR828" s="4"/>
       <c r="AS828" s="4"/>
     </row>
-    <row r="829" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:45" ht="15.75" customHeight="1">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -41355,7 +41359,7 @@
       <c r="AR829" s="4"/>
       <c r="AS829" s="4"/>
     </row>
-    <row r="830" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:45" ht="15.75" customHeight="1">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -41402,7 +41406,7 @@
       <c r="AR830" s="4"/>
       <c r="AS830" s="4"/>
     </row>
-    <row r="831" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:45" ht="15.75" customHeight="1">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -41449,7 +41453,7 @@
       <c r="AR831" s="4"/>
       <c r="AS831" s="4"/>
     </row>
-    <row r="832" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:45" ht="15.75" customHeight="1">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -41496,7 +41500,7 @@
       <c r="AR832" s="4"/>
       <c r="AS832" s="4"/>
     </row>
-    <row r="833" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:45" ht="15.75" customHeight="1">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -41543,7 +41547,7 @@
       <c r="AR833" s="4"/>
       <c r="AS833" s="4"/>
     </row>
-    <row r="834" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:45" ht="15.75" customHeight="1">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -41590,7 +41594,7 @@
       <c r="AR834" s="4"/>
       <c r="AS834" s="4"/>
     </row>
-    <row r="835" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:45" ht="15.75" customHeight="1">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -41637,7 +41641,7 @@
       <c r="AR835" s="4"/>
       <c r="AS835" s="4"/>
     </row>
-    <row r="836" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:45" ht="15.75" customHeight="1">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -41684,7 +41688,7 @@
       <c r="AR836" s="4"/>
       <c r="AS836" s="4"/>
     </row>
-    <row r="837" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:45" ht="15.75" customHeight="1">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -41731,7 +41735,7 @@
       <c r="AR837" s="4"/>
       <c r="AS837" s="4"/>
     </row>
-    <row r="838" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:45" ht="15.75" customHeight="1">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -41778,7 +41782,7 @@
       <c r="AR838" s="4"/>
       <c r="AS838" s="4"/>
     </row>
-    <row r="839" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:45" ht="15.75" customHeight="1">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -41825,7 +41829,7 @@
       <c r="AR839" s="4"/>
       <c r="AS839" s="4"/>
     </row>
-    <row r="840" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:45" ht="15.75" customHeight="1">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -41872,7 +41876,7 @@
       <c r="AR840" s="4"/>
       <c r="AS840" s="4"/>
     </row>
-    <row r="841" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:45" ht="15.75" customHeight="1">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -41919,7 +41923,7 @@
       <c r="AR841" s="4"/>
       <c r="AS841" s="4"/>
     </row>
-    <row r="842" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:45" ht="15.75" customHeight="1">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -41966,7 +41970,7 @@
       <c r="AR842" s="4"/>
       <c r="AS842" s="4"/>
     </row>
-    <row r="843" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:45" ht="15.75" customHeight="1">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -42013,7 +42017,7 @@
       <c r="AR843" s="4"/>
       <c r="AS843" s="4"/>
     </row>
-    <row r="844" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:45" ht="15.75" customHeight="1">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -42060,7 +42064,7 @@
       <c r="AR844" s="4"/>
       <c r="AS844" s="4"/>
     </row>
-    <row r="845" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:45" ht="15.75" customHeight="1">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -42107,7 +42111,7 @@
       <c r="AR845" s="4"/>
       <c r="AS845" s="4"/>
     </row>
-    <row r="846" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:45" ht="15.75" customHeight="1">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -42154,7 +42158,7 @@
       <c r="AR846" s="4"/>
       <c r="AS846" s="4"/>
     </row>
-    <row r="847" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:45" ht="15.75" customHeight="1">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -42201,7 +42205,7 @@
       <c r="AR847" s="4"/>
       <c r="AS847" s="4"/>
     </row>
-    <row r="848" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:45" ht="15.75" customHeight="1">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -42248,7 +42252,7 @@
       <c r="AR848" s="4"/>
       <c r="AS848" s="4"/>
     </row>
-    <row r="849" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:45" ht="15.75" customHeight="1">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -42295,7 +42299,7 @@
       <c r="AR849" s="4"/>
       <c r="AS849" s="4"/>
     </row>
-    <row r="850" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:45" ht="15.75" customHeight="1">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -42342,7 +42346,7 @@
       <c r="AR850" s="4"/>
       <c r="AS850" s="4"/>
     </row>
-    <row r="851" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:45" ht="15.75" customHeight="1">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -42389,7 +42393,7 @@
       <c r="AR851" s="4"/>
       <c r="AS851" s="4"/>
     </row>
-    <row r="852" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:45" ht="15.75" customHeight="1">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -42436,7 +42440,7 @@
       <c r="AR852" s="4"/>
       <c r="AS852" s="4"/>
     </row>
-    <row r="853" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:45" ht="15.75" customHeight="1">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -42483,7 +42487,7 @@
       <c r="AR853" s="4"/>
       <c r="AS853" s="4"/>
     </row>
-    <row r="854" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:45" ht="15.75" customHeight="1">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -42530,7 +42534,7 @@
       <c r="AR854" s="4"/>
       <c r="AS854" s="4"/>
     </row>
-    <row r="855" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:45" ht="15.75" customHeight="1">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -42577,7 +42581,7 @@
       <c r="AR855" s="4"/>
       <c r="AS855" s="4"/>
     </row>
-    <row r="856" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:45" ht="15.75" customHeight="1">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -42624,7 +42628,7 @@
       <c r="AR856" s="4"/>
       <c r="AS856" s="4"/>
     </row>
-    <row r="857" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:45" ht="15.75" customHeight="1">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -42671,7 +42675,7 @@
       <c r="AR857" s="4"/>
       <c r="AS857" s="4"/>
     </row>
-    <row r="858" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:45" ht="15.75" customHeight="1">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -42718,7 +42722,7 @@
       <c r="AR858" s="4"/>
       <c r="AS858" s="4"/>
     </row>
-    <row r="859" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:45" ht="15.75" customHeight="1">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -42765,7 +42769,7 @@
       <c r="AR859" s="4"/>
       <c r="AS859" s="4"/>
     </row>
-    <row r="860" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:45" ht="15.75" customHeight="1">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -42812,7 +42816,7 @@
       <c r="AR860" s="4"/>
       <c r="AS860" s="4"/>
     </row>
-    <row r="861" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:45" ht="15.75" customHeight="1">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -42859,7 +42863,7 @@
       <c r="AR861" s="4"/>
       <c r="AS861" s="4"/>
     </row>
-    <row r="862" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:45" ht="15.75" customHeight="1">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -42906,7 +42910,7 @@
       <c r="AR862" s="4"/>
       <c r="AS862" s="4"/>
     </row>
-    <row r="863" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:45" ht="15.75" customHeight="1">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -42953,7 +42957,7 @@
       <c r="AR863" s="4"/>
       <c r="AS863" s="4"/>
     </row>
-    <row r="864" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:45" ht="15.75" customHeight="1">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -43000,7 +43004,7 @@
       <c r="AR864" s="4"/>
       <c r="AS864" s="4"/>
     </row>
-    <row r="865" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:45" ht="15.75" customHeight="1">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -43047,7 +43051,7 @@
       <c r="AR865" s="4"/>
       <c r="AS865" s="4"/>
     </row>
-    <row r="866" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:45" ht="15.75" customHeight="1">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -43094,7 +43098,7 @@
       <c r="AR866" s="4"/>
       <c r="AS866" s="4"/>
     </row>
-    <row r="867" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:45" ht="15.75" customHeight="1">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -43141,7 +43145,7 @@
       <c r="AR867" s="4"/>
       <c r="AS867" s="4"/>
     </row>
-    <row r="868" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:45" ht="15.75" customHeight="1">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -43188,7 +43192,7 @@
       <c r="AR868" s="4"/>
       <c r="AS868" s="4"/>
     </row>
-    <row r="869" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:45" ht="15.75" customHeight="1">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -43235,7 +43239,7 @@
       <c r="AR869" s="4"/>
       <c r="AS869" s="4"/>
     </row>
-    <row r="870" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:45" ht="15.75" customHeight="1">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -43282,7 +43286,7 @@
       <c r="AR870" s="4"/>
       <c r="AS870" s="4"/>
     </row>
-    <row r="871" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:45" ht="15.75" customHeight="1">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -43329,7 +43333,7 @@
       <c r="AR871" s="4"/>
       <c r="AS871" s="4"/>
     </row>
-    <row r="872" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:45" ht="15.75" customHeight="1">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -43376,7 +43380,7 @@
       <c r="AR872" s="4"/>
       <c r="AS872" s="4"/>
     </row>
-    <row r="873" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:45" ht="15.75" customHeight="1">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -43423,7 +43427,7 @@
       <c r="AR873" s="4"/>
       <c r="AS873" s="4"/>
     </row>
-    <row r="874" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:45" ht="15.75" customHeight="1">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -43470,7 +43474,7 @@
       <c r="AR874" s="4"/>
       <c r="AS874" s="4"/>
     </row>
-    <row r="875" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:45" ht="15.75" customHeight="1">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -43517,7 +43521,7 @@
       <c r="AR875" s="4"/>
       <c r="AS875" s="4"/>
     </row>
-    <row r="876" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:45" ht="15.75" customHeight="1">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -43564,7 +43568,7 @@
       <c r="AR876" s="4"/>
       <c r="AS876" s="4"/>
     </row>
-    <row r="877" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:45" ht="15.75" customHeight="1">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -43611,7 +43615,7 @@
       <c r="AR877" s="4"/>
       <c r="AS877" s="4"/>
     </row>
-    <row r="878" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:45" ht="15.75" customHeight="1">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -43658,7 +43662,7 @@
       <c r="AR878" s="4"/>
       <c r="AS878" s="4"/>
     </row>
-    <row r="879" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:45" ht="15.75" customHeight="1">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -43705,7 +43709,7 @@
       <c r="AR879" s="4"/>
       <c r="AS879" s="4"/>
     </row>
-    <row r="880" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:45" ht="15.75" customHeight="1">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -43752,7 +43756,7 @@
       <c r="AR880" s="4"/>
       <c r="AS880" s="4"/>
     </row>
-    <row r="881" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:45" ht="15.75" customHeight="1">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -43799,7 +43803,7 @@
       <c r="AR881" s="4"/>
       <c r="AS881" s="4"/>
     </row>
-    <row r="882" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:45" ht="15.75" customHeight="1">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -43846,7 +43850,7 @@
       <c r="AR882" s="4"/>
       <c r="AS882" s="4"/>
     </row>
-    <row r="883" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:45" ht="15.75" customHeight="1">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -43893,7 +43897,7 @@
       <c r="AR883" s="4"/>
       <c r="AS883" s="4"/>
     </row>
-    <row r="884" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:45" ht="15.75" customHeight="1">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -43940,7 +43944,7 @@
       <c r="AR884" s="4"/>
       <c r="AS884" s="4"/>
     </row>
-    <row r="885" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:45" ht="15.75" customHeight="1">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -43987,7 +43991,7 @@
       <c r="AR885" s="4"/>
       <c r="AS885" s="4"/>
     </row>
-    <row r="886" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:45" ht="15.75" customHeight="1">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -44034,7 +44038,7 @@
       <c r="AR886" s="4"/>
       <c r="AS886" s="4"/>
     </row>
-    <row r="887" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:45" ht="15.75" customHeight="1">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -44081,7 +44085,7 @@
       <c r="AR887" s="4"/>
       <c r="AS887" s="4"/>
     </row>
-    <row r="888" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:45" ht="15.75" customHeight="1">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -44128,7 +44132,7 @@
       <c r="AR888" s="4"/>
       <c r="AS888" s="4"/>
     </row>
-    <row r="889" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:45" ht="15.75" customHeight="1">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -44175,7 +44179,7 @@
       <c r="AR889" s="4"/>
       <c r="AS889" s="4"/>
     </row>
-    <row r="890" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:45" ht="15.75" customHeight="1">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -44222,7 +44226,7 @@
       <c r="AR890" s="4"/>
       <c r="AS890" s="4"/>
     </row>
-    <row r="891" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:45" ht="15.75" customHeight="1">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -44269,7 +44273,7 @@
       <c r="AR891" s="4"/>
       <c r="AS891" s="4"/>
     </row>
-    <row r="892" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:45" ht="15.75" customHeight="1">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -44316,7 +44320,7 @@
       <c r="AR892" s="4"/>
       <c r="AS892" s="4"/>
     </row>
-    <row r="893" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:45" ht="15.75" customHeight="1">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -44363,7 +44367,7 @@
       <c r="AR893" s="4"/>
       <c r="AS893" s="4"/>
     </row>
-    <row r="894" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:45" ht="15.75" customHeight="1">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -44410,7 +44414,7 @@
       <c r="AR894" s="4"/>
       <c r="AS894" s="4"/>
     </row>
-    <row r="895" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:45" ht="15.75" customHeight="1">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -44457,7 +44461,7 @@
       <c r="AR895" s="4"/>
       <c r="AS895" s="4"/>
     </row>
-    <row r="896" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:45" ht="15.75" customHeight="1">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -44504,7 +44508,7 @@
       <c r="AR896" s="4"/>
       <c r="AS896" s="4"/>
     </row>
-    <row r="897" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:45" ht="15.75" customHeight="1">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -44551,7 +44555,7 @@
       <c r="AR897" s="4"/>
       <c r="AS897" s="4"/>
     </row>
-    <row r="898" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:45" ht="15.75" customHeight="1">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -44598,7 +44602,7 @@
       <c r="AR898" s="4"/>
       <c r="AS898" s="4"/>
     </row>
-    <row r="899" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:45" ht="15.75" customHeight="1">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -44645,7 +44649,7 @@
       <c r="AR899" s="4"/>
       <c r="AS899" s="4"/>
     </row>
-    <row r="900" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:45" ht="15.75" customHeight="1">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -44692,7 +44696,7 @@
       <c r="AR900" s="4"/>
       <c r="AS900" s="4"/>
     </row>
-    <row r="901" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:45" ht="15.75" customHeight="1">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -44739,7 +44743,7 @@
       <c r="AR901" s="4"/>
       <c r="AS901" s="4"/>
     </row>
-    <row r="902" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:45" ht="15.75" customHeight="1">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -44786,7 +44790,7 @@
       <c r="AR902" s="4"/>
       <c r="AS902" s="4"/>
     </row>
-    <row r="903" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:45" ht="15.75" customHeight="1">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -44833,7 +44837,7 @@
       <c r="AR903" s="4"/>
       <c r="AS903" s="4"/>
     </row>
-    <row r="904" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:45" ht="15.75" customHeight="1">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -44880,7 +44884,7 @@
       <c r="AR904" s="4"/>
       <c r="AS904" s="4"/>
     </row>
-    <row r="905" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:45" ht="15.75" customHeight="1">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -44927,7 +44931,7 @@
       <c r="AR905" s="4"/>
       <c r="AS905" s="4"/>
     </row>
-    <row r="906" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:45" ht="15.75" customHeight="1">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -44974,7 +44978,7 @@
       <c r="AR906" s="4"/>
       <c r="AS906" s="4"/>
     </row>
-    <row r="907" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:45" ht="15.75" customHeight="1">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -45021,7 +45025,7 @@
       <c r="AR907" s="4"/>
       <c r="AS907" s="4"/>
     </row>
-    <row r="908" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:45" ht="15.75" customHeight="1">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -45068,7 +45072,7 @@
       <c r="AR908" s="4"/>
       <c r="AS908" s="4"/>
     </row>
-    <row r="909" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:45" ht="15.75" customHeight="1">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -45115,7 +45119,7 @@
       <c r="AR909" s="4"/>
       <c r="AS909" s="4"/>
     </row>
-    <row r="910" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:45" ht="15.75" customHeight="1">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -45162,7 +45166,7 @@
       <c r="AR910" s="4"/>
       <c r="AS910" s="4"/>
     </row>
-    <row r="911" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:45" ht="15.75" customHeight="1">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -45209,7 +45213,7 @@
       <c r="AR911" s="4"/>
       <c r="AS911" s="4"/>
     </row>
-    <row r="912" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:45" ht="15.75" customHeight="1">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -45256,7 +45260,7 @@
       <c r="AR912" s="4"/>
       <c r="AS912" s="4"/>
     </row>
-    <row r="913" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:45" ht="15.75" customHeight="1">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -45303,7 +45307,7 @@
       <c r="AR913" s="4"/>
       <c r="AS913" s="4"/>
     </row>
-    <row r="914" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:45" ht="15.75" customHeight="1">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -45350,7 +45354,7 @@
       <c r="AR914" s="4"/>
       <c r="AS914" s="4"/>
     </row>
-    <row r="915" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:45" ht="15.75" customHeight="1">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -45397,7 +45401,7 @@
       <c r="AR915" s="4"/>
       <c r="AS915" s="4"/>
     </row>
-    <row r="916" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:45" ht="15.75" customHeight="1">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -45444,7 +45448,7 @@
       <c r="AR916" s="4"/>
       <c r="AS916" s="4"/>
     </row>
-    <row r="917" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:45" ht="15.75" customHeight="1">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -45491,7 +45495,7 @@
       <c r="AR917" s="4"/>
       <c r="AS917" s="4"/>
     </row>
-    <row r="918" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:45" ht="15.75" customHeight="1">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -45538,7 +45542,7 @@
       <c r="AR918" s="4"/>
       <c r="AS918" s="4"/>
     </row>
-    <row r="919" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:45" ht="15.75" customHeight="1">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -45585,7 +45589,7 @@
       <c r="AR919" s="4"/>
       <c r="AS919" s="4"/>
     </row>
-    <row r="920" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:45" ht="15.75" customHeight="1">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -45632,7 +45636,7 @@
       <c r="AR920" s="4"/>
       <c r="AS920" s="4"/>
     </row>
-    <row r="921" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:45" ht="15.75" customHeight="1">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -45679,7 +45683,7 @@
       <c r="AR921" s="4"/>
       <c r="AS921" s="4"/>
     </row>
-    <row r="922" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:45" ht="15.75" customHeight="1">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -45726,7 +45730,7 @@
       <c r="AR922" s="4"/>
       <c r="AS922" s="4"/>
     </row>
-    <row r="923" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:45" ht="15.75" customHeight="1">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -45773,7 +45777,7 @@
       <c r="AR923" s="4"/>
       <c r="AS923" s="4"/>
     </row>
-    <row r="924" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:45" ht="15.75" customHeight="1">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -45820,7 +45824,7 @@
       <c r="AR924" s="4"/>
       <c r="AS924" s="4"/>
     </row>
-    <row r="925" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:45" ht="15.75" customHeight="1">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -45867,7 +45871,7 @@
       <c r="AR925" s="4"/>
       <c r="AS925" s="4"/>
     </row>
-    <row r="926" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:45" ht="15.75" customHeight="1">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -45914,7 +45918,7 @@
       <c r="AR926" s="4"/>
       <c r="AS926" s="4"/>
     </row>
-    <row r="927" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:45" ht="15.75" customHeight="1">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -45961,7 +45965,7 @@
       <c r="AR927" s="4"/>
       <c r="AS927" s="4"/>
     </row>
-    <row r="928" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:45" ht="15.75" customHeight="1">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -46008,7 +46012,7 @@
       <c r="AR928" s="4"/>
       <c r="AS928" s="4"/>
     </row>
-    <row r="929" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:45" ht="15.75" customHeight="1">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -46055,7 +46059,7 @@
       <c r="AR929" s="4"/>
       <c r="AS929" s="4"/>
     </row>
-    <row r="930" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:45" ht="15.75" customHeight="1">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -46102,7 +46106,7 @@
       <c r="AR930" s="4"/>
       <c r="AS930" s="4"/>
     </row>
-    <row r="931" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:45" ht="15.75" customHeight="1">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -46149,7 +46153,7 @@
       <c r="AR931" s="4"/>
       <c r="AS931" s="4"/>
     </row>
-    <row r="932" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:45" ht="15.75" customHeight="1">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -46196,7 +46200,7 @@
       <c r="AR932" s="4"/>
       <c r="AS932" s="4"/>
     </row>
-    <row r="933" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:45" ht="15.75" customHeight="1">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -46243,7 +46247,7 @@
       <c r="AR933" s="4"/>
       <c r="AS933" s="4"/>
     </row>
-    <row r="934" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:45" ht="15.75" customHeight="1">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -46290,7 +46294,7 @@
       <c r="AR934" s="4"/>
       <c r="AS934" s="4"/>
     </row>
-    <row r="935" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:45" ht="15.75" customHeight="1">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -46337,7 +46341,7 @@
       <c r="AR935" s="4"/>
       <c r="AS935" s="4"/>
     </row>
-    <row r="936" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:45" ht="15.75" customHeight="1">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -46384,7 +46388,7 @@
       <c r="AR936" s="4"/>
       <c r="AS936" s="4"/>
     </row>
-    <row r="937" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:45" ht="15.75" customHeight="1">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -46431,7 +46435,7 @@
       <c r="AR937" s="4"/>
       <c r="AS937" s="4"/>
     </row>
-    <row r="938" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:45" ht="15.75" customHeight="1">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -46478,7 +46482,7 @@
       <c r="AR938" s="4"/>
       <c r="AS938" s="4"/>
     </row>
-    <row r="939" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:45" ht="15.75" customHeight="1">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -46525,7 +46529,7 @@
       <c r="AR939" s="4"/>
       <c r="AS939" s="4"/>
     </row>
-    <row r="940" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:45" ht="15.75" customHeight="1">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -46572,7 +46576,7 @@
       <c r="AR940" s="4"/>
       <c r="AS940" s="4"/>
     </row>
-    <row r="941" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:45" ht="15.75" customHeight="1">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -46619,7 +46623,7 @@
       <c r="AR941" s="4"/>
       <c r="AS941" s="4"/>
     </row>
-    <row r="942" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:45" ht="15.75" customHeight="1">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -46666,7 +46670,7 @@
       <c r="AR942" s="4"/>
       <c r="AS942" s="4"/>
     </row>
-    <row r="943" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:45" ht="15.75" customHeight="1">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -46713,7 +46717,7 @@
       <c r="AR943" s="4"/>
       <c r="AS943" s="4"/>
     </row>
-    <row r="944" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:45" ht="15.75" customHeight="1">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -46760,7 +46764,7 @@
       <c r="AR944" s="4"/>
       <c r="AS944" s="4"/>
     </row>
-    <row r="945" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:45" ht="15.75" customHeight="1">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -46807,7 +46811,7 @@
       <c r="AR945" s="4"/>
       <c r="AS945" s="4"/>
     </row>
-    <row r="946" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:45" ht="15.75" customHeight="1">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -46854,7 +46858,7 @@
       <c r="AR946" s="4"/>
       <c r="AS946" s="4"/>
     </row>
-    <row r="947" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:45" ht="15.75" customHeight="1">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -46901,7 +46905,7 @@
       <c r="AR947" s="4"/>
       <c r="AS947" s="4"/>
     </row>
-    <row r="948" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:45" ht="15.75" customHeight="1">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -46948,7 +46952,7 @@
       <c r="AR948" s="4"/>
       <c r="AS948" s="4"/>
     </row>
-    <row r="949" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:45" ht="15.75" customHeight="1">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -46995,7 +46999,7 @@
       <c r="AR949" s="4"/>
       <c r="AS949" s="4"/>
     </row>
-    <row r="950" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:45" ht="15.75" customHeight="1">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -47042,7 +47046,7 @@
       <c r="AR950" s="4"/>
       <c r="AS950" s="4"/>
     </row>
-    <row r="951" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:45" ht="15.75" customHeight="1">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -47089,7 +47093,7 @@
       <c r="AR951" s="4"/>
       <c r="AS951" s="4"/>
     </row>
-    <row r="952" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:45" ht="15.75" customHeight="1">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -47136,7 +47140,7 @@
       <c r="AR952" s="4"/>
       <c r="AS952" s="4"/>
     </row>
-    <row r="953" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:45" ht="15.75" customHeight="1">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -47183,7 +47187,7 @@
       <c r="AR953" s="4"/>
       <c r="AS953" s="4"/>
     </row>
-    <row r="954" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:45" ht="15.75" customHeight="1">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -47230,7 +47234,7 @@
       <c r="AR954" s="4"/>
       <c r="AS954" s="4"/>
     </row>
-    <row r="955" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:45" ht="15.75" customHeight="1">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -47277,7 +47281,7 @@
       <c r="AR955" s="4"/>
       <c r="AS955" s="4"/>
     </row>
-    <row r="956" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:45" ht="15.75" customHeight="1">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -47324,7 +47328,7 @@
       <c r="AR956" s="4"/>
       <c r="AS956" s="4"/>
     </row>
-    <row r="957" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:45" ht="15.75" customHeight="1">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -47371,7 +47375,7 @@
       <c r="AR957" s="4"/>
       <c r="AS957" s="4"/>
     </row>
-    <row r="958" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:45" ht="15.75" customHeight="1">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -47418,7 +47422,7 @@
       <c r="AR958" s="4"/>
       <c r="AS958" s="4"/>
     </row>
-    <row r="959" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:45" ht="15.75" customHeight="1">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -47465,7 +47469,7 @@
       <c r="AR959" s="4"/>
       <c r="AS959" s="4"/>
     </row>
-    <row r="960" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:45" ht="15.75" customHeight="1">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -47512,7 +47516,7 @@
       <c r="AR960" s="4"/>
       <c r="AS960" s="4"/>
     </row>
-    <row r="961" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:45" ht="15.75" customHeight="1">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -47559,7 +47563,7 @@
       <c r="AR961" s="4"/>
       <c r="AS961" s="4"/>
     </row>
-    <row r="962" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:45" ht="15.75" customHeight="1">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -47606,7 +47610,7 @@
       <c r="AR962" s="4"/>
       <c r="AS962" s="4"/>
     </row>
-    <row r="963" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:45" ht="15.75" customHeight="1">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -47653,7 +47657,7 @@
       <c r="AR963" s="4"/>
       <c r="AS963" s="4"/>
     </row>
-    <row r="964" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:45" ht="15.75" customHeight="1">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -47700,7 +47704,7 @@
       <c r="AR964" s="4"/>
       <c r="AS964" s="4"/>
     </row>
-    <row r="965" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:45" ht="15.75" customHeight="1">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -47747,7 +47751,7 @@
       <c r="AR965" s="4"/>
       <c r="AS965" s="4"/>
     </row>
-    <row r="966" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:45" ht="15.75" customHeight="1">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -47794,7 +47798,7 @@
       <c r="AR966" s="4"/>
       <c r="AS966" s="4"/>
     </row>
-    <row r="967" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:45" ht="15.75" customHeight="1">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -47841,7 +47845,7 @@
       <c r="AR967" s="4"/>
       <c r="AS967" s="4"/>
     </row>
-    <row r="968" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:45" ht="15.75" customHeight="1">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -47888,7 +47892,7 @@
       <c r="AR968" s="4"/>
       <c r="AS968" s="4"/>
     </row>
-    <row r="969" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:45" ht="15.75" customHeight="1">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -47935,7 +47939,7 @@
       <c r="AR969" s="4"/>
       <c r="AS969" s="4"/>
     </row>
-    <row r="970" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:45" ht="15.75" customHeight="1">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -47982,7 +47986,7 @@
       <c r="AR970" s="4"/>
       <c r="AS970" s="4"/>
     </row>
-    <row r="971" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:45" ht="15.75" customHeight="1">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -48029,7 +48033,7 @@
       <c r="AR971" s="4"/>
       <c r="AS971" s="4"/>
     </row>
-    <row r="972" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:45" ht="15.75" customHeight="1">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -48076,7 +48080,7 @@
       <c r="AR972" s="4"/>
       <c r="AS972" s="4"/>
     </row>
-    <row r="973" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:45" ht="15.75" customHeight="1">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -48123,7 +48127,7 @@
       <c r="AR973" s="4"/>
       <c r="AS973" s="4"/>
     </row>
-    <row r="974" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:45" ht="15.75" customHeight="1">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -48170,7 +48174,7 @@
       <c r="AR974" s="4"/>
       <c r="AS974" s="4"/>
     </row>
-    <row r="975" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:45" ht="15.75" customHeight="1">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -48217,7 +48221,7 @@
       <c r="AR975" s="4"/>
       <c r="AS975" s="4"/>
     </row>
-    <row r="976" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:45" ht="15.75" customHeight="1">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -48264,7 +48268,7 @@
       <c r="AR976" s="4"/>
       <c r="AS976" s="4"/>
     </row>
-    <row r="977" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:45" ht="15.75" customHeight="1">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -48311,7 +48315,7 @@
       <c r="AR977" s="4"/>
       <c r="AS977" s="4"/>
     </row>
-    <row r="978" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:45" ht="15.75" customHeight="1">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -48358,7 +48362,7 @@
       <c r="AR978" s="4"/>
       <c r="AS978" s="4"/>
     </row>
-    <row r="979" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:45" ht="15.75" customHeight="1">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -48405,7 +48409,7 @@
       <c r="AR979" s="4"/>
       <c r="AS979" s="4"/>
     </row>
-    <row r="980" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:45" ht="15.75" customHeight="1">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -48452,7 +48456,7 @@
       <c r="AR980" s="4"/>
       <c r="AS980" s="4"/>
     </row>
-    <row r="981" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:45" ht="15.75" customHeight="1">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -48499,7 +48503,7 @@
       <c r="AR981" s="4"/>
       <c r="AS981" s="4"/>
     </row>
-    <row r="982" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:45" ht="15.75" customHeight="1">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -48546,7 +48550,7 @@
       <c r="AR982" s="4"/>
       <c r="AS982" s="4"/>
     </row>
-    <row r="983" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:45" ht="15.75" customHeight="1">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -48593,7 +48597,7 @@
       <c r="AR983" s="4"/>
       <c r="AS983" s="4"/>
     </row>
-    <row r="984" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:45" ht="15.75" customHeight="1">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -48640,7 +48644,7 @@
       <c r="AR984" s="4"/>
       <c r="AS984" s="4"/>
     </row>
-    <row r="985" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:45" ht="15.75" customHeight="1">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -48687,7 +48691,7 @@
       <c r="AR985" s="4"/>
       <c r="AS985" s="4"/>
     </row>
-    <row r="986" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:45" ht="15.75" customHeight="1">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -48734,7 +48738,7 @@
       <c r="AR986" s="4"/>
       <c r="AS986" s="4"/>
     </row>
-    <row r="987" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:45" ht="15.75" customHeight="1">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -48781,7 +48785,7 @@
       <c r="AR987" s="4"/>
       <c r="AS987" s="4"/>
     </row>
-    <row r="988" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:45" ht="15.75" customHeight="1">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -48828,7 +48832,7 @@
       <c r="AR988" s="4"/>
       <c r="AS988" s="4"/>
     </row>
-    <row r="989" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:45" ht="15.75" customHeight="1">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -48875,7 +48879,7 @@
       <c r="AR989" s="4"/>
       <c r="AS989" s="4"/>
     </row>
-    <row r="990" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:45" ht="15.75" customHeight="1">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -48922,7 +48926,7 @@
       <c r="AR990" s="4"/>
       <c r="AS990" s="4"/>
     </row>
-    <row r="991" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:45" ht="15.75" customHeight="1">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -48969,7 +48973,7 @@
       <c r="AR991" s="4"/>
       <c r="AS991" s="4"/>
     </row>
-    <row r="992" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:45" ht="15.75" customHeight="1">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -49016,7 +49020,7 @@
       <c r="AR992" s="4"/>
       <c r="AS992" s="4"/>
     </row>
-    <row r="993" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:45" ht="15.75" customHeight="1">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -49063,7 +49067,7 @@
       <c r="AR993" s="4"/>
       <c r="AS993" s="4"/>
     </row>
-    <row r="994" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:45" ht="15.75" customHeight="1">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -49110,7 +49114,7 @@
       <c r="AR994" s="4"/>
       <c r="AS994" s="4"/>
     </row>
-    <row r="995" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:45" ht="15.75" customHeight="1">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -49157,7 +49161,7 @@
       <c r="AR995" s="4"/>
       <c r="AS995" s="4"/>
     </row>
-    <row r="996" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:45" ht="15.75" customHeight="1">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -49204,7 +49208,7 @@
       <c r="AR996" s="4"/>
       <c r="AS996" s="4"/>
     </row>
-    <row r="997" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:45" ht="15.75" customHeight="1">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -49251,7 +49255,7 @@
       <c r="AR997" s="4"/>
       <c r="AS997" s="4"/>
     </row>
-    <row r="998" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:45" ht="15.75" customHeight="1">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -49298,7 +49302,7 @@
       <c r="AR998" s="4"/>
       <c r="AS998" s="4"/>
     </row>
-    <row r="999" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:45" ht="15.75" customHeight="1">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -49345,7 +49349,7 @@
       <c r="AR999" s="4"/>
       <c r="AS999" s="4"/>
     </row>
-    <row r="1000" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:45" ht="15.75" customHeight="1">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>

--- a/processed_data/participants_cleaned/infantlanglab_utk_participant data_6 to 9 mnths_gaze following.xlsx
+++ b/processed_data/participants_cleaned/infantlanglab_utk_participant data_6 to 9 mnths_gaze following.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InfantLanguageLab\Documents\ILPLL\LabProjects\EyeGaze\UploadedData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krista/Repos/gaze-following-analysis/processed_data/participants_cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D157B241-2BD4-1E4C-83D3-D91DCFABE4A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10185"/>
+    <workbookView xWindow="6180" yWindow="7560" windowWidth="21580" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6-9 mos" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="88">
   <si>
     <t>lab</t>
   </si>
@@ -281,12 +282,15 @@
   <si>
     <t>Other</t>
   </si>
+  <si>
+    <t>subid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -652,47 +656,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="4.125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
     <col min="5" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" customWidth="1"/>
     <col min="16" max="21" width="10.5" customWidth="1"/>
-    <col min="22" max="22" width="12.625" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
     <col min="23" max="23" width="10.5" customWidth="1"/>
     <col min="24" max="24" width="11" customWidth="1"/>
-    <col min="25" max="25" width="12.875" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" customWidth="1"/>
     <col min="26" max="26" width="11" customWidth="1"/>
-    <col min="27" max="27" width="12.875" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" customWidth="1"/>
     <col min="28" max="32" width="10.5" customWidth="1"/>
-    <col min="33" max="33" width="12.875" customWidth="1"/>
-    <col min="34" max="34" width="16.375" customWidth="1"/>
-    <col min="35" max="35" width="19.375" customWidth="1"/>
+    <col min="33" max="33" width="12.83203125" customWidth="1"/>
+    <col min="34" max="34" width="16.33203125" customWidth="1"/>
+    <col min="35" max="35" width="19.33203125" customWidth="1"/>
     <col min="36" max="45" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -823,7 +829,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
@@ -960,7 +966,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -1234,7 +1240,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -2056,7 +2062,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -2330,7 +2336,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -2467,7 +2473,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -2741,7 +2747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -2878,7 +2884,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3336,7 +3342,7 @@
       <c r="AR20" s="4"/>
       <c r="AS20" s="4"/>
     </row>
-    <row r="21" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3379,7 +3385,7 @@
       <c r="AR21" s="4"/>
       <c r="AS21" s="4"/>
     </row>
-    <row r="22" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3426,7 +3432,7 @@
       <c r="AR22" s="4"/>
       <c r="AS22" s="4"/>
     </row>
-    <row r="23" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3473,7 +3479,7 @@
       <c r="AR23" s="4"/>
       <c r="AS23" s="4"/>
     </row>
-    <row r="24" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="15.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3520,7 +3526,7 @@
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
     </row>
-    <row r="25" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3567,7 +3573,7 @@
       <c r="AR25" s="4"/>
       <c r="AS25" s="4"/>
     </row>
-    <row r="26" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3614,7 +3620,7 @@
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
     </row>
-    <row r="27" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3661,7 +3667,7 @@
       <c r="AR27" s="4"/>
       <c r="AS27" s="4"/>
     </row>
-    <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3708,7 +3714,7 @@
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
     </row>
-    <row r="29" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3755,7 +3761,7 @@
       <c r="AR29" s="4"/>
       <c r="AS29" s="4"/>
     </row>
-    <row r="30" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="15.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3802,7 +3808,7 @@
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
     </row>
-    <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3849,7 +3855,7 @@
       <c r="AR31" s="4"/>
       <c r="AS31" s="4"/>
     </row>
-    <row r="32" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3896,7 +3902,7 @@
       <c r="AR32" s="4"/>
       <c r="AS32" s="4"/>
     </row>
-    <row r="33" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3943,7 +3949,7 @@
       <c r="AR33" s="4"/>
       <c r="AS33" s="4"/>
     </row>
-    <row r="34" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3990,7 +3996,7 @@
       <c r="AR34" s="4"/>
       <c r="AS34" s="4"/>
     </row>
-    <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -4037,7 +4043,7 @@
       <c r="AR35" s="4"/>
       <c r="AS35" s="4"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4084,7 +4090,7 @@
       <c r="AR36" s="4"/>
       <c r="AS36" s="4"/>
     </row>
-    <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4131,7 +4137,7 @@
       <c r="AR37" s="4"/>
       <c r="AS37" s="4"/>
     </row>
-    <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4178,7 +4184,7 @@
       <c r="AR38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4225,7 +4231,7 @@
       <c r="AR39" s="4"/>
       <c r="AS39" s="4"/>
     </row>
-    <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4272,7 +4278,7 @@
       <c r="AR40" s="4"/>
       <c r="AS40" s="4"/>
     </row>
-    <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4319,7 +4325,7 @@
       <c r="AR41" s="4"/>
       <c r="AS41" s="4"/>
     </row>
-    <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -4366,7 +4372,7 @@
       <c r="AR42" s="4"/>
       <c r="AS42" s="4"/>
     </row>
-    <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4413,7 +4419,7 @@
       <c r="AR43" s="4"/>
       <c r="AS43" s="4"/>
     </row>
-    <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4460,7 +4466,7 @@
       <c r="AR44" s="4"/>
       <c r="AS44" s="4"/>
     </row>
-    <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -4507,7 +4513,7 @@
       <c r="AR45" s="4"/>
       <c r="AS45" s="4"/>
     </row>
-    <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -4554,7 +4560,7 @@
       <c r="AR46" s="4"/>
       <c r="AS46" s="4"/>
     </row>
-    <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" ht="15.75" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -4601,7 +4607,7 @@
       <c r="AR47" s="4"/>
       <c r="AS47" s="4"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4648,7 +4654,7 @@
       <c r="AR48" s="4"/>
       <c r="AS48" s="4"/>
     </row>
-    <row r="49" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -4695,7 +4701,7 @@
       <c r="AR49" s="4"/>
       <c r="AS49" s="4"/>
     </row>
-    <row r="50" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -4742,7 +4748,7 @@
       <c r="AR50" s="4"/>
       <c r="AS50" s="4"/>
     </row>
-    <row r="51" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -4789,7 +4795,7 @@
       <c r="AR51" s="4"/>
       <c r="AS51" s="4"/>
     </row>
-    <row r="52" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" ht="15.75" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -4836,7 +4842,7 @@
       <c r="AR52" s="4"/>
       <c r="AS52" s="4"/>
     </row>
-    <row r="53" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" ht="15.75" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4883,7 +4889,7 @@
       <c r="AR53" s="4"/>
       <c r="AS53" s="4"/>
     </row>
-    <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" ht="15.75" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -4930,7 +4936,7 @@
       <c r="AR54" s="4"/>
       <c r="AS54" s="4"/>
     </row>
-    <row r="55" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" ht="15.75" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -4977,7 +4983,7 @@
       <c r="AR55" s="4"/>
       <c r="AS55" s="4"/>
     </row>
-    <row r="56" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" ht="15.75" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -5024,7 +5030,7 @@
       <c r="AR56" s="4"/>
       <c r="AS56" s="4"/>
     </row>
-    <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" ht="15.75" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -5071,7 +5077,7 @@
       <c r="AR57" s="4"/>
       <c r="AS57" s="4"/>
     </row>
-    <row r="58" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" ht="15.75" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -5118,7 +5124,7 @@
       <c r="AR58" s="4"/>
       <c r="AS58" s="4"/>
     </row>
-    <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" ht="15.75" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -5165,7 +5171,7 @@
       <c r="AR59" s="4"/>
       <c r="AS59" s="4"/>
     </row>
-    <row r="60" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -5212,7 +5218,7 @@
       <c r="AR60" s="4"/>
       <c r="AS60" s="4"/>
     </row>
-    <row r="61" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" ht="15.75" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -5259,7 +5265,7 @@
       <c r="AR61" s="4"/>
       <c r="AS61" s="4"/>
     </row>
-    <row r="62" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -5306,7 +5312,7 @@
       <c r="AR62" s="4"/>
       <c r="AS62" s="4"/>
     </row>
-    <row r="63" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -5353,7 +5359,7 @@
       <c r="AR63" s="4"/>
       <c r="AS63" s="4"/>
     </row>
-    <row r="64" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" ht="15.75" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -5400,7 +5406,7 @@
       <c r="AR64" s="4"/>
       <c r="AS64" s="4"/>
     </row>
-    <row r="65" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" ht="15.75" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -5447,7 +5453,7 @@
       <c r="AR65" s="4"/>
       <c r="AS65" s="4"/>
     </row>
-    <row r="66" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" ht="15.75" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -5494,7 +5500,7 @@
       <c r="AR66" s="4"/>
       <c r="AS66" s="4"/>
     </row>
-    <row r="67" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" ht="15.75" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -5541,7 +5547,7 @@
       <c r="AR67" s="4"/>
       <c r="AS67" s="4"/>
     </row>
-    <row r="68" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" ht="15.75" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -5588,7 +5594,7 @@
       <c r="AR68" s="4"/>
       <c r="AS68" s="4"/>
     </row>
-    <row r="69" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" ht="15.75" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -5635,7 +5641,7 @@
       <c r="AR69" s="4"/>
       <c r="AS69" s="4"/>
     </row>
-    <row r="70" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" ht="15.75" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -5682,7 +5688,7 @@
       <c r="AR70" s="4"/>
       <c r="AS70" s="4"/>
     </row>
-    <row r="71" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" ht="15.75" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -5729,7 +5735,7 @@
       <c r="AR71" s="4"/>
       <c r="AS71" s="4"/>
     </row>
-    <row r="72" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" ht="15.75" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -5776,7 +5782,7 @@
       <c r="AR72" s="4"/>
       <c r="AS72" s="4"/>
     </row>
-    <row r="73" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:45" ht="15.75" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -5823,7 +5829,7 @@
       <c r="AR73" s="4"/>
       <c r="AS73" s="4"/>
     </row>
-    <row r="74" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" ht="15.75" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -5870,7 +5876,7 @@
       <c r="AR74" s="4"/>
       <c r="AS74" s="4"/>
     </row>
-    <row r="75" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" ht="15.75" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -5917,7 +5923,7 @@
       <c r="AR75" s="4"/>
       <c r="AS75" s="4"/>
     </row>
-    <row r="76" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" ht="15.75" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -5964,7 +5970,7 @@
       <c r="AR76" s="4"/>
       <c r="AS76" s="4"/>
     </row>
-    <row r="77" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" ht="15.75" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6011,7 +6017,7 @@
       <c r="AR77" s="4"/>
       <c r="AS77" s="4"/>
     </row>
-    <row r="78" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" ht="15.75" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6058,7 +6064,7 @@
       <c r="AR78" s="4"/>
       <c r="AS78" s="4"/>
     </row>
-    <row r="79" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" ht="15.75" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6105,7 +6111,7 @@
       <c r="AR79" s="4"/>
       <c r="AS79" s="4"/>
     </row>
-    <row r="80" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" ht="15.75" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6152,7 +6158,7 @@
       <c r="AR80" s="4"/>
       <c r="AS80" s="4"/>
     </row>
-    <row r="81" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" ht="15.75" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6199,7 +6205,7 @@
       <c r="AR81" s="4"/>
       <c r="AS81" s="4"/>
     </row>
-    <row r="82" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:45" ht="15.75" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6246,7 +6252,7 @@
       <c r="AR82" s="4"/>
       <c r="AS82" s="4"/>
     </row>
-    <row r="83" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" ht="15.75" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6293,7 +6299,7 @@
       <c r="AR83" s="4"/>
       <c r="AS83" s="4"/>
     </row>
-    <row r="84" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" ht="15.75" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6340,7 +6346,7 @@
       <c r="AR84" s="4"/>
       <c r="AS84" s="4"/>
     </row>
-    <row r="85" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" ht="15.75" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6387,7 +6393,7 @@
       <c r="AR85" s="4"/>
       <c r="AS85" s="4"/>
     </row>
-    <row r="86" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:45" ht="15.75" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6434,7 +6440,7 @@
       <c r="AR86" s="4"/>
       <c r="AS86" s="4"/>
     </row>
-    <row r="87" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:45" ht="15.75" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6481,7 +6487,7 @@
       <c r="AR87" s="4"/>
       <c r="AS87" s="4"/>
     </row>
-    <row r="88" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:45" ht="15.75" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6528,7 +6534,7 @@
       <c r="AR88" s="4"/>
       <c r="AS88" s="4"/>
     </row>
-    <row r="89" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:45" ht="15.75" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6575,7 +6581,7 @@
       <c r="AR89" s="4"/>
       <c r="AS89" s="4"/>
     </row>
-    <row r="90" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" ht="15.75" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6622,7 +6628,7 @@
       <c r="AR90" s="4"/>
       <c r="AS90" s="4"/>
     </row>
-    <row r="91" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" ht="15.75" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -6669,7 +6675,7 @@
       <c r="AR91" s="4"/>
       <c r="AS91" s="4"/>
     </row>
-    <row r="92" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" ht="15.75" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -6716,7 +6722,7 @@
       <c r="AR92" s="4"/>
       <c r="AS92" s="4"/>
     </row>
-    <row r="93" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:45" ht="15.75" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -6763,7 +6769,7 @@
       <c r="AR93" s="4"/>
       <c r="AS93" s="4"/>
     </row>
-    <row r="94" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:45" ht="15.75" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -6810,7 +6816,7 @@
       <c r="AR94" s="4"/>
       <c r="AS94" s="4"/>
     </row>
-    <row r="95" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:45" ht="15.75" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -6857,7 +6863,7 @@
       <c r="AR95" s="4"/>
       <c r="AS95" s="4"/>
     </row>
-    <row r="96" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:45" ht="15.75" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -6904,7 +6910,7 @@
       <c r="AR96" s="4"/>
       <c r="AS96" s="4"/>
     </row>
-    <row r="97" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:45" ht="15.75" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -6951,7 +6957,7 @@
       <c r="AR97" s="4"/>
       <c r="AS97" s="4"/>
     </row>
-    <row r="98" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" ht="15.75" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -6998,7 +7004,7 @@
       <c r="AR98" s="4"/>
       <c r="AS98" s="4"/>
     </row>
-    <row r="99" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" ht="15.75" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -7045,7 +7051,7 @@
       <c r="AR99" s="4"/>
       <c r="AS99" s="4"/>
     </row>
-    <row r="100" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" ht="15.75" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -7092,7 +7098,7 @@
       <c r="AR100" s="4"/>
       <c r="AS100" s="4"/>
     </row>
-    <row r="101" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" ht="15.75" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -7139,7 +7145,7 @@
       <c r="AR101" s="4"/>
       <c r="AS101" s="4"/>
     </row>
-    <row r="102" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" ht="15.75" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -7186,7 +7192,7 @@
       <c r="AR102" s="4"/>
       <c r="AS102" s="4"/>
     </row>
-    <row r="103" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" ht="15.75" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -7233,7 +7239,7 @@
       <c r="AR103" s="4"/>
       <c r="AS103" s="4"/>
     </row>
-    <row r="104" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" ht="15.75" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -7280,7 +7286,7 @@
       <c r="AR104" s="4"/>
       <c r="AS104" s="4"/>
     </row>
-    <row r="105" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" ht="15.75" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -7327,7 +7333,7 @@
       <c r="AR105" s="4"/>
       <c r="AS105" s="4"/>
     </row>
-    <row r="106" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" ht="15.75" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -7374,7 +7380,7 @@
       <c r="AR106" s="4"/>
       <c r="AS106" s="4"/>
     </row>
-    <row r="107" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" ht="15.75" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -7421,7 +7427,7 @@
       <c r="AR107" s="4"/>
       <c r="AS107" s="4"/>
     </row>
-    <row r="108" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" ht="15.75" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -7468,7 +7474,7 @@
       <c r="AR108" s="4"/>
       <c r="AS108" s="4"/>
     </row>
-    <row r="109" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" ht="15.75" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -7515,7 +7521,7 @@
       <c r="AR109" s="4"/>
       <c r="AS109" s="4"/>
     </row>
-    <row r="110" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" ht="15.75" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -7562,7 +7568,7 @@
       <c r="AR110" s="4"/>
       <c r="AS110" s="4"/>
     </row>
-    <row r="111" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" ht="15.75" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -7609,7 +7615,7 @@
       <c r="AR111" s="4"/>
       <c r="AS111" s="4"/>
     </row>
-    <row r="112" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:45" ht="15.75" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -7656,7 +7662,7 @@
       <c r="AR112" s="4"/>
       <c r="AS112" s="4"/>
     </row>
-    <row r="113" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" ht="15.75" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -7703,7 +7709,7 @@
       <c r="AR113" s="4"/>
       <c r="AS113" s="4"/>
     </row>
-    <row r="114" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" ht="15.75" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -7750,7 +7756,7 @@
       <c r="AR114" s="4"/>
       <c r="AS114" s="4"/>
     </row>
-    <row r="115" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:45" ht="15.75" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -7797,7 +7803,7 @@
       <c r="AR115" s="4"/>
       <c r="AS115" s="4"/>
     </row>
-    <row r="116" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" ht="15.75" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -7844,7 +7850,7 @@
       <c r="AR116" s="4"/>
       <c r="AS116" s="4"/>
     </row>
-    <row r="117" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" ht="15.75" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -7891,7 +7897,7 @@
       <c r="AR117" s="4"/>
       <c r="AS117" s="4"/>
     </row>
-    <row r="118" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:45" ht="15.75" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -7938,7 +7944,7 @@
       <c r="AR118" s="4"/>
       <c r="AS118" s="4"/>
     </row>
-    <row r="119" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" ht="15.75" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -7985,7 +7991,7 @@
       <c r="AR119" s="4"/>
       <c r="AS119" s="4"/>
     </row>
-    <row r="120" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:45" ht="15.75" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -8032,7 +8038,7 @@
       <c r="AR120" s="4"/>
       <c r="AS120" s="4"/>
     </row>
-    <row r="121" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:45" ht="15.75" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -8079,7 +8085,7 @@
       <c r="AR121" s="4"/>
       <c r="AS121" s="4"/>
     </row>
-    <row r="122" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:45" ht="15.75" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -8126,7 +8132,7 @@
       <c r="AR122" s="4"/>
       <c r="AS122" s="4"/>
     </row>
-    <row r="123" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:45" ht="15.75" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -8173,7 +8179,7 @@
       <c r="AR123" s="4"/>
       <c r="AS123" s="4"/>
     </row>
-    <row r="124" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:45" ht="15.75" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -8220,7 +8226,7 @@
       <c r="AR124" s="4"/>
       <c r="AS124" s="4"/>
     </row>
-    <row r="125" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:45" ht="15.75" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -8267,7 +8273,7 @@
       <c r="AR125" s="4"/>
       <c r="AS125" s="4"/>
     </row>
-    <row r="126" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:45" ht="15.75" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -8314,7 +8320,7 @@
       <c r="AR126" s="4"/>
       <c r="AS126" s="4"/>
     </row>
-    <row r="127" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:45" ht="15.75" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -8361,7 +8367,7 @@
       <c r="AR127" s="4"/>
       <c r="AS127" s="4"/>
     </row>
-    <row r="128" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:45" ht="15.75" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -8408,7 +8414,7 @@
       <c r="AR128" s="4"/>
       <c r="AS128" s="4"/>
     </row>
-    <row r="129" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:45" ht="15.75" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -8455,7 +8461,7 @@
       <c r="AR129" s="4"/>
       <c r="AS129" s="4"/>
     </row>
-    <row r="130" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:45" ht="15.75" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -8502,7 +8508,7 @@
       <c r="AR130" s="4"/>
       <c r="AS130" s="4"/>
     </row>
-    <row r="131" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:45" ht="15.75" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -8549,7 +8555,7 @@
       <c r="AR131" s="4"/>
       <c r="AS131" s="4"/>
     </row>
-    <row r="132" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:45" ht="15.75" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -8596,7 +8602,7 @@
       <c r="AR132" s="4"/>
       <c r="AS132" s="4"/>
     </row>
-    <row r="133" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:45" ht="15.75" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -8643,7 +8649,7 @@
       <c r="AR133" s="4"/>
       <c r="AS133" s="4"/>
     </row>
-    <row r="134" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:45" ht="15.75" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -8690,7 +8696,7 @@
       <c r="AR134" s="4"/>
       <c r="AS134" s="4"/>
     </row>
-    <row r="135" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:45" ht="15.75" customHeight="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -8737,7 +8743,7 @@
       <c r="AR135" s="4"/>
       <c r="AS135" s="4"/>
     </row>
-    <row r="136" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:45" ht="15.75" customHeight="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -8784,7 +8790,7 @@
       <c r="AR136" s="4"/>
       <c r="AS136" s="4"/>
     </row>
-    <row r="137" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:45" ht="15.75" customHeight="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -8831,7 +8837,7 @@
       <c r="AR137" s="4"/>
       <c r="AS137" s="4"/>
     </row>
-    <row r="138" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:45" ht="15.75" customHeight="1">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -8878,7 +8884,7 @@
       <c r="AR138" s="4"/>
       <c r="AS138" s="4"/>
     </row>
-    <row r="139" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:45" ht="15.75" customHeight="1">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -8925,7 +8931,7 @@
       <c r="AR139" s="4"/>
       <c r="AS139" s="4"/>
     </row>
-    <row r="140" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:45" ht="15.75" customHeight="1">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -8972,7 +8978,7 @@
       <c r="AR140" s="4"/>
       <c r="AS140" s="4"/>
     </row>
-    <row r="141" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:45" ht="15.75" customHeight="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -9019,7 +9025,7 @@
       <c r="AR141" s="4"/>
       <c r="AS141" s="4"/>
     </row>
-    <row r="142" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:45" ht="15.75" customHeight="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -9066,7 +9072,7 @@
       <c r="AR142" s="4"/>
       <c r="AS142" s="4"/>
     </row>
-    <row r="143" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:45" ht="15.75" customHeight="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -9113,7 +9119,7 @@
       <c r="AR143" s="4"/>
       <c r="AS143" s="4"/>
     </row>
-    <row r="144" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:45" ht="15.75" customHeight="1">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -9160,7 +9166,7 @@
       <c r="AR144" s="4"/>
       <c r="AS144" s="4"/>
     </row>
-    <row r="145" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:45" ht="15.75" customHeight="1">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -9207,7 +9213,7 @@
       <c r="AR145" s="4"/>
       <c r="AS145" s="4"/>
     </row>
-    <row r="146" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:45" ht="15.75" customHeight="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -9254,7 +9260,7 @@
       <c r="AR146" s="4"/>
       <c r="AS146" s="4"/>
     </row>
-    <row r="147" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:45" ht="15.75" customHeight="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -9301,7 +9307,7 @@
       <c r="AR147" s="4"/>
       <c r="AS147" s="4"/>
     </row>
-    <row r="148" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:45" ht="15.75" customHeight="1">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -9348,7 +9354,7 @@
       <c r="AR148" s="4"/>
       <c r="AS148" s="4"/>
     </row>
-    <row r="149" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:45" ht="15.75" customHeight="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -9395,7 +9401,7 @@
       <c r="AR149" s="4"/>
       <c r="AS149" s="4"/>
     </row>
-    <row r="150" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:45" ht="15.75" customHeight="1">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -9442,7 +9448,7 @@
       <c r="AR150" s="4"/>
       <c r="AS150" s="4"/>
     </row>
-    <row r="151" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:45" ht="15.75" customHeight="1">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -9489,7 +9495,7 @@
       <c r="AR151" s="4"/>
       <c r="AS151" s="4"/>
     </row>
-    <row r="152" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:45" ht="15.75" customHeight="1">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -9536,7 +9542,7 @@
       <c r="AR152" s="4"/>
       <c r="AS152" s="4"/>
     </row>
-    <row r="153" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:45" ht="15.75" customHeight="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -9583,7 +9589,7 @@
       <c r="AR153" s="4"/>
       <c r="AS153" s="4"/>
     </row>
-    <row r="154" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:45" ht="15.75" customHeight="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -9630,7 +9636,7 @@
       <c r="AR154" s="4"/>
       <c r="AS154" s="4"/>
     </row>
-    <row r="155" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:45" ht="15.75" customHeight="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -9677,7 +9683,7 @@
       <c r="AR155" s="4"/>
       <c r="AS155" s="4"/>
     </row>
-    <row r="156" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:45" ht="15.75" customHeight="1">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -9724,7 +9730,7 @@
       <c r="AR156" s="4"/>
       <c r="AS156" s="4"/>
     </row>
-    <row r="157" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:45" ht="15.75" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -9771,7 +9777,7 @@
       <c r="AR157" s="4"/>
       <c r="AS157" s="4"/>
     </row>
-    <row r="158" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:45" ht="15.75" customHeight="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -9818,7 +9824,7 @@
       <c r="AR158" s="4"/>
       <c r="AS158" s="4"/>
     </row>
-    <row r="159" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:45" ht="15.75" customHeight="1">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -9865,7 +9871,7 @@
       <c r="AR159" s="4"/>
       <c r="AS159" s="4"/>
     </row>
-    <row r="160" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:45" ht="15.75" customHeight="1">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -9912,7 +9918,7 @@
       <c r="AR160" s="4"/>
       <c r="AS160" s="4"/>
     </row>
-    <row r="161" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:45" ht="15.75" customHeight="1">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -9959,7 +9965,7 @@
       <c r="AR161" s="4"/>
       <c r="AS161" s="4"/>
     </row>
-    <row r="162" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:45" ht="15.75" customHeight="1">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -10006,7 +10012,7 @@
       <c r="AR162" s="4"/>
       <c r="AS162" s="4"/>
     </row>
-    <row r="163" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:45" ht="15.75" customHeight="1">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -10053,7 +10059,7 @@
       <c r="AR163" s="4"/>
       <c r="AS163" s="4"/>
     </row>
-    <row r="164" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:45" ht="15.75" customHeight="1">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -10100,7 +10106,7 @@
       <c r="AR164" s="4"/>
       <c r="AS164" s="4"/>
     </row>
-    <row r="165" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:45" ht="15.75" customHeight="1">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -10147,7 +10153,7 @@
       <c r="AR165" s="4"/>
       <c r="AS165" s="4"/>
     </row>
-    <row r="166" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:45" ht="15.75" customHeight="1">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -10194,7 +10200,7 @@
       <c r="AR166" s="4"/>
       <c r="AS166" s="4"/>
     </row>
-    <row r="167" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:45" ht="15.75" customHeight="1">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -10241,7 +10247,7 @@
       <c r="AR167" s="4"/>
       <c r="AS167" s="4"/>
     </row>
-    <row r="168" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:45" ht="15.75" customHeight="1">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -10288,7 +10294,7 @@
       <c r="AR168" s="4"/>
       <c r="AS168" s="4"/>
     </row>
-    <row r="169" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:45" ht="15.75" customHeight="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -10335,7 +10341,7 @@
       <c r="AR169" s="4"/>
       <c r="AS169" s="4"/>
     </row>
-    <row r="170" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:45" ht="15.75" customHeight="1">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -10382,7 +10388,7 @@
       <c r="AR170" s="4"/>
       <c r="AS170" s="4"/>
     </row>
-    <row r="171" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:45" ht="15.75" customHeight="1">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -10429,7 +10435,7 @@
       <c r="AR171" s="4"/>
       <c r="AS171" s="4"/>
     </row>
-    <row r="172" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:45" ht="15.75" customHeight="1">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -10476,7 +10482,7 @@
       <c r="AR172" s="4"/>
       <c r="AS172" s="4"/>
     </row>
-    <row r="173" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:45" ht="15.75" customHeight="1">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -10523,7 +10529,7 @@
       <c r="AR173" s="4"/>
       <c r="AS173" s="4"/>
     </row>
-    <row r="174" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:45" ht="15.75" customHeight="1">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -10570,7 +10576,7 @@
       <c r="AR174" s="4"/>
       <c r="AS174" s="4"/>
     </row>
-    <row r="175" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:45" ht="15.75" customHeight="1">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -10617,7 +10623,7 @@
       <c r="AR175" s="4"/>
       <c r="AS175" s="4"/>
     </row>
-    <row r="176" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:45" ht="15.75" customHeight="1">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -10664,7 +10670,7 @@
       <c r="AR176" s="4"/>
       <c r="AS176" s="4"/>
     </row>
-    <row r="177" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:45" ht="15.75" customHeight="1">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -10711,7 +10717,7 @@
       <c r="AR177" s="4"/>
       <c r="AS177" s="4"/>
     </row>
-    <row r="178" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:45" ht="15.75" customHeight="1">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -10758,7 +10764,7 @@
       <c r="AR178" s="4"/>
       <c r="AS178" s="4"/>
     </row>
-    <row r="179" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:45" ht="15.75" customHeight="1">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -10805,7 +10811,7 @@
       <c r="AR179" s="4"/>
       <c r="AS179" s="4"/>
     </row>
-    <row r="180" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:45" ht="15.75" customHeight="1">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -10852,7 +10858,7 @@
       <c r="AR180" s="4"/>
       <c r="AS180" s="4"/>
     </row>
-    <row r="181" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:45" ht="15.75" customHeight="1">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -10899,7 +10905,7 @@
       <c r="AR181" s="4"/>
       <c r="AS181" s="4"/>
     </row>
-    <row r="182" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:45" ht="15.75" customHeight="1">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -10946,7 +10952,7 @@
       <c r="AR182" s="4"/>
       <c r="AS182" s="4"/>
     </row>
-    <row r="183" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:45" ht="15.75" customHeight="1">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -10993,7 +10999,7 @@
       <c r="AR183" s="4"/>
       <c r="AS183" s="4"/>
     </row>
-    <row r="184" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:45" ht="15.75" customHeight="1">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -11040,7 +11046,7 @@
       <c r="AR184" s="4"/>
       <c r="AS184" s="4"/>
     </row>
-    <row r="185" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:45" ht="15.75" customHeight="1">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -11087,7 +11093,7 @@
       <c r="AR185" s="4"/>
       <c r="AS185" s="4"/>
     </row>
-    <row r="186" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:45" ht="15.75" customHeight="1">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -11134,7 +11140,7 @@
       <c r="AR186" s="4"/>
       <c r="AS186" s="4"/>
     </row>
-    <row r="187" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:45" ht="15.75" customHeight="1">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -11181,7 +11187,7 @@
       <c r="AR187" s="4"/>
       <c r="AS187" s="4"/>
     </row>
-    <row r="188" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:45" ht="15.75" customHeight="1">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -11228,7 +11234,7 @@
       <c r="AR188" s="4"/>
       <c r="AS188" s="4"/>
     </row>
-    <row r="189" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:45" ht="15.75" customHeight="1">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -11275,7 +11281,7 @@
       <c r="AR189" s="4"/>
       <c r="AS189" s="4"/>
     </row>
-    <row r="190" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:45" ht="15.75" customHeight="1">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -11322,7 +11328,7 @@
       <c r="AR190" s="4"/>
       <c r="AS190" s="4"/>
     </row>
-    <row r="191" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:45" ht="15.75" customHeight="1">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -11369,7 +11375,7 @@
       <c r="AR191" s="4"/>
       <c r="AS191" s="4"/>
     </row>
-    <row r="192" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:45" ht="15.75" customHeight="1">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -11416,7 +11422,7 @@
       <c r="AR192" s="4"/>
       <c r="AS192" s="4"/>
     </row>
-    <row r="193" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:45" ht="15.75" customHeight="1">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -11463,7 +11469,7 @@
       <c r="AR193" s="4"/>
       <c r="AS193" s="4"/>
     </row>
-    <row r="194" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:45" ht="15.75" customHeight="1">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -11510,7 +11516,7 @@
       <c r="AR194" s="4"/>
       <c r="AS194" s="4"/>
     </row>
-    <row r="195" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:45" ht="15.75" customHeight="1">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -11557,7 +11563,7 @@
       <c r="AR195" s="4"/>
       <c r="AS195" s="4"/>
     </row>
-    <row r="196" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:45" ht="15.75" customHeight="1">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -11604,7 +11610,7 @@
       <c r="AR196" s="4"/>
       <c r="AS196" s="4"/>
     </row>
-    <row r="197" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:45" ht="15.75" customHeight="1">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -11651,7 +11657,7 @@
       <c r="AR197" s="4"/>
       <c r="AS197" s="4"/>
     </row>
-    <row r="198" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:45" ht="15.75" customHeight="1">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -11698,7 +11704,7 @@
       <c r="AR198" s="4"/>
       <c r="AS198" s="4"/>
     </row>
-    <row r="199" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:45" ht="15.75" customHeight="1">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -11745,7 +11751,7 @@
       <c r="AR199" s="4"/>
       <c r="AS199" s="4"/>
     </row>
-    <row r="200" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:45" ht="15.75" customHeight="1">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -11792,7 +11798,7 @@
       <c r="AR200" s="4"/>
       <c r="AS200" s="4"/>
     </row>
-    <row r="201" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:45" ht="15.75" customHeight="1">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -11839,7 +11845,7 @@
       <c r="AR201" s="4"/>
       <c r="AS201" s="4"/>
     </row>
-    <row r="202" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:45" ht="15.75" customHeight="1">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -11886,7 +11892,7 @@
       <c r="AR202" s="4"/>
       <c r="AS202" s="4"/>
     </row>
-    <row r="203" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:45" ht="15.75" customHeight="1">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -11933,7 +11939,7 @@
       <c r="AR203" s="4"/>
       <c r="AS203" s="4"/>
     </row>
-    <row r="204" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:45" ht="15.75" customHeight="1">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -11980,7 +11986,7 @@
       <c r="AR204" s="4"/>
       <c r="AS204" s="4"/>
     </row>
-    <row r="205" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:45" ht="15.75" customHeight="1">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -12027,7 +12033,7 @@
       <c r="AR205" s="4"/>
       <c r="AS205" s="4"/>
     </row>
-    <row r="206" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:45" ht="15.75" customHeight="1">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -12074,7 +12080,7 @@
       <c r="AR206" s="4"/>
       <c r="AS206" s="4"/>
     </row>
-    <row r="207" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:45" ht="15.75" customHeight="1">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -12121,7 +12127,7 @@
       <c r="AR207" s="4"/>
       <c r="AS207" s="4"/>
     </row>
-    <row r="208" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:45" ht="15.75" customHeight="1">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -12168,7 +12174,7 @@
       <c r="AR208" s="4"/>
       <c r="AS208" s="4"/>
     </row>
-    <row r="209" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:45" ht="15.75" customHeight="1">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -12215,7 +12221,7 @@
       <c r="AR209" s="4"/>
       <c r="AS209" s="4"/>
     </row>
-    <row r="210" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:45" ht="15.75" customHeight="1">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -12262,7 +12268,7 @@
       <c r="AR210" s="4"/>
       <c r="AS210" s="4"/>
     </row>
-    <row r="211" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:45" ht="15.75" customHeight="1">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -12309,7 +12315,7 @@
       <c r="AR211" s="4"/>
       <c r="AS211" s="4"/>
     </row>
-    <row r="212" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:45" ht="15.75" customHeight="1">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -12356,7 +12362,7 @@
       <c r="AR212" s="4"/>
       <c r="AS212" s="4"/>
     </row>
-    <row r="213" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:45" ht="15.75" customHeight="1">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -12403,7 +12409,7 @@
       <c r="AR213" s="4"/>
       <c r="AS213" s="4"/>
     </row>
-    <row r="214" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:45" ht="15.75" customHeight="1">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -12450,7 +12456,7 @@
       <c r="AR214" s="4"/>
       <c r="AS214" s="4"/>
     </row>
-    <row r="215" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:45" ht="15.75" customHeight="1">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -12497,7 +12503,7 @@
       <c r="AR215" s="4"/>
       <c r="AS215" s="4"/>
     </row>
-    <row r="216" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:45" ht="15.75" customHeight="1">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -12544,7 +12550,7 @@
       <c r="AR216" s="4"/>
       <c r="AS216" s="4"/>
     </row>
-    <row r="217" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:45" ht="15.75" customHeight="1">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -12591,7 +12597,7 @@
       <c r="AR217" s="4"/>
       <c r="AS217" s="4"/>
     </row>
-    <row r="218" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:45" ht="15.75" customHeight="1">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -12638,7 +12644,7 @@
       <c r="AR218" s="4"/>
       <c r="AS218" s="4"/>
     </row>
-    <row r="219" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:45" ht="15.75" customHeight="1">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -12685,7 +12691,7 @@
       <c r="AR219" s="4"/>
       <c r="AS219" s="4"/>
     </row>
-    <row r="220" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:45" ht="15.75" customHeight="1">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -12732,7 +12738,7 @@
       <c r="AR220" s="4"/>
       <c r="AS220" s="4"/>
     </row>
-    <row r="221" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:45" ht="15.75" customHeight="1">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -12779,7 +12785,7 @@
       <c r="AR221" s="4"/>
       <c r="AS221" s="4"/>
     </row>
-    <row r="222" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:45" ht="15.75" customHeight="1">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -12826,7 +12832,7 @@
       <c r="AR222" s="4"/>
       <c r="AS222" s="4"/>
     </row>
-    <row r="223" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:45" ht="15.75" customHeight="1">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -12873,7 +12879,7 @@
       <c r="AR223" s="4"/>
       <c r="AS223" s="4"/>
     </row>
-    <row r="224" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:45" ht="15.75" customHeight="1">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -12920,7 +12926,7 @@
       <c r="AR224" s="4"/>
       <c r="AS224" s="4"/>
     </row>
-    <row r="225" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:45" ht="15.75" customHeight="1">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -12967,7 +12973,7 @@
       <c r="AR225" s="4"/>
       <c r="AS225" s="4"/>
     </row>
-    <row r="226" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:45" ht="15.75" customHeight="1">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -13014,7 +13020,7 @@
       <c r="AR226" s="4"/>
       <c r="AS226" s="4"/>
     </row>
-    <row r="227" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:45" ht="15.75" customHeight="1">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -13061,7 +13067,7 @@
       <c r="AR227" s="4"/>
       <c r="AS227" s="4"/>
     </row>
-    <row r="228" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:45" ht="15.75" customHeight="1">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -13108,7 +13114,7 @@
       <c r="AR228" s="4"/>
       <c r="AS228" s="4"/>
     </row>
-    <row r="229" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:45" ht="15.75" customHeight="1">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -13155,7 +13161,7 @@
       <c r="AR229" s="4"/>
       <c r="AS229" s="4"/>
     </row>
-    <row r="230" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:45" ht="15.75" customHeight="1">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -13202,7 +13208,7 @@
       <c r="AR230" s="4"/>
       <c r="AS230" s="4"/>
     </row>
-    <row r="231" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:45" ht="15.75" customHeight="1">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -13249,7 +13255,7 @@
       <c r="AR231" s="4"/>
       <c r="AS231" s="4"/>
     </row>
-    <row r="232" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:45" ht="15.75" customHeight="1">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -13296,7 +13302,7 @@
       <c r="AR232" s="4"/>
       <c r="AS232" s="4"/>
     </row>
-    <row r="233" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:45" ht="15.75" customHeight="1">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -13343,7 +13349,7 @@
       <c r="AR233" s="4"/>
       <c r="AS233" s="4"/>
     </row>
-    <row r="234" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:45" ht="15.75" customHeight="1">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -13390,7 +13396,7 @@
       <c r="AR234" s="4"/>
       <c r="AS234" s="4"/>
     </row>
-    <row r="235" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:45" ht="15.75" customHeight="1">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -13437,7 +13443,7 @@
       <c r="AR235" s="4"/>
       <c r="AS235" s="4"/>
     </row>
-    <row r="236" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:45" ht="15.75" customHeight="1">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -13484,7 +13490,7 @@
       <c r="AR236" s="4"/>
       <c r="AS236" s="4"/>
     </row>
-    <row r="237" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:45" ht="15.75" customHeight="1">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -13531,7 +13537,7 @@
       <c r="AR237" s="4"/>
       <c r="AS237" s="4"/>
     </row>
-    <row r="238" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:45" ht="15.75" customHeight="1">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -13578,7 +13584,7 @@
       <c r="AR238" s="4"/>
       <c r="AS238" s="4"/>
     </row>
-    <row r="239" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:45" ht="15.75" customHeight="1">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -13625,7 +13631,7 @@
       <c r="AR239" s="4"/>
       <c r="AS239" s="4"/>
     </row>
-    <row r="240" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:45" ht="15.75" customHeight="1">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -13672,7 +13678,7 @@
       <c r="AR240" s="4"/>
       <c r="AS240" s="4"/>
     </row>
-    <row r="241" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:45" ht="15.75" customHeight="1">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -13719,7 +13725,7 @@
       <c r="AR241" s="4"/>
       <c r="AS241" s="4"/>
     </row>
-    <row r="242" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:45" ht="15.75" customHeight="1">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -13766,7 +13772,7 @@
       <c r="AR242" s="4"/>
       <c r="AS242" s="4"/>
     </row>
-    <row r="243" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:45" ht="15.75" customHeight="1">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -13813,7 +13819,7 @@
       <c r="AR243" s="4"/>
       <c r="AS243" s="4"/>
     </row>
-    <row r="244" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:45" ht="15.75" customHeight="1">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -13860,7 +13866,7 @@
       <c r="AR244" s="4"/>
       <c r="AS244" s="4"/>
     </row>
-    <row r="245" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:45" ht="15.75" customHeight="1">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -13907,7 +13913,7 @@
       <c r="AR245" s="4"/>
       <c r="AS245" s="4"/>
     </row>
-    <row r="246" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:45" ht="15.75" customHeight="1">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -13954,7 +13960,7 @@
       <c r="AR246" s="4"/>
       <c r="AS246" s="4"/>
     </row>
-    <row r="247" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:45" ht="15.75" customHeight="1">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -14001,7 +14007,7 @@
       <c r="AR247" s="4"/>
       <c r="AS247" s="4"/>
     </row>
-    <row r="248" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:45" ht="15.75" customHeight="1">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -14048,7 +14054,7 @@
       <c r="AR248" s="4"/>
       <c r="AS248" s="4"/>
     </row>
-    <row r="249" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:45" ht="15.75" customHeight="1">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -14095,7 +14101,7 @@
       <c r="AR249" s="4"/>
       <c r="AS249" s="4"/>
     </row>
-    <row r="250" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:45" ht="15.75" customHeight="1">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -14142,7 +14148,7 @@
       <c r="AR250" s="4"/>
       <c r="AS250" s="4"/>
     </row>
-    <row r="251" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:45" ht="15.75" customHeight="1">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -14189,7 +14195,7 @@
       <c r="AR251" s="4"/>
       <c r="AS251" s="4"/>
     </row>
-    <row r="252" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:45" ht="15.75" customHeight="1">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -14236,7 +14242,7 @@
       <c r="AR252" s="4"/>
       <c r="AS252" s="4"/>
     </row>
-    <row r="253" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:45" ht="15.75" customHeight="1">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -14283,7 +14289,7 @@
       <c r="AR253" s="4"/>
       <c r="AS253" s="4"/>
     </row>
-    <row r="254" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:45" ht="15.75" customHeight="1">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -14330,7 +14336,7 @@
       <c r="AR254" s="4"/>
       <c r="AS254" s="4"/>
     </row>
-    <row r="255" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:45" ht="15.75" customHeight="1">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -14377,7 +14383,7 @@
       <c r="AR255" s="4"/>
       <c r="AS255" s="4"/>
     </row>
-    <row r="256" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:45" ht="15.75" customHeight="1">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -14424,7 +14430,7 @@
       <c r="AR256" s="4"/>
       <c r="AS256" s="4"/>
     </row>
-    <row r="257" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:45" ht="15.75" customHeight="1">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -14471,7 +14477,7 @@
       <c r="AR257" s="4"/>
       <c r="AS257" s="4"/>
     </row>
-    <row r="258" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:45" ht="15.75" customHeight="1">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -14518,7 +14524,7 @@
       <c r="AR258" s="4"/>
       <c r="AS258" s="4"/>
     </row>
-    <row r="259" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:45" ht="15.75" customHeight="1">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -14565,7 +14571,7 @@
       <c r="AR259" s="4"/>
       <c r="AS259" s="4"/>
     </row>
-    <row r="260" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:45" ht="15.75" customHeight="1">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -14612,7 +14618,7 @@
       <c r="AR260" s="4"/>
       <c r="AS260" s="4"/>
     </row>
-    <row r="261" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:45" ht="15.75" customHeight="1">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -14659,7 +14665,7 @@
       <c r="AR261" s="4"/>
       <c r="AS261" s="4"/>
     </row>
-    <row r="262" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:45" ht="15.75" customHeight="1">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -14706,7 +14712,7 @@
       <c r="AR262" s="4"/>
       <c r="AS262" s="4"/>
     </row>
-    <row r="263" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:45" ht="15.75" customHeight="1">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -14753,7 +14759,7 @@
       <c r="AR263" s="4"/>
       <c r="AS263" s="4"/>
     </row>
-    <row r="264" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:45" ht="15.75" customHeight="1">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -14800,7 +14806,7 @@
       <c r="AR264" s="4"/>
       <c r="AS264" s="4"/>
     </row>
-    <row r="265" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:45" ht="15.75" customHeight="1">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -14847,7 +14853,7 @@
       <c r="AR265" s="4"/>
       <c r="AS265" s="4"/>
     </row>
-    <row r="266" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:45" ht="15.75" customHeight="1">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -14894,7 +14900,7 @@
       <c r="AR266" s="4"/>
       <c r="AS266" s="4"/>
     </row>
-    <row r="267" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:45" ht="15.75" customHeight="1">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -14941,7 +14947,7 @@
       <c r="AR267" s="4"/>
       <c r="AS267" s="4"/>
     </row>
-    <row r="268" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:45" ht="15.75" customHeight="1">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -14988,7 +14994,7 @@
       <c r="AR268" s="4"/>
       <c r="AS268" s="4"/>
     </row>
-    <row r="269" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:45" ht="15.75" customHeight="1">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -15035,7 +15041,7 @@
       <c r="AR269" s="4"/>
       <c r="AS269" s="4"/>
     </row>
-    <row r="270" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:45" ht="15.75" customHeight="1">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -15082,7 +15088,7 @@
       <c r="AR270" s="4"/>
       <c r="AS270" s="4"/>
     </row>
-    <row r="271" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:45" ht="15.75" customHeight="1">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -15129,7 +15135,7 @@
       <c r="AR271" s="4"/>
       <c r="AS271" s="4"/>
     </row>
-    <row r="272" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:45" ht="15.75" customHeight="1">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -15176,7 +15182,7 @@
       <c r="AR272" s="4"/>
       <c r="AS272" s="4"/>
     </row>
-    <row r="273" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:45" ht="15.75" customHeight="1">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -15223,7 +15229,7 @@
       <c r="AR273" s="4"/>
       <c r="AS273" s="4"/>
     </row>
-    <row r="274" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:45" ht="15.75" customHeight="1">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -15270,7 +15276,7 @@
       <c r="AR274" s="4"/>
       <c r="AS274" s="4"/>
     </row>
-    <row r="275" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:45" ht="15.75" customHeight="1">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -15317,7 +15323,7 @@
       <c r="AR275" s="4"/>
       <c r="AS275" s="4"/>
     </row>
-    <row r="276" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:45" ht="15.75" customHeight="1">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -15364,7 +15370,7 @@
       <c r="AR276" s="4"/>
       <c r="AS276" s="4"/>
     </row>
-    <row r="277" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:45" ht="15.75" customHeight="1">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -15411,7 +15417,7 @@
       <c r="AR277" s="4"/>
       <c r="AS277" s="4"/>
     </row>
-    <row r="278" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:45" ht="15.75" customHeight="1">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -15458,7 +15464,7 @@
       <c r="AR278" s="4"/>
       <c r="AS278" s="4"/>
     </row>
-    <row r="279" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:45" ht="15.75" customHeight="1">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -15505,7 +15511,7 @@
       <c r="AR279" s="4"/>
       <c r="AS279" s="4"/>
     </row>
-    <row r="280" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:45" ht="15.75" customHeight="1">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -15552,7 +15558,7 @@
       <c r="AR280" s="4"/>
       <c r="AS280" s="4"/>
     </row>
-    <row r="281" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:45" ht="15.75" customHeight="1">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -15599,7 +15605,7 @@
       <c r="AR281" s="4"/>
       <c r="AS281" s="4"/>
     </row>
-    <row r="282" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:45" ht="15.75" customHeight="1">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -15646,7 +15652,7 @@
       <c r="AR282" s="4"/>
       <c r="AS282" s="4"/>
     </row>
-    <row r="283" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:45" ht="15.75" customHeight="1">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -15693,7 +15699,7 @@
       <c r="AR283" s="4"/>
       <c r="AS283" s="4"/>
     </row>
-    <row r="284" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:45" ht="15.75" customHeight="1">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -15740,7 +15746,7 @@
       <c r="AR284" s="4"/>
       <c r="AS284" s="4"/>
     </row>
-    <row r="285" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:45" ht="15.75" customHeight="1">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -15787,7 +15793,7 @@
       <c r="AR285" s="4"/>
       <c r="AS285" s="4"/>
     </row>
-    <row r="286" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:45" ht="15.75" customHeight="1">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -15834,7 +15840,7 @@
       <c r="AR286" s="4"/>
       <c r="AS286" s="4"/>
     </row>
-    <row r="287" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:45" ht="15.75" customHeight="1">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -15881,7 +15887,7 @@
       <c r="AR287" s="4"/>
       <c r="AS287" s="4"/>
     </row>
-    <row r="288" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:45" ht="15.75" customHeight="1">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -15928,7 +15934,7 @@
       <c r="AR288" s="4"/>
       <c r="AS288" s="4"/>
     </row>
-    <row r="289" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:45" ht="15.75" customHeight="1">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -15975,7 +15981,7 @@
       <c r="AR289" s="4"/>
       <c r="AS289" s="4"/>
     </row>
-    <row r="290" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:45" ht="15.75" customHeight="1">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -16022,7 +16028,7 @@
       <c r="AR290" s="4"/>
       <c r="AS290" s="4"/>
     </row>
-    <row r="291" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:45" ht="15.75" customHeight="1">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -16069,7 +16075,7 @@
       <c r="AR291" s="4"/>
       <c r="AS291" s="4"/>
     </row>
-    <row r="292" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:45" ht="15.75" customHeight="1">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -16116,7 +16122,7 @@
       <c r="AR292" s="4"/>
       <c r="AS292" s="4"/>
     </row>
-    <row r="293" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:45" ht="15.75" customHeight="1">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -16163,7 +16169,7 @@
       <c r="AR293" s="4"/>
       <c r="AS293" s="4"/>
     </row>
-    <row r="294" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:45" ht="15.75" customHeight="1">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -16210,7 +16216,7 @@
       <c r="AR294" s="4"/>
       <c r="AS294" s="4"/>
     </row>
-    <row r="295" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:45" ht="15.75" customHeight="1">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -16257,7 +16263,7 @@
       <c r="AR295" s="4"/>
       <c r="AS295" s="4"/>
     </row>
-    <row r="296" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:45" ht="15.75" customHeight="1">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -16304,7 +16310,7 @@
       <c r="AR296" s="4"/>
       <c r="AS296" s="4"/>
     </row>
-    <row r="297" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:45" ht="15.75" customHeight="1">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -16351,7 +16357,7 @@
       <c r="AR297" s="4"/>
       <c r="AS297" s="4"/>
     </row>
-    <row r="298" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:45" ht="15.75" customHeight="1">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -16398,7 +16404,7 @@
       <c r="AR298" s="4"/>
       <c r="AS298" s="4"/>
     </row>
-    <row r="299" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:45" ht="15.75" customHeight="1">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -16445,7 +16451,7 @@
       <c r="AR299" s="4"/>
       <c r="AS299" s="4"/>
     </row>
-    <row r="300" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:45" ht="15.75" customHeight="1">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -16492,7 +16498,7 @@
       <c r="AR300" s="4"/>
       <c r="AS300" s="4"/>
     </row>
-    <row r="301" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:45" ht="15.75" customHeight="1">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -16539,7 +16545,7 @@
       <c r="AR301" s="4"/>
       <c r="AS301" s="4"/>
     </row>
-    <row r="302" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:45" ht="15.75" customHeight="1">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -16586,7 +16592,7 @@
       <c r="AR302" s="4"/>
       <c r="AS302" s="4"/>
     </row>
-    <row r="303" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:45" ht="15.75" customHeight="1">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -16633,7 +16639,7 @@
       <c r="AR303" s="4"/>
       <c r="AS303" s="4"/>
     </row>
-    <row r="304" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:45" ht="15.75" customHeight="1">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -16680,7 +16686,7 @@
       <c r="AR304" s="4"/>
       <c r="AS304" s="4"/>
     </row>
-    <row r="305" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:45" ht="15.75" customHeight="1">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -16727,7 +16733,7 @@
       <c r="AR305" s="4"/>
       <c r="AS305" s="4"/>
     </row>
-    <row r="306" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:45" ht="15.75" customHeight="1">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -16774,7 +16780,7 @@
       <c r="AR306" s="4"/>
       <c r="AS306" s="4"/>
     </row>
-    <row r="307" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:45" ht="15.75" customHeight="1">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -16821,7 +16827,7 @@
       <c r="AR307" s="4"/>
       <c r="AS307" s="4"/>
     </row>
-    <row r="308" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:45" ht="15.75" customHeight="1">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -16868,7 +16874,7 @@
       <c r="AR308" s="4"/>
       <c r="AS308" s="4"/>
     </row>
-    <row r="309" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:45" ht="15.75" customHeight="1">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -16915,7 +16921,7 @@
       <c r="AR309" s="4"/>
       <c r="AS309" s="4"/>
     </row>
-    <row r="310" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:45" ht="15.75" customHeight="1">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -16962,7 +16968,7 @@
       <c r="AR310" s="4"/>
       <c r="AS310" s="4"/>
     </row>
-    <row r="311" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:45" ht="15.75" customHeight="1">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -17009,7 +17015,7 @@
       <c r="AR311" s="4"/>
       <c r="AS311" s="4"/>
     </row>
-    <row r="312" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:45" ht="15.75" customHeight="1">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -17056,7 +17062,7 @@
       <c r="AR312" s="4"/>
       <c r="AS312" s="4"/>
     </row>
-    <row r="313" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:45" ht="15.75" customHeight="1">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -17103,7 +17109,7 @@
       <c r="AR313" s="4"/>
       <c r="AS313" s="4"/>
     </row>
-    <row r="314" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:45" ht="15.75" customHeight="1">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -17150,7 +17156,7 @@
       <c r="AR314" s="4"/>
       <c r="AS314" s="4"/>
     </row>
-    <row r="315" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:45" ht="15.75" customHeight="1">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -17197,7 +17203,7 @@
       <c r="AR315" s="4"/>
       <c r="AS315" s="4"/>
     </row>
-    <row r="316" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:45" ht="15.75" customHeight="1">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -17244,7 +17250,7 @@
       <c r="AR316" s="4"/>
       <c r="AS316" s="4"/>
     </row>
-    <row r="317" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:45" ht="15.75" customHeight="1">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -17291,7 +17297,7 @@
       <c r="AR317" s="4"/>
       <c r="AS317" s="4"/>
     </row>
-    <row r="318" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:45" ht="15.75" customHeight="1">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -17338,7 +17344,7 @@
       <c r="AR318" s="4"/>
       <c r="AS318" s="4"/>
     </row>
-    <row r="319" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:45" ht="15.75" customHeight="1">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -17385,7 +17391,7 @@
       <c r="AR319" s="4"/>
       <c r="AS319" s="4"/>
     </row>
-    <row r="320" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:45" ht="15.75" customHeight="1">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -17432,7 +17438,7 @@
       <c r="AR320" s="4"/>
       <c r="AS320" s="4"/>
     </row>
-    <row r="321" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:45" ht="15.75" customHeight="1">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -17479,7 +17485,7 @@
       <c r="AR321" s="4"/>
       <c r="AS321" s="4"/>
     </row>
-    <row r="322" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:45" ht="15.75" customHeight="1">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -17526,7 +17532,7 @@
       <c r="AR322" s="4"/>
       <c r="AS322" s="4"/>
     </row>
-    <row r="323" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:45" ht="15.75" customHeight="1">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -17573,7 +17579,7 @@
       <c r="AR323" s="4"/>
       <c r="AS323" s="4"/>
     </row>
-    <row r="324" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:45" ht="15.75" customHeight="1">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -17620,7 +17626,7 @@
       <c r="AR324" s="4"/>
       <c r="AS324" s="4"/>
     </row>
-    <row r="325" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:45" ht="15.75" customHeight="1">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -17667,7 +17673,7 @@
       <c r="AR325" s="4"/>
       <c r="AS325" s="4"/>
     </row>
-    <row r="326" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:45" ht="15.75" customHeight="1">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -17714,7 +17720,7 @@
       <c r="AR326" s="4"/>
       <c r="AS326" s="4"/>
     </row>
-    <row r="327" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:45" ht="15.75" customHeight="1">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -17761,7 +17767,7 @@
       <c r="AR327" s="4"/>
       <c r="AS327" s="4"/>
     </row>
-    <row r="328" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:45" ht="15.75" customHeight="1">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -17808,7 +17814,7 @@
       <c r="AR328" s="4"/>
       <c r="AS328" s="4"/>
     </row>
-    <row r="329" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:45" ht="15.75" customHeight="1">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -17855,7 +17861,7 @@
       <c r="AR329" s="4"/>
       <c r="AS329" s="4"/>
     </row>
-    <row r="330" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:45" ht="15.75" customHeight="1">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -17902,7 +17908,7 @@
       <c r="AR330" s="4"/>
       <c r="AS330" s="4"/>
     </row>
-    <row r="331" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:45" ht="15.75" customHeight="1">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -17949,7 +17955,7 @@
       <c r="AR331" s="4"/>
       <c r="AS331" s="4"/>
     </row>
-    <row r="332" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:45" ht="15.75" customHeight="1">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -17996,7 +18002,7 @@
       <c r="AR332" s="4"/>
       <c r="AS332" s="4"/>
     </row>
-    <row r="333" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:45" ht="15.75" customHeight="1">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -18043,7 +18049,7 @@
       <c r="AR333" s="4"/>
       <c r="AS333" s="4"/>
     </row>
-    <row r="334" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:45" ht="15.75" customHeight="1">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -18090,7 +18096,7 @@
       <c r="AR334" s="4"/>
       <c r="AS334" s="4"/>
     </row>
-    <row r="335" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:45" ht="15.75" customHeight="1">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -18137,7 +18143,7 @@
       <c r="AR335" s="4"/>
       <c r="AS335" s="4"/>
     </row>
-    <row r="336" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:45" ht="15.75" customHeight="1">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -18184,7 +18190,7 @@
       <c r="AR336" s="4"/>
       <c r="AS336" s="4"/>
     </row>
-    <row r="337" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:45" ht="15.75" customHeight="1">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -18231,7 +18237,7 @@
       <c r="AR337" s="4"/>
       <c r="AS337" s="4"/>
     </row>
-    <row r="338" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:45" ht="15.75" customHeight="1">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -18278,7 +18284,7 @@
       <c r="AR338" s="4"/>
       <c r="AS338" s="4"/>
     </row>
-    <row r="339" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:45" ht="15.75" customHeight="1">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -18325,7 +18331,7 @@
       <c r="AR339" s="4"/>
       <c r="AS339" s="4"/>
     </row>
-    <row r="340" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:45" ht="15.75" customHeight="1">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -18372,7 +18378,7 @@
       <c r="AR340" s="4"/>
       <c r="AS340" s="4"/>
     </row>
-    <row r="341" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:45" ht="15.75" customHeight="1">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -18419,7 +18425,7 @@
       <c r="AR341" s="4"/>
       <c r="AS341" s="4"/>
     </row>
-    <row r="342" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:45" ht="15.75" customHeight="1">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -18466,7 +18472,7 @@
       <c r="AR342" s="4"/>
       <c r="AS342" s="4"/>
     </row>
-    <row r="343" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:45" ht="15.75" customHeight="1">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -18513,7 +18519,7 @@
       <c r="AR343" s="4"/>
       <c r="AS343" s="4"/>
     </row>
-    <row r="344" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:45" ht="15.75" customHeight="1">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -18560,7 +18566,7 @@
       <c r="AR344" s="4"/>
       <c r="AS344" s="4"/>
     </row>
-    <row r="345" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:45" ht="15.75" customHeight="1">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -18607,7 +18613,7 @@
       <c r="AR345" s="4"/>
       <c r="AS345" s="4"/>
     </row>
-    <row r="346" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:45" ht="15.75" customHeight="1">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -18654,7 +18660,7 @@
       <c r="AR346" s="4"/>
       <c r="AS346" s="4"/>
     </row>
-    <row r="347" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:45" ht="15.75" customHeight="1">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -18701,7 +18707,7 @@
       <c r="AR347" s="4"/>
       <c r="AS347" s="4"/>
     </row>
-    <row r="348" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:45" ht="15.75" customHeight="1">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -18748,7 +18754,7 @@
       <c r="AR348" s="4"/>
       <c r="AS348" s="4"/>
     </row>
-    <row r="349" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:45" ht="15.75" customHeight="1">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -18795,7 +18801,7 @@
       <c r="AR349" s="4"/>
       <c r="AS349" s="4"/>
     </row>
-    <row r="350" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:45" ht="15.75" customHeight="1">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -18842,7 +18848,7 @@
       <c r="AR350" s="4"/>
       <c r="AS350" s="4"/>
     </row>
-    <row r="351" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:45" ht="15.75" customHeight="1">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -18889,7 +18895,7 @@
       <c r="AR351" s="4"/>
       <c r="AS351" s="4"/>
     </row>
-    <row r="352" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:45" ht="15.75" customHeight="1">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -18936,7 +18942,7 @@
       <c r="AR352" s="4"/>
       <c r="AS352" s="4"/>
     </row>
-    <row r="353" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:45" ht="15.75" customHeight="1">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -18983,7 +18989,7 @@
       <c r="AR353" s="4"/>
       <c r="AS353" s="4"/>
     </row>
-    <row r="354" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:45" ht="15.75" customHeight="1">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -19030,7 +19036,7 @@
       <c r="AR354" s="4"/>
       <c r="AS354" s="4"/>
     </row>
-    <row r="355" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:45" ht="15.75" customHeight="1">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -19077,7 +19083,7 @@
       <c r="AR355" s="4"/>
       <c r="AS355" s="4"/>
     </row>
-    <row r="356" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:45" ht="15.75" customHeight="1">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -19124,7 +19130,7 @@
       <c r="AR356" s="4"/>
       <c r="AS356" s="4"/>
     </row>
-    <row r="357" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:45" ht="15.75" customHeight="1">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -19171,7 +19177,7 @@
       <c r="AR357" s="4"/>
       <c r="AS357" s="4"/>
     </row>
-    <row r="358" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:45" ht="15.75" customHeight="1">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -19218,7 +19224,7 @@
       <c r="AR358" s="4"/>
       <c r="AS358" s="4"/>
     </row>
-    <row r="359" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:45" ht="15.75" customHeight="1">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -19265,7 +19271,7 @@
       <c r="AR359" s="4"/>
       <c r="AS359" s="4"/>
     </row>
-    <row r="360" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:45" ht="15.75" customHeight="1">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -19312,7 +19318,7 @@
       <c r="AR360" s="4"/>
       <c r="AS360" s="4"/>
     </row>
-    <row r="361" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:45" ht="15.75" customHeight="1">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -19359,7 +19365,7 @@
       <c r="AR361" s="4"/>
       <c r="AS361" s="4"/>
     </row>
-    <row r="362" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:45" ht="15.75" customHeight="1">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -19406,7 +19412,7 @@
       <c r="AR362" s="4"/>
       <c r="AS362" s="4"/>
     </row>
-    <row r="363" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:45" ht="15.75" customHeight="1">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -19453,7 +19459,7 @@
       <c r="AR363" s="4"/>
       <c r="AS363" s="4"/>
     </row>
-    <row r="364" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:45" ht="15.75" customHeight="1">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -19500,7 +19506,7 @@
       <c r="AR364" s="4"/>
       <c r="AS364" s="4"/>
     </row>
-    <row r="365" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:45" ht="15.75" customHeight="1">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -19547,7 +19553,7 @@
       <c r="AR365" s="4"/>
       <c r="AS365" s="4"/>
     </row>
-    <row r="366" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:45" ht="15.75" customHeight="1">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -19594,7 +19600,7 @@
       <c r="AR366" s="4"/>
       <c r="AS366" s="4"/>
     </row>
-    <row r="367" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:45" ht="15.75" customHeight="1">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -19641,7 +19647,7 @@
       <c r="AR367" s="4"/>
       <c r="AS367" s="4"/>
     </row>
-    <row r="368" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:45" ht="15.75" customHeight="1">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -19688,7 +19694,7 @@
       <c r="AR368" s="4"/>
       <c r="AS368" s="4"/>
     </row>
-    <row r="369" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:45" ht="15.75" customHeight="1">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -19735,7 +19741,7 @@
       <c r="AR369" s="4"/>
       <c r="AS369" s="4"/>
     </row>
-    <row r="370" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:45" ht="15.75" customHeight="1">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -19782,7 +19788,7 @@
       <c r="AR370" s="4"/>
       <c r="AS370" s="4"/>
     </row>
-    <row r="371" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:45" ht="15.75" customHeight="1">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -19829,7 +19835,7 @@
       <c r="AR371" s="4"/>
       <c r="AS371" s="4"/>
     </row>
-    <row r="372" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:45" ht="15.75" customHeight="1">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -19876,7 +19882,7 @@
       <c r="AR372" s="4"/>
       <c r="AS372" s="4"/>
     </row>
-    <row r="373" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:45" ht="15.75" customHeight="1">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -19923,7 +19929,7 @@
       <c r="AR373" s="4"/>
       <c r="AS373" s="4"/>
     </row>
-    <row r="374" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:45" ht="15.75" customHeight="1">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -19970,7 +19976,7 @@
       <c r="AR374" s="4"/>
       <c r="AS374" s="4"/>
     </row>
-    <row r="375" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:45" ht="15.75" customHeight="1">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -20017,7 +20023,7 @@
       <c r="AR375" s="4"/>
       <c r="AS375" s="4"/>
     </row>
-    <row r="376" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:45" ht="15.75" customHeight="1">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -20064,7 +20070,7 @@
       <c r="AR376" s="4"/>
       <c r="AS376" s="4"/>
     </row>
-    <row r="377" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:45" ht="15.75" customHeight="1">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -20111,7 +20117,7 @@
       <c r="AR377" s="4"/>
       <c r="AS377" s="4"/>
     </row>
-    <row r="378" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:45" ht="15.75" customHeight="1">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -20158,7 +20164,7 @@
       <c r="AR378" s="4"/>
       <c r="AS378" s="4"/>
     </row>
-    <row r="379" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:45" ht="15.75" customHeight="1">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -20205,7 +20211,7 @@
       <c r="AR379" s="4"/>
       <c r="AS379" s="4"/>
     </row>
-    <row r="380" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:45" ht="15.75" customHeight="1">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -20252,7 +20258,7 @@
       <c r="AR380" s="4"/>
       <c r="AS380" s="4"/>
     </row>
-    <row r="381" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:45" ht="15.75" customHeight="1">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -20299,7 +20305,7 @@
       <c r="AR381" s="4"/>
       <c r="AS381" s="4"/>
     </row>
-    <row r="382" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:45" ht="15.75" customHeight="1">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -20346,7 +20352,7 @@
       <c r="AR382" s="4"/>
       <c r="AS382" s="4"/>
     </row>
-    <row r="383" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:45" ht="15.75" customHeight="1">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -20393,7 +20399,7 @@
       <c r="AR383" s="4"/>
       <c r="AS383" s="4"/>
     </row>
-    <row r="384" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:45" ht="15.75" customHeight="1">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -20440,7 +20446,7 @@
       <c r="AR384" s="4"/>
       <c r="AS384" s="4"/>
     </row>
-    <row r="385" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:45" ht="15.75" customHeight="1">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -20487,7 +20493,7 @@
       <c r="AR385" s="4"/>
       <c r="AS385" s="4"/>
     </row>
-    <row r="386" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:45" ht="15.75" customHeight="1">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -20534,7 +20540,7 @@
       <c r="AR386" s="4"/>
       <c r="AS386" s="4"/>
     </row>
-    <row r="387" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:45" ht="15.75" customHeight="1">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -20581,7 +20587,7 @@
       <c r="AR387" s="4"/>
       <c r="AS387" s="4"/>
     </row>
-    <row r="388" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:45" ht="15.75" customHeight="1">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -20628,7 +20634,7 @@
       <c r="AR388" s="4"/>
       <c r="AS388" s="4"/>
     </row>
-    <row r="389" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:45" ht="15.75" customHeight="1">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -20675,7 +20681,7 @@
       <c r="AR389" s="4"/>
       <c r="AS389" s="4"/>
     </row>
-    <row r="390" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:45" ht="15.75" customHeight="1">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -20722,7 +20728,7 @@
       <c r="AR390" s="4"/>
       <c r="AS390" s="4"/>
     </row>
-    <row r="391" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:45" ht="15.75" customHeight="1">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -20769,7 +20775,7 @@
       <c r="AR391" s="4"/>
       <c r="AS391" s="4"/>
     </row>
-    <row r="392" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:45" ht="15.75" customHeight="1">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -20816,7 +20822,7 @@
       <c r="AR392" s="4"/>
       <c r="AS392" s="4"/>
     </row>
-    <row r="393" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:45" ht="15.75" customHeight="1">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -20863,7 +20869,7 @@
       <c r="AR393" s="4"/>
       <c r="AS393" s="4"/>
     </row>
-    <row r="394" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:45" ht="15.75" customHeight="1">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -20910,7 +20916,7 @@
       <c r="AR394" s="4"/>
       <c r="AS394" s="4"/>
     </row>
-    <row r="395" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:45" ht="15.75" customHeight="1">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -20957,7 +20963,7 @@
       <c r="AR395" s="4"/>
       <c r="AS395" s="4"/>
     </row>
-    <row r="396" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:45" ht="15.75" customHeight="1">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -21004,7 +21010,7 @@
       <c r="AR396" s="4"/>
       <c r="AS396" s="4"/>
     </row>
-    <row r="397" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:45" ht="15.75" customHeight="1">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -21051,7 +21057,7 @@
       <c r="AR397" s="4"/>
       <c r="AS397" s="4"/>
     </row>
-    <row r="398" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:45" ht="15.75" customHeight="1">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -21098,7 +21104,7 @@
       <c r="AR398" s="4"/>
       <c r="AS398" s="4"/>
     </row>
-    <row r="399" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:45" ht="15.75" customHeight="1">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -21145,7 +21151,7 @@
       <c r="AR399" s="4"/>
       <c r="AS399" s="4"/>
     </row>
-    <row r="400" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:45" ht="15.75" customHeight="1">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -21192,7 +21198,7 @@
       <c r="AR400" s="4"/>
       <c r="AS400" s="4"/>
     </row>
-    <row r="401" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:45" ht="15.75" customHeight="1">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -21239,7 +21245,7 @@
       <c r="AR401" s="4"/>
       <c r="AS401" s="4"/>
     </row>
-    <row r="402" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:45" ht="15.75" customHeight="1">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -21286,7 +21292,7 @@
       <c r="AR402" s="4"/>
       <c r="AS402" s="4"/>
     </row>
-    <row r="403" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:45" ht="15.75" customHeight="1">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -21333,7 +21339,7 @@
       <c r="AR403" s="4"/>
       <c r="AS403" s="4"/>
     </row>
-    <row r="404" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:45" ht="15.75" customHeight="1">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -21380,7 +21386,7 @@
       <c r="AR404" s="4"/>
       <c r="AS404" s="4"/>
     </row>
-    <row r="405" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:45" ht="15.75" customHeight="1">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -21427,7 +21433,7 @@
       <c r="AR405" s="4"/>
       <c r="AS405" s="4"/>
     </row>
-    <row r="406" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:45" ht="15.75" customHeight="1">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -21474,7 +21480,7 @@
       <c r="AR406" s="4"/>
       <c r="AS406" s="4"/>
     </row>
-    <row r="407" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:45" ht="15.75" customHeight="1">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -21521,7 +21527,7 @@
       <c r="AR407" s="4"/>
       <c r="AS407" s="4"/>
     </row>
-    <row r="408" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:45" ht="15.75" customHeight="1">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -21568,7 +21574,7 @@
       <c r="AR408" s="4"/>
       <c r="AS408" s="4"/>
     </row>
-    <row r="409" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:45" ht="15.75" customHeight="1">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -21615,7 +21621,7 @@
       <c r="AR409" s="4"/>
       <c r="AS409" s="4"/>
     </row>
-    <row r="410" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:45" ht="15.75" customHeight="1">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -21662,7 +21668,7 @@
       <c r="AR410" s="4"/>
       <c r="AS410" s="4"/>
     </row>
-    <row r="411" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:45" ht="15.75" customHeight="1">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -21709,7 +21715,7 @@
       <c r="AR411" s="4"/>
       <c r="AS411" s="4"/>
     </row>
-    <row r="412" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:45" ht="15.75" customHeight="1">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -21756,7 +21762,7 @@
       <c r="AR412" s="4"/>
       <c r="AS412" s="4"/>
     </row>
-    <row r="413" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:45" ht="15.75" customHeight="1">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -21803,7 +21809,7 @@
       <c r="AR413" s="4"/>
       <c r="AS413" s="4"/>
     </row>
-    <row r="414" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:45" ht="15.75" customHeight="1">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -21850,7 +21856,7 @@
       <c r="AR414" s="4"/>
       <c r="AS414" s="4"/>
     </row>
-    <row r="415" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:45" ht="15.75" customHeight="1">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -21897,7 +21903,7 @@
       <c r="AR415" s="4"/>
       <c r="AS415" s="4"/>
     </row>
-    <row r="416" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:45" ht="15.75" customHeight="1">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -21944,7 +21950,7 @@
       <c r="AR416" s="4"/>
       <c r="AS416" s="4"/>
     </row>
-    <row r="417" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:45" ht="15.75" customHeight="1">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -21991,7 +21997,7 @@
       <c r="AR417" s="4"/>
       <c r="AS417" s="4"/>
     </row>
-    <row r="418" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:45" ht="15.75" customHeight="1">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -22038,7 +22044,7 @@
       <c r="AR418" s="4"/>
       <c r="AS418" s="4"/>
     </row>
-    <row r="419" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:45" ht="15.75" customHeight="1">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -22085,7 +22091,7 @@
       <c r="AR419" s="4"/>
       <c r="AS419" s="4"/>
     </row>
-    <row r="420" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:45" ht="15.75" customHeight="1">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -22132,7 +22138,7 @@
       <c r="AR420" s="4"/>
       <c r="AS420" s="4"/>
     </row>
-    <row r="421" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:45" ht="15.75" customHeight="1">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -22179,7 +22185,7 @@
       <c r="AR421" s="4"/>
       <c r="AS421" s="4"/>
     </row>
-    <row r="422" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:45" ht="15.75" customHeight="1">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -22226,7 +22232,7 @@
       <c r="AR422" s="4"/>
       <c r="AS422" s="4"/>
     </row>
-    <row r="423" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:45" ht="15.75" customHeight="1">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -22273,7 +22279,7 @@
       <c r="AR423" s="4"/>
       <c r="AS423" s="4"/>
     </row>
-    <row r="424" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:45" ht="15.75" customHeight="1">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -22320,7 +22326,7 @@
       <c r="AR424" s="4"/>
       <c r="AS424" s="4"/>
     </row>
-    <row r="425" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:45" ht="15.75" customHeight="1">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -22367,7 +22373,7 @@
       <c r="AR425" s="4"/>
       <c r="AS425" s="4"/>
     </row>
-    <row r="426" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:45" ht="15.75" customHeight="1">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -22414,7 +22420,7 @@
       <c r="AR426" s="4"/>
       <c r="AS426" s="4"/>
     </row>
-    <row r="427" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:45" ht="15.75" customHeight="1">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -22461,7 +22467,7 @@
       <c r="AR427" s="4"/>
       <c r="AS427" s="4"/>
     </row>
-    <row r="428" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:45" ht="15.75" customHeight="1">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -22508,7 +22514,7 @@
       <c r="AR428" s="4"/>
       <c r="AS428" s="4"/>
     </row>
-    <row r="429" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:45" ht="15.75" customHeight="1">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -22555,7 +22561,7 @@
       <c r="AR429" s="4"/>
       <c r="AS429" s="4"/>
     </row>
-    <row r="430" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:45" ht="15.75" customHeight="1">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -22602,7 +22608,7 @@
       <c r="AR430" s="4"/>
       <c r="AS430" s="4"/>
     </row>
-    <row r="431" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:45" ht="15.75" customHeight="1">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -22649,7 +22655,7 @@
       <c r="AR431" s="4"/>
       <c r="AS431" s="4"/>
     </row>
-    <row r="432" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:45" ht="15.75" customHeight="1">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -22696,7 +22702,7 @@
       <c r="AR432" s="4"/>
       <c r="AS432" s="4"/>
     </row>
-    <row r="433" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:45" ht="15.75" customHeight="1">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -22743,7 +22749,7 @@
       <c r="AR433" s="4"/>
       <c r="AS433" s="4"/>
     </row>
-    <row r="434" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:45" ht="15.75" customHeight="1">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -22790,7 +22796,7 @@
       <c r="AR434" s="4"/>
       <c r="AS434" s="4"/>
     </row>
-    <row r="435" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:45" ht="15.75" customHeight="1">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -22837,7 +22843,7 @@
       <c r="AR435" s="4"/>
       <c r="AS435" s="4"/>
     </row>
-    <row r="436" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:45" ht="15.75" customHeight="1">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -22884,7 +22890,7 @@
       <c r="AR436" s="4"/>
       <c r="AS436" s="4"/>
     </row>
-    <row r="437" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:45" ht="15.75" customHeight="1">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -22931,7 +22937,7 @@
       <c r="AR437" s="4"/>
       <c r="AS437" s="4"/>
     </row>
-    <row r="438" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:45" ht="15.75" customHeight="1">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -22978,7 +22984,7 @@
       <c r="AR438" s="4"/>
       <c r="AS438" s="4"/>
     </row>
-    <row r="439" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:45" ht="15.75" customHeight="1">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -23025,7 +23031,7 @@
       <c r="AR439" s="4"/>
       <c r="AS439" s="4"/>
     </row>
-    <row r="440" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:45" ht="15.75" customHeight="1">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -23072,7 +23078,7 @@
       <c r="AR440" s="4"/>
       <c r="AS440" s="4"/>
     </row>
-    <row r="441" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:45" ht="15.75" customHeight="1">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -23119,7 +23125,7 @@
       <c r="AR441" s="4"/>
       <c r="AS441" s="4"/>
     </row>
-    <row r="442" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:45" ht="15.75" customHeight="1">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -23166,7 +23172,7 @@
       <c r="AR442" s="4"/>
       <c r="AS442" s="4"/>
     </row>
-    <row r="443" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:45" ht="15.75" customHeight="1">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -23213,7 +23219,7 @@
       <c r="AR443" s="4"/>
       <c r="AS443" s="4"/>
     </row>
-    <row r="444" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:45" ht="15.75" customHeight="1">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -23260,7 +23266,7 @@
       <c r="AR444" s="4"/>
       <c r="AS444" s="4"/>
     </row>
-    <row r="445" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:45" ht="15.75" customHeight="1">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -23307,7 +23313,7 @@
       <c r="AR445" s="4"/>
       <c r="AS445" s="4"/>
     </row>
-    <row r="446" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:45" ht="15.75" customHeight="1">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -23354,7 +23360,7 @@
       <c r="AR446" s="4"/>
       <c r="AS446" s="4"/>
     </row>
-    <row r="447" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:45" ht="15.75" customHeight="1">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -23401,7 +23407,7 @@
       <c r="AR447" s="4"/>
       <c r="AS447" s="4"/>
     </row>
-    <row r="448" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:45" ht="15.75" customHeight="1">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -23448,7 +23454,7 @@
       <c r="AR448" s="4"/>
       <c r="AS448" s="4"/>
     </row>
-    <row r="449" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:45" ht="15.75" customHeight="1">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -23495,7 +23501,7 @@
       <c r="AR449" s="4"/>
       <c r="AS449" s="4"/>
     </row>
-    <row r="450" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:45" ht="15.75" customHeight="1">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -23542,7 +23548,7 @@
       <c r="AR450" s="4"/>
       <c r="AS450" s="4"/>
     </row>
-    <row r="451" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:45" ht="15.75" customHeight="1">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -23589,7 +23595,7 @@
       <c r="AR451" s="4"/>
       <c r="AS451" s="4"/>
     </row>
-    <row r="452" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:45" ht="15.75" customHeight="1">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -23636,7 +23642,7 @@
       <c r="AR452" s="4"/>
       <c r="AS452" s="4"/>
     </row>
-    <row r="453" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:45" ht="15.75" customHeight="1">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -23683,7 +23689,7 @@
       <c r="AR453" s="4"/>
       <c r="AS453" s="4"/>
     </row>
-    <row r="454" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:45" ht="15.75" customHeight="1">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -23730,7 +23736,7 @@
       <c r="AR454" s="4"/>
       <c r="AS454" s="4"/>
     </row>
-    <row r="455" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:45" ht="15.75" customHeight="1">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -23777,7 +23783,7 @@
       <c r="AR455" s="4"/>
       <c r="AS455" s="4"/>
     </row>
-    <row r="456" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:45" ht="15.75" customHeight="1">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -23824,7 +23830,7 @@
       <c r="AR456" s="4"/>
       <c r="AS456" s="4"/>
     </row>
-    <row r="457" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:45" ht="15.75" customHeight="1">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -23871,7 +23877,7 @@
       <c r="AR457" s="4"/>
       <c r="AS457" s="4"/>
     </row>
-    <row r="458" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:45" ht="15.75" customHeight="1">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -23918,7 +23924,7 @@
       <c r="AR458" s="4"/>
       <c r="AS458" s="4"/>
     </row>
-    <row r="459" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:45" ht="15.75" customHeight="1">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -23965,7 +23971,7 @@
       <c r="AR459" s="4"/>
       <c r="AS459" s="4"/>
     </row>
-    <row r="460" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:45" ht="15.75" customHeight="1">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -24012,7 +24018,7 @@
       <c r="AR460" s="4"/>
       <c r="AS460" s="4"/>
     </row>
-    <row r="461" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:45" ht="15.75" customHeight="1">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -24059,7 +24065,7 @@
       <c r="AR461" s="4"/>
       <c r="AS461" s="4"/>
     </row>
-    <row r="462" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:45" ht="15.75" customHeight="1">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -24106,7 +24112,7 @@
       <c r="AR462" s="4"/>
       <c r="AS462" s="4"/>
     </row>
-    <row r="463" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:45" ht="15.75" customHeight="1">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -24153,7 +24159,7 @@
       <c r="AR463" s="4"/>
       <c r="AS463" s="4"/>
     </row>
-    <row r="464" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:45" ht="15.75" customHeight="1">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -24200,7 +24206,7 @@
       <c r="AR464" s="4"/>
       <c r="AS464" s="4"/>
     </row>
-    <row r="465" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:45" ht="15.75" customHeight="1">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -24247,7 +24253,7 @@
       <c r="AR465" s="4"/>
       <c r="AS465" s="4"/>
     </row>
-    <row r="466" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:45" ht="15.75" customHeight="1">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -24294,7 +24300,7 @@
       <c r="AR466" s="4"/>
       <c r="AS466" s="4"/>
     </row>
-    <row r="467" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:45" ht="15.75" customHeight="1">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -24341,7 +24347,7 @@
       <c r="AR467" s="4"/>
       <c r="AS467" s="4"/>
     </row>
-    <row r="468" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:45" ht="15.75" customHeight="1">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -24388,7 +24394,7 @@
       <c r="AR468" s="4"/>
       <c r="AS468" s="4"/>
     </row>
-    <row r="469" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:45" ht="15.75" customHeight="1">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -24435,7 +24441,7 @@
       <c r="AR469" s="4"/>
       <c r="AS469" s="4"/>
     </row>
-    <row r="470" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:45" ht="15.75" customHeight="1">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -24482,7 +24488,7 @@
       <c r="AR470" s="4"/>
       <c r="AS470" s="4"/>
     </row>
-    <row r="471" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:45" ht="15.75" customHeight="1">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -24529,7 +24535,7 @@
       <c r="AR471" s="4"/>
       <c r="AS471" s="4"/>
     </row>
-    <row r="472" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:45" ht="15.75" customHeight="1">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -24576,7 +24582,7 @@
       <c r="AR472" s="4"/>
       <c r="AS472" s="4"/>
     </row>
-    <row r="473" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:45" ht="15.75" customHeight="1">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -24623,7 +24629,7 @@
       <c r="AR473" s="4"/>
       <c r="AS473" s="4"/>
     </row>
-    <row r="474" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:45" ht="15.75" customHeight="1">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -24670,7 +24676,7 @@
       <c r="AR474" s="4"/>
       <c r="AS474" s="4"/>
     </row>
-    <row r="475" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:45" ht="15.75" customHeight="1">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -24717,7 +24723,7 @@
       <c r="AR475" s="4"/>
       <c r="AS475" s="4"/>
     </row>
-    <row r="476" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:45" ht="15.75" customHeight="1">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -24764,7 +24770,7 @@
       <c r="AR476" s="4"/>
       <c r="AS476" s="4"/>
     </row>
-    <row r="477" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:45" ht="15.75" customHeight="1">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -24811,7 +24817,7 @@
       <c r="AR477" s="4"/>
       <c r="AS477" s="4"/>
     </row>
-    <row r="478" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:45" ht="15.75" customHeight="1">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -24858,7 +24864,7 @@
       <c r="AR478" s="4"/>
       <c r="AS478" s="4"/>
     </row>
-    <row r="479" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:45" ht="15.75" customHeight="1">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -24905,7 +24911,7 @@
       <c r="AR479" s="4"/>
       <c r="AS479" s="4"/>
     </row>
-    <row r="480" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:45" ht="15.75" customHeight="1">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -24952,7 +24958,7 @@
       <c r="AR480" s="4"/>
       <c r="AS480" s="4"/>
     </row>
-    <row r="481" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:45" ht="15.75" customHeight="1">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -24999,7 +25005,7 @@
       <c r="AR481" s="4"/>
       <c r="AS481" s="4"/>
     </row>
-    <row r="482" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:45" ht="15.75" customHeight="1">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -25046,7 +25052,7 @@
       <c r="AR482" s="4"/>
       <c r="AS482" s="4"/>
     </row>
-    <row r="483" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:45" ht="15.75" customHeight="1">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -25093,7 +25099,7 @@
       <c r="AR483" s="4"/>
       <c r="AS483" s="4"/>
     </row>
-    <row r="484" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:45" ht="15.75" customHeight="1">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -25140,7 +25146,7 @@
       <c r="AR484" s="4"/>
       <c r="AS484" s="4"/>
     </row>
-    <row r="485" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:45" ht="15.75" customHeight="1">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -25187,7 +25193,7 @@
       <c r="AR485" s="4"/>
       <c r="AS485" s="4"/>
     </row>
-    <row r="486" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:45" ht="15.75" customHeight="1">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -25234,7 +25240,7 @@
       <c r="AR486" s="4"/>
       <c r="AS486" s="4"/>
     </row>
-    <row r="487" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:45" ht="15.75" customHeight="1">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -25281,7 +25287,7 @@
       <c r="AR487" s="4"/>
       <c r="AS487" s="4"/>
     </row>
-    <row r="488" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:45" ht="15.75" customHeight="1">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -25328,7 +25334,7 @@
       <c r="AR488" s="4"/>
       <c r="AS488" s="4"/>
     </row>
-    <row r="489" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:45" ht="15.75" customHeight="1">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -25375,7 +25381,7 @@
       <c r="AR489" s="4"/>
       <c r="AS489" s="4"/>
     </row>
-    <row r="490" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:45" ht="15.75" customHeight="1">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -25422,7 +25428,7 @@
       <c r="AR490" s="4"/>
       <c r="AS490" s="4"/>
     </row>
-    <row r="491" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:45" ht="15.75" customHeight="1">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -25469,7 +25475,7 @@
       <c r="AR491" s="4"/>
       <c r="AS491" s="4"/>
     </row>
-    <row r="492" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:45" ht="15.75" customHeight="1">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -25516,7 +25522,7 @@
       <c r="AR492" s="4"/>
       <c r="AS492" s="4"/>
     </row>
-    <row r="493" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:45" ht="15.75" customHeight="1">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -25563,7 +25569,7 @@
       <c r="AR493" s="4"/>
       <c r="AS493" s="4"/>
     </row>
-    <row r="494" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:45" ht="15.75" customHeight="1">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -25610,7 +25616,7 @@
       <c r="AR494" s="4"/>
       <c r="AS494" s="4"/>
     </row>
-    <row r="495" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:45" ht="15.75" customHeight="1">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -25657,7 +25663,7 @@
       <c r="AR495" s="4"/>
       <c r="AS495" s="4"/>
     </row>
-    <row r="496" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:45" ht="15.75" customHeight="1">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -25704,7 +25710,7 @@
       <c r="AR496" s="4"/>
       <c r="AS496" s="4"/>
     </row>
-    <row r="497" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:45" ht="15.75" customHeight="1">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -25751,7 +25757,7 @@
       <c r="AR497" s="4"/>
       <c r="AS497" s="4"/>
     </row>
-    <row r="498" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:45" ht="15.75" customHeight="1">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -25798,7 +25804,7 @@
       <c r="AR498" s="4"/>
       <c r="AS498" s="4"/>
     </row>
-    <row r="499" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:45" ht="15.75" customHeight="1">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -25845,7 +25851,7 @@
       <c r="AR499" s="4"/>
       <c r="AS499" s="4"/>
     </row>
-    <row r="500" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:45" ht="15.75" customHeight="1">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -25892,7 +25898,7 @@
       <c r="AR500" s="4"/>
       <c r="AS500" s="4"/>
     </row>
-    <row r="501" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:45" ht="15.75" customHeight="1">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -25939,7 +25945,7 @@
       <c r="AR501" s="4"/>
       <c r="AS501" s="4"/>
     </row>
-    <row r="502" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:45" ht="15.75" customHeight="1">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -25986,7 +25992,7 @@
       <c r="AR502" s="4"/>
       <c r="AS502" s="4"/>
     </row>
-    <row r="503" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:45" ht="15.75" customHeight="1">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -26033,7 +26039,7 @@
       <c r="AR503" s="4"/>
       <c r="AS503" s="4"/>
     </row>
-    <row r="504" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:45" ht="15.75" customHeight="1">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -26080,7 +26086,7 @@
       <c r="AR504" s="4"/>
       <c r="AS504" s="4"/>
     </row>
-    <row r="505" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:45" ht="15.75" customHeight="1">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -26127,7 +26133,7 @@
       <c r="AR505" s="4"/>
       <c r="AS505" s="4"/>
     </row>
-    <row r="506" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:45" ht="15.75" customHeight="1">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -26174,7 +26180,7 @@
       <c r="AR506" s="4"/>
       <c r="AS506" s="4"/>
     </row>
-    <row r="507" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:45" ht="15.75" customHeight="1">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -26221,7 +26227,7 @@
       <c r="AR507" s="4"/>
       <c r="AS507" s="4"/>
     </row>
-    <row r="508" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:45" ht="15.75" customHeight="1">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -26268,7 +26274,7 @@
       <c r="AR508" s="4"/>
       <c r="AS508" s="4"/>
     </row>
-    <row r="509" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:45" ht="15.75" customHeight="1">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -26315,7 +26321,7 @@
       <c r="AR509" s="4"/>
       <c r="AS509" s="4"/>
     </row>
-    <row r="510" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:45" ht="15.75" customHeight="1">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -26362,7 +26368,7 @@
       <c r="AR510" s="4"/>
       <c r="AS510" s="4"/>
     </row>
-    <row r="511" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:45" ht="15.75" customHeight="1">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -26409,7 +26415,7 @@
       <c r="AR511" s="4"/>
       <c r="AS511" s="4"/>
     </row>
-    <row r="512" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:45" ht="15.75" customHeight="1">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -26456,7 +26462,7 @@
       <c r="AR512" s="4"/>
       <c r="AS512" s="4"/>
     </row>
-    <row r="513" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:45" ht="15.75" customHeight="1">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -26503,7 +26509,7 @@
       <c r="AR513" s="4"/>
       <c r="AS513" s="4"/>
     </row>
-    <row r="514" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:45" ht="15.75" customHeight="1">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -26550,7 +26556,7 @@
       <c r="AR514" s="4"/>
       <c r="AS514" s="4"/>
     </row>
-    <row r="515" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:45" ht="15.75" customHeight="1">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -26597,7 +26603,7 @@
       <c r="AR515" s="4"/>
       <c r="AS515" s="4"/>
     </row>
-    <row r="516" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:45" ht="15.75" customHeight="1">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -26644,7 +26650,7 @@
       <c r="AR516" s="4"/>
       <c r="AS516" s="4"/>
     </row>
-    <row r="517" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:45" ht="15.75" customHeight="1">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -26691,7 +26697,7 @@
       <c r="AR517" s="4"/>
       <c r="AS517" s="4"/>
     </row>
-    <row r="518" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:45" ht="15.75" customHeight="1">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -26738,7 +26744,7 @@
       <c r="AR518" s="4"/>
       <c r="AS518" s="4"/>
     </row>
-    <row r="519" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:45" ht="15.75" customHeight="1">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -26785,7 +26791,7 @@
       <c r="AR519" s="4"/>
       <c r="AS519" s="4"/>
     </row>
-    <row r="520" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:45" ht="15.75" customHeight="1">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -26832,7 +26838,7 @@
       <c r="AR520" s="4"/>
       <c r="AS520" s="4"/>
     </row>
-    <row r="521" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:45" ht="15.75" customHeight="1">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -26879,7 +26885,7 @@
       <c r="AR521" s="4"/>
       <c r="AS521" s="4"/>
     </row>
-    <row r="522" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:45" ht="15.75" customHeight="1">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -26926,7 +26932,7 @@
       <c r="AR522" s="4"/>
       <c r="AS522" s="4"/>
     </row>
-    <row r="523" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:45" ht="15.75" customHeight="1">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -26973,7 +26979,7 @@
       <c r="AR523" s="4"/>
       <c r="AS523" s="4"/>
     </row>
-    <row r="524" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:45" ht="15.75" customHeight="1">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -27020,7 +27026,7 @@
       <c r="AR524" s="4"/>
       <c r="AS524" s="4"/>
     </row>
-    <row r="525" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:45" ht="15.75" customHeight="1">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -27067,7 +27073,7 @@
       <c r="AR525" s="4"/>
       <c r="AS525" s="4"/>
     </row>
-    <row r="526" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:45" ht="15.75" customHeight="1">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -27114,7 +27120,7 @@
       <c r="AR526" s="4"/>
       <c r="AS526" s="4"/>
     </row>
-    <row r="527" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:45" ht="15.75" customHeight="1">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -27161,7 +27167,7 @@
       <c r="AR527" s="4"/>
       <c r="AS527" s="4"/>
     </row>
-    <row r="528" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:45" ht="15.75" customHeight="1">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -27208,7 +27214,7 @@
       <c r="AR528" s="4"/>
       <c r="AS528" s="4"/>
     </row>
-    <row r="529" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:45" ht="15.75" customHeight="1">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -27255,7 +27261,7 @@
       <c r="AR529" s="4"/>
       <c r="AS529" s="4"/>
     </row>
-    <row r="530" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:45" ht="15.75" customHeight="1">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -27302,7 +27308,7 @@
       <c r="AR530" s="4"/>
       <c r="AS530" s="4"/>
     </row>
-    <row r="531" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:45" ht="15.75" customHeight="1">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -27349,7 +27355,7 @@
       <c r="AR531" s="4"/>
       <c r="AS531" s="4"/>
     </row>
-    <row r="532" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:45" ht="15.75" customHeight="1">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -27396,7 +27402,7 @@
       <c r="AR532" s="4"/>
       <c r="AS532" s="4"/>
     </row>
-    <row r="533" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:45" ht="15.75" customHeight="1">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -27443,7 +27449,7 @@
       <c r="AR533" s="4"/>
       <c r="AS533" s="4"/>
     </row>
-    <row r="534" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:45" ht="15.75" customHeight="1">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -27490,7 +27496,7 @@
       <c r="AR534" s="4"/>
       <c r="AS534" s="4"/>
     </row>
-    <row r="535" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:45" ht="15.75" customHeight="1">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -27537,7 +27543,7 @@
       <c r="AR535" s="4"/>
       <c r="AS535" s="4"/>
     </row>
-    <row r="536" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:45" ht="15.75" customHeight="1">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -27584,7 +27590,7 @@
       <c r="AR536" s="4"/>
       <c r="AS536" s="4"/>
     </row>
-    <row r="537" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:45" ht="15.75" customHeight="1">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -27631,7 +27637,7 @@
       <c r="AR537" s="4"/>
       <c r="AS537" s="4"/>
     </row>
-    <row r="538" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:45" ht="15.75" customHeight="1">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -27678,7 +27684,7 @@
       <c r="AR538" s="4"/>
       <c r="AS538" s="4"/>
     </row>
-    <row r="539" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:45" ht="15.75" customHeight="1">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -27725,7 +27731,7 @@
       <c r="AR539" s="4"/>
       <c r="AS539" s="4"/>
     </row>
-    <row r="540" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:45" ht="15.75" customHeight="1">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -27772,7 +27778,7 @@
       <c r="AR540" s="4"/>
       <c r="AS540" s="4"/>
     </row>
-    <row r="541" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:45" ht="15.75" customHeight="1">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -27819,7 +27825,7 @@
       <c r="AR541" s="4"/>
       <c r="AS541" s="4"/>
     </row>
-    <row r="542" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:45" ht="15.75" customHeight="1">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -27866,7 +27872,7 @@
       <c r="AR542" s="4"/>
       <c r="AS542" s="4"/>
     </row>
-    <row r="543" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:45" ht="15.75" customHeight="1">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -27913,7 +27919,7 @@
       <c r="AR543" s="4"/>
       <c r="AS543" s="4"/>
     </row>
-    <row r="544" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:45" ht="15.75" customHeight="1">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -27960,7 +27966,7 @@
       <c r="AR544" s="4"/>
       <c r="AS544" s="4"/>
     </row>
-    <row r="545" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:45" ht="15.75" customHeight="1">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -28007,7 +28013,7 @@
       <c r="AR545" s="4"/>
       <c r="AS545" s="4"/>
     </row>
-    <row r="546" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:45" ht="15.75" customHeight="1">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -28054,7 +28060,7 @@
       <c r="AR546" s="4"/>
       <c r="AS546" s="4"/>
     </row>
-    <row r="547" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:45" ht="15.75" customHeight="1">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -28101,7 +28107,7 @@
       <c r="AR547" s="4"/>
       <c r="AS547" s="4"/>
     </row>
-    <row r="548" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:45" ht="15.75" customHeight="1">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -28148,7 +28154,7 @@
       <c r="AR548" s="4"/>
       <c r="AS548" s="4"/>
     </row>
-    <row r="549" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:45" ht="15.75" customHeight="1">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -28195,7 +28201,7 @@
       <c r="AR549" s="4"/>
       <c r="AS549" s="4"/>
     </row>
-    <row r="550" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:45" ht="15.75" customHeight="1">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -28242,7 +28248,7 @@
       <c r="AR550" s="4"/>
       <c r="AS550" s="4"/>
     </row>
-    <row r="551" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:45" ht="15.75" customHeight="1">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -28289,7 +28295,7 @@
       <c r="AR551" s="4"/>
       <c r="AS551" s="4"/>
     </row>
-    <row r="552" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:45" ht="15.75" customHeight="1">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -28336,7 +28342,7 @@
       <c r="AR552" s="4"/>
       <c r="AS552" s="4"/>
     </row>
-    <row r="553" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:45" ht="15.75" customHeight="1">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -28383,7 +28389,7 @@
       <c r="AR553" s="4"/>
       <c r="AS553" s="4"/>
     </row>
-    <row r="554" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:45" ht="15.75" customHeight="1">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -28430,7 +28436,7 @@
       <c r="AR554" s="4"/>
       <c r="AS554" s="4"/>
     </row>
-    <row r="555" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:45" ht="15.75" customHeight="1">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -28477,7 +28483,7 @@
       <c r="AR555" s="4"/>
       <c r="AS555" s="4"/>
     </row>
-    <row r="556" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:45" ht="15.75" customHeight="1">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -28524,7 +28530,7 @@
       <c r="AR556" s="4"/>
       <c r="AS556" s="4"/>
     </row>
-    <row r="557" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:45" ht="15.75" customHeight="1">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -28571,7 +28577,7 @@
       <c r="AR557" s="4"/>
       <c r="AS557" s="4"/>
     </row>
-    <row r="558" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:45" ht="15.75" customHeight="1">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -28618,7 +28624,7 @@
       <c r="AR558" s="4"/>
       <c r="AS558" s="4"/>
     </row>
-    <row r="559" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:45" ht="15.75" customHeight="1">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -28665,7 +28671,7 @@
       <c r="AR559" s="4"/>
       <c r="AS559" s="4"/>
     </row>
-    <row r="560" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:45" ht="15.75" customHeight="1">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -28712,7 +28718,7 @@
       <c r="AR560" s="4"/>
       <c r="AS560" s="4"/>
     </row>
-    <row r="561" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:45" ht="15.75" customHeight="1">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -28759,7 +28765,7 @@
       <c r="AR561" s="4"/>
       <c r="AS561" s="4"/>
     </row>
-    <row r="562" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:45" ht="15.75" customHeight="1">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -28806,7 +28812,7 @@
       <c r="AR562" s="4"/>
       <c r="AS562" s="4"/>
     </row>
-    <row r="563" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:45" ht="15.75" customHeight="1">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -28853,7 +28859,7 @@
       <c r="AR563" s="4"/>
       <c r="AS563" s="4"/>
     </row>
-    <row r="564" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:45" ht="15.75" customHeight="1">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -28900,7 +28906,7 @@
       <c r="AR564" s="4"/>
       <c r="AS564" s="4"/>
     </row>
-    <row r="565" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:45" ht="15.75" customHeight="1">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -28947,7 +28953,7 @@
       <c r="AR565" s="4"/>
       <c r="AS565" s="4"/>
     </row>
-    <row r="566" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:45" ht="15.75" customHeight="1">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -28994,7 +29000,7 @@
       <c r="AR566" s="4"/>
       <c r="AS566" s="4"/>
     </row>
-    <row r="567" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:45" ht="15.75" customHeight="1">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -29041,7 +29047,7 @@
       <c r="AR567" s="4"/>
       <c r="AS567" s="4"/>
     </row>
-    <row r="568" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:45" ht="15.75" customHeight="1">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -29088,7 +29094,7 @@
       <c r="AR568" s="4"/>
       <c r="AS568" s="4"/>
     </row>
-    <row r="569" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:45" ht="15.75" customHeight="1">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -29135,7 +29141,7 @@
       <c r="AR569" s="4"/>
       <c r="AS569" s="4"/>
     </row>
-    <row r="570" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:45" ht="15.75" customHeight="1">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -29182,7 +29188,7 @@
       <c r="AR570" s="4"/>
       <c r="AS570" s="4"/>
     </row>
-    <row r="571" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:45" ht="15.75" customHeight="1">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -29229,7 +29235,7 @@
       <c r="AR571" s="4"/>
       <c r="AS571" s="4"/>
     </row>
-    <row r="572" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:45" ht="15.75" customHeight="1">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -29276,7 +29282,7 @@
       <c r="AR572" s="4"/>
       <c r="AS572" s="4"/>
     </row>
-    <row r="573" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:45" ht="15.75" customHeight="1">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -29323,7 +29329,7 @@
       <c r="AR573" s="4"/>
       <c r="AS573" s="4"/>
     </row>
-    <row r="574" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:45" ht="15.75" customHeight="1">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -29370,7 +29376,7 @@
       <c r="AR574" s="4"/>
       <c r="AS574" s="4"/>
     </row>
-    <row r="575" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:45" ht="15.75" customHeight="1">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -29417,7 +29423,7 @@
       <c r="AR575" s="4"/>
       <c r="AS575" s="4"/>
     </row>
-    <row r="576" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:45" ht="15.75" customHeight="1">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -29464,7 +29470,7 @@
       <c r="AR576" s="4"/>
       <c r="AS576" s="4"/>
     </row>
-    <row r="577" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:45" ht="15.75" customHeight="1">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -29511,7 +29517,7 @@
       <c r="AR577" s="4"/>
       <c r="AS577" s="4"/>
     </row>
-    <row r="578" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:45" ht="15.75" customHeight="1">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -29558,7 +29564,7 @@
       <c r="AR578" s="4"/>
       <c r="AS578" s="4"/>
     </row>
-    <row r="579" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:45" ht="15.75" customHeight="1">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -29605,7 +29611,7 @@
       <c r="AR579" s="4"/>
       <c r="AS579" s="4"/>
     </row>
-    <row r="580" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:45" ht="15.75" customHeight="1">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -29652,7 +29658,7 @@
       <c r="AR580" s="4"/>
       <c r="AS580" s="4"/>
     </row>
-    <row r="581" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:45" ht="15.75" customHeight="1">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -29699,7 +29705,7 @@
       <c r="AR581" s="4"/>
       <c r="AS581" s="4"/>
     </row>
-    <row r="582" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:45" ht="15.75" customHeight="1">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -29746,7 +29752,7 @@
       <c r="AR582" s="4"/>
       <c r="AS582" s="4"/>
     </row>
-    <row r="583" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:45" ht="15.75" customHeight="1">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -29793,7 +29799,7 @@
       <c r="AR583" s="4"/>
       <c r="AS583" s="4"/>
     </row>
-    <row r="584" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:45" ht="15.75" customHeight="1">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -29840,7 +29846,7 @@
       <c r="AR584" s="4"/>
       <c r="AS584" s="4"/>
     </row>
-    <row r="585" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:45" ht="15.75" customHeight="1">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -29887,7 +29893,7 @@
       <c r="AR585" s="4"/>
       <c r="AS585" s="4"/>
     </row>
-    <row r="586" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:45" ht="15.75" customHeight="1">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -29934,7 +29940,7 @@
       <c r="AR586" s="4"/>
       <c r="AS586" s="4"/>
     </row>
-    <row r="587" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:45" ht="15.75" customHeight="1">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -29981,7 +29987,7 @@
       <c r="AR587" s="4"/>
       <c r="AS587" s="4"/>
     </row>
-    <row r="588" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:45" ht="15.75" customHeight="1">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -30028,7 +30034,7 @@
       <c r="AR588" s="4"/>
       <c r="AS588" s="4"/>
     </row>
-    <row r="589" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:45" ht="15.75" customHeight="1">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -30075,7 +30081,7 @@
       <c r="AR589" s="4"/>
       <c r="AS589" s="4"/>
     </row>
-    <row r="590" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:45" ht="15.75" customHeight="1">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -30122,7 +30128,7 @@
       <c r="AR590" s="4"/>
       <c r="AS590" s="4"/>
     </row>
-    <row r="591" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:45" ht="15.75" customHeight="1">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -30169,7 +30175,7 @@
       <c r="AR591" s="4"/>
       <c r="AS591" s="4"/>
     </row>
-    <row r="592" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:45" ht="15.75" customHeight="1">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -30216,7 +30222,7 @@
       <c r="AR592" s="4"/>
       <c r="AS592" s="4"/>
     </row>
-    <row r="593" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:45" ht="15.75" customHeight="1">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -30263,7 +30269,7 @@
       <c r="AR593" s="4"/>
       <c r="AS593" s="4"/>
     </row>
-    <row r="594" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:45" ht="15.75" customHeight="1">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -30310,7 +30316,7 @@
       <c r="AR594" s="4"/>
       <c r="AS594" s="4"/>
     </row>
-    <row r="595" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:45" ht="15.75" customHeight="1">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -30357,7 +30363,7 @@
       <c r="AR595" s="4"/>
       <c r="AS595" s="4"/>
     </row>
-    <row r="596" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:45" ht="15.75" customHeight="1">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -30404,7 +30410,7 @@
       <c r="AR596" s="4"/>
       <c r="AS596" s="4"/>
     </row>
-    <row r="597" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:45" ht="15.75" customHeight="1">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -30451,7 +30457,7 @@
       <c r="AR597" s="4"/>
       <c r="AS597" s="4"/>
     </row>
-    <row r="598" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:45" ht="15.75" customHeight="1">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -30498,7 +30504,7 @@
       <c r="AR598" s="4"/>
       <c r="AS598" s="4"/>
     </row>
-    <row r="599" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:45" ht="15.75" customHeight="1">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -30545,7 +30551,7 @@
       <c r="AR599" s="4"/>
       <c r="AS599" s="4"/>
     </row>
-    <row r="600" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:45" ht="15.75" customHeight="1">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -30592,7 +30598,7 @@
       <c r="AR600" s="4"/>
       <c r="AS600" s="4"/>
     </row>
-    <row r="601" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:45" ht="15.75" customHeight="1">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -30639,7 +30645,7 @@
       <c r="AR601" s="4"/>
       <c r="AS601" s="4"/>
     </row>
-    <row r="602" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:45" ht="15.75" customHeight="1">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -30686,7 +30692,7 @@
       <c r="AR602" s="4"/>
       <c r="AS602" s="4"/>
     </row>
-    <row r="603" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:45" ht="15.75" customHeight="1">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -30733,7 +30739,7 @@
       <c r="AR603" s="4"/>
       <c r="AS603" s="4"/>
     </row>
-    <row r="604" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:45" ht="15.75" customHeight="1">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -30780,7 +30786,7 @@
       <c r="AR604" s="4"/>
       <c r="AS604" s="4"/>
     </row>
-    <row r="605" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:45" ht="15.75" customHeight="1">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -30827,7 +30833,7 @@
       <c r="AR605" s="4"/>
       <c r="AS605" s="4"/>
     </row>
-    <row r="606" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:45" ht="15.75" customHeight="1">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -30874,7 +30880,7 @@
       <c r="AR606" s="4"/>
       <c r="AS606" s="4"/>
     </row>
-    <row r="607" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:45" ht="15.75" customHeight="1">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -30921,7 +30927,7 @@
       <c r="AR607" s="4"/>
       <c r="AS607" s="4"/>
     </row>
-    <row r="608" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:45" ht="15.75" customHeight="1">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -30968,7 +30974,7 @@
       <c r="AR608" s="4"/>
       <c r="AS608" s="4"/>
     </row>
-    <row r="609" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:45" ht="15.75" customHeight="1">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -31015,7 +31021,7 @@
       <c r="AR609" s="4"/>
       <c r="AS609" s="4"/>
     </row>
-    <row r="610" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:45" ht="15.75" customHeight="1">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -31062,7 +31068,7 @@
       <c r="AR610" s="4"/>
       <c r="AS610" s="4"/>
     </row>
-    <row r="611" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:45" ht="15.75" customHeight="1">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -31109,7 +31115,7 @@
       <c r="AR611" s="4"/>
       <c r="AS611" s="4"/>
     </row>
-    <row r="612" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:45" ht="15.75" customHeight="1">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -31156,7 +31162,7 @@
       <c r="AR612" s="4"/>
       <c r="AS612" s="4"/>
     </row>
-    <row r="613" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:45" ht="15.75" customHeight="1">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -31203,7 +31209,7 @@
       <c r="AR613" s="4"/>
       <c r="AS613" s="4"/>
     </row>
-    <row r="614" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:45" ht="15.75" customHeight="1">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -31250,7 +31256,7 @@
       <c r="AR614" s="4"/>
       <c r="AS614" s="4"/>
     </row>
-    <row r="615" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:45" ht="15.75" customHeight="1">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -31297,7 +31303,7 @@
       <c r="AR615" s="4"/>
       <c r="AS615" s="4"/>
     </row>
-    <row r="616" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:45" ht="15.75" customHeight="1">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -31344,7 +31350,7 @@
       <c r="AR616" s="4"/>
       <c r="AS616" s="4"/>
     </row>
-    <row r="617" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:45" ht="15.75" customHeight="1">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -31391,7 +31397,7 @@
       <c r="AR617" s="4"/>
       <c r="AS617" s="4"/>
     </row>
-    <row r="618" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:45" ht="15.75" customHeight="1">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -31438,7 +31444,7 @@
       <c r="AR618" s="4"/>
       <c r="AS618" s="4"/>
     </row>
-    <row r="619" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:45" ht="15.75" customHeight="1">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -31485,7 +31491,7 @@
       <c r="AR619" s="4"/>
       <c r="AS619" s="4"/>
     </row>
-    <row r="620" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:45" ht="15.75" customHeight="1">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -31532,7 +31538,7 @@
       <c r="AR620" s="4"/>
       <c r="AS620" s="4"/>
     </row>
-    <row r="621" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:45" ht="15.75" customHeight="1">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -31579,7 +31585,7 @@
       <c r="AR621" s="4"/>
       <c r="AS621" s="4"/>
     </row>
-    <row r="622" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:45" ht="15.75" customHeight="1">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -31626,7 +31632,7 @@
       <c r="AR622" s="4"/>
       <c r="AS622" s="4"/>
     </row>
-    <row r="623" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:45" ht="15.75" customHeight="1">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -31673,7 +31679,7 @@
       <c r="AR623" s="4"/>
       <c r="AS623" s="4"/>
     </row>
-    <row r="624" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:45" ht="15.75" customHeight="1">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -31720,7 +31726,7 @@
       <c r="AR624" s="4"/>
       <c r="AS624" s="4"/>
     </row>
-    <row r="625" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:45" ht="15.75" customHeight="1">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -31767,7 +31773,7 @@
       <c r="AR625" s="4"/>
       <c r="AS625" s="4"/>
     </row>
-    <row r="626" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:45" ht="15.75" customHeight="1">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -31814,7 +31820,7 @@
       <c r="AR626" s="4"/>
       <c r="AS626" s="4"/>
     </row>
-    <row r="627" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:45" ht="15.75" customHeight="1">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -31861,7 +31867,7 @@
       <c r="AR627" s="4"/>
       <c r="AS627" s="4"/>
     </row>
-    <row r="628" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:45" ht="15.75" customHeight="1">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -31908,7 +31914,7 @@
       <c r="AR628" s="4"/>
       <c r="AS628" s="4"/>
     </row>
-    <row r="629" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:45" ht="15.75" customHeight="1">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -31955,7 +31961,7 @@
       <c r="AR629" s="4"/>
       <c r="AS629" s="4"/>
     </row>
-    <row r="630" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:45" ht="15.75" customHeight="1">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -32002,7 +32008,7 @@
       <c r="AR630" s="4"/>
       <c r="AS630" s="4"/>
     </row>
-    <row r="631" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:45" ht="15.75" customHeight="1">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -32049,7 +32055,7 @@
       <c r="AR631" s="4"/>
       <c r="AS631" s="4"/>
     </row>
-    <row r="632" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:45" ht="15.75" customHeight="1">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -32096,7 +32102,7 @@
       <c r="AR632" s="4"/>
       <c r="AS632" s="4"/>
     </row>
-    <row r="633" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:45" ht="15.75" customHeight="1">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -32143,7 +32149,7 @@
       <c r="AR633" s="4"/>
       <c r="AS633" s="4"/>
     </row>
-    <row r="634" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:45" ht="15.75" customHeight="1">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -32190,7 +32196,7 @@
       <c r="AR634" s="4"/>
       <c r="AS634" s="4"/>
     </row>
-    <row r="635" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:45" ht="15.75" customHeight="1">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -32237,7 +32243,7 @@
       <c r="AR635" s="4"/>
       <c r="AS635" s="4"/>
     </row>
-    <row r="636" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:45" ht="15.75" customHeight="1">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -32284,7 +32290,7 @@
       <c r="AR636" s="4"/>
       <c r="AS636" s="4"/>
     </row>
-    <row r="637" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:45" ht="15.75" customHeight="1">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -32331,7 +32337,7 @@
       <c r="AR637" s="4"/>
       <c r="AS637" s="4"/>
     </row>
-    <row r="638" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:45" ht="15.75" customHeight="1">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -32378,7 +32384,7 @@
       <c r="AR638" s="4"/>
       <c r="AS638" s="4"/>
     </row>
-    <row r="639" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:45" ht="15.75" customHeight="1">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -32425,7 +32431,7 @@
       <c r="AR639" s="4"/>
       <c r="AS639" s="4"/>
     </row>
-    <row r="640" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:45" ht="15.75" customHeight="1">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -32472,7 +32478,7 @@
       <c r="AR640" s="4"/>
       <c r="AS640" s="4"/>
     </row>
-    <row r="641" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:45" ht="15.75" customHeight="1">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -32519,7 +32525,7 @@
       <c r="AR641" s="4"/>
       <c r="AS641" s="4"/>
     </row>
-    <row r="642" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:45" ht="15.75" customHeight="1">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -32566,7 +32572,7 @@
       <c r="AR642" s="4"/>
       <c r="AS642" s="4"/>
     </row>
-    <row r="643" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:45" ht="15.75" customHeight="1">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -32613,7 +32619,7 @@
       <c r="AR643" s="4"/>
       <c r="AS643" s="4"/>
     </row>
-    <row r="644" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:45" ht="15.75" customHeight="1">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -32660,7 +32666,7 @@
       <c r="AR644" s="4"/>
       <c r="AS644" s="4"/>
     </row>
-    <row r="645" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:45" ht="15.75" customHeight="1">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -32707,7 +32713,7 @@
       <c r="AR645" s="4"/>
       <c r="AS645" s="4"/>
     </row>
-    <row r="646" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:45" ht="15.75" customHeight="1">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -32754,7 +32760,7 @@
       <c r="AR646" s="4"/>
       <c r="AS646" s="4"/>
     </row>
-    <row r="647" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:45" ht="15.75" customHeight="1">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -32801,7 +32807,7 @@
       <c r="AR647" s="4"/>
       <c r="AS647" s="4"/>
     </row>
-    <row r="648" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:45" ht="15.75" customHeight="1">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -32848,7 +32854,7 @@
       <c r="AR648" s="4"/>
       <c r="AS648" s="4"/>
     </row>
-    <row r="649" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:45" ht="15.75" customHeight="1">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -32895,7 +32901,7 @@
       <c r="AR649" s="4"/>
       <c r="AS649" s="4"/>
     </row>
-    <row r="650" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:45" ht="15.75" customHeight="1">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -32942,7 +32948,7 @@
       <c r="AR650" s="4"/>
       <c r="AS650" s="4"/>
     </row>
-    <row r="651" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:45" ht="15.75" customHeight="1">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -32989,7 +32995,7 @@
       <c r="AR651" s="4"/>
       <c r="AS651" s="4"/>
     </row>
-    <row r="652" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:45" ht="15.75" customHeight="1">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -33036,7 +33042,7 @@
       <c r="AR652" s="4"/>
       <c r="AS652" s="4"/>
     </row>
-    <row r="653" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:45" ht="15.75" customHeight="1">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -33083,7 +33089,7 @@
       <c r="AR653" s="4"/>
       <c r="AS653" s="4"/>
     </row>
-    <row r="654" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:45" ht="15.75" customHeight="1">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -33130,7 +33136,7 @@
       <c r="AR654" s="4"/>
       <c r="AS654" s="4"/>
     </row>
-    <row r="655" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:45" ht="15.75" customHeight="1">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -33177,7 +33183,7 @@
       <c r="AR655" s="4"/>
       <c r="AS655" s="4"/>
     </row>
-    <row r="656" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:45" ht="15.75" customHeight="1">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -33224,7 +33230,7 @@
       <c r="AR656" s="4"/>
       <c r="AS656" s="4"/>
     </row>
-    <row r="657" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:45" ht="15.75" customHeight="1">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -33271,7 +33277,7 @@
       <c r="AR657" s="4"/>
       <c r="AS657" s="4"/>
     </row>
-    <row r="658" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:45" ht="15.75" customHeight="1">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -33318,7 +33324,7 @@
       <c r="AR658" s="4"/>
       <c r="AS658" s="4"/>
     </row>
-    <row r="659" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:45" ht="15.75" customHeight="1">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -33365,7 +33371,7 @@
       <c r="AR659" s="4"/>
       <c r="AS659" s="4"/>
     </row>
-    <row r="660" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:45" ht="15.75" customHeight="1">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -33412,7 +33418,7 @@
       <c r="AR660" s="4"/>
       <c r="AS660" s="4"/>
     </row>
-    <row r="661" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:45" ht="15.75" customHeight="1">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -33459,7 +33465,7 @@
       <c r="AR661" s="4"/>
       <c r="AS661" s="4"/>
     </row>
-    <row r="662" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:45" ht="15.75" customHeight="1">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -33506,7 +33512,7 @@
       <c r="AR662" s="4"/>
       <c r="AS662" s="4"/>
     </row>
-    <row r="663" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:45" ht="15.75" customHeight="1">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -33553,7 +33559,7 @@
       <c r="AR663" s="4"/>
       <c r="AS663" s="4"/>
     </row>
-    <row r="664" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:45" ht="15.75" customHeight="1">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -33600,7 +33606,7 @@
       <c r="AR664" s="4"/>
       <c r="AS664" s="4"/>
     </row>
-    <row r="665" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:45" ht="15.75" customHeight="1">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -33647,7 +33653,7 @@
       <c r="AR665" s="4"/>
       <c r="AS665" s="4"/>
     </row>
-    <row r="666" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:45" ht="15.75" customHeight="1">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -33694,7 +33700,7 @@
       <c r="AR666" s="4"/>
       <c r="AS666" s="4"/>
     </row>
-    <row r="667" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:45" ht="15.75" customHeight="1">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -33741,7 +33747,7 @@
       <c r="AR667" s="4"/>
       <c r="AS667" s="4"/>
     </row>
-    <row r="668" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:45" ht="15.75" customHeight="1">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -33788,7 +33794,7 @@
       <c r="AR668" s="4"/>
       <c r="AS668" s="4"/>
     </row>
-    <row r="669" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:45" ht="15.75" customHeight="1">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -33835,7 +33841,7 @@
       <c r="AR669" s="4"/>
       <c r="AS669" s="4"/>
     </row>
-    <row r="670" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:45" ht="15.75" customHeight="1">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -33882,7 +33888,7 @@
       <c r="AR670" s="4"/>
       <c r="AS670" s="4"/>
     </row>
-    <row r="671" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:45" ht="15.75" customHeight="1">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -33929,7 +33935,7 @@
       <c r="AR671" s="4"/>
       <c r="AS671" s="4"/>
     </row>
-    <row r="672" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:45" ht="15.75" customHeight="1">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -33976,7 +33982,7 @@
       <c r="AR672" s="4"/>
       <c r="AS672" s="4"/>
     </row>
-    <row r="673" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:45" ht="15.75" customHeight="1">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -34023,7 +34029,7 @@
       <c r="AR673" s="4"/>
       <c r="AS673" s="4"/>
     </row>
-    <row r="674" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:45" ht="15.75" customHeight="1">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -34070,7 +34076,7 @@
       <c r="AR674" s="4"/>
       <c r="AS674" s="4"/>
     </row>
-    <row r="675" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:45" ht="15.75" customHeight="1">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -34117,7 +34123,7 @@
       <c r="AR675" s="4"/>
       <c r="AS675" s="4"/>
     </row>
-    <row r="676" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:45" ht="15.75" customHeight="1">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -34164,7 +34170,7 @@
       <c r="AR676" s="4"/>
       <c r="AS676" s="4"/>
     </row>
-    <row r="677" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:45" ht="15.75" customHeight="1">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -34211,7 +34217,7 @@
       <c r="AR677" s="4"/>
       <c r="AS677" s="4"/>
     </row>
-    <row r="678" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:45" ht="15.75" customHeight="1">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -34258,7 +34264,7 @@
       <c r="AR678" s="4"/>
       <c r="AS678" s="4"/>
     </row>
-    <row r="679" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:45" ht="15.75" customHeight="1">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -34305,7 +34311,7 @@
       <c r="AR679" s="4"/>
       <c r="AS679" s="4"/>
     </row>
-    <row r="680" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:45" ht="15.75" customHeight="1">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -34352,7 +34358,7 @@
       <c r="AR680" s="4"/>
       <c r="AS680" s="4"/>
     </row>
-    <row r="681" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:45" ht="15.75" customHeight="1">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -34399,7 +34405,7 @@
       <c r="AR681" s="4"/>
       <c r="AS681" s="4"/>
     </row>
-    <row r="682" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:45" ht="15.75" customHeight="1">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -34446,7 +34452,7 @@
       <c r="AR682" s="4"/>
       <c r="AS682" s="4"/>
     </row>
-    <row r="683" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:45" ht="15.75" customHeight="1">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -34493,7 +34499,7 @@
       <c r="AR683" s="4"/>
       <c r="AS683" s="4"/>
     </row>
-    <row r="684" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:45" ht="15.75" customHeight="1">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -34540,7 +34546,7 @@
       <c r="AR684" s="4"/>
       <c r="AS684" s="4"/>
     </row>
-    <row r="685" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:45" ht="15.75" customHeight="1">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -34587,7 +34593,7 @@
       <c r="AR685" s="4"/>
       <c r="AS685" s="4"/>
     </row>
-    <row r="686" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:45" ht="15.75" customHeight="1">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -34634,7 +34640,7 @@
       <c r="AR686" s="4"/>
       <c r="AS686" s="4"/>
     </row>
-    <row r="687" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:45" ht="15.75" customHeight="1">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -34681,7 +34687,7 @@
       <c r="AR687" s="4"/>
       <c r="AS687" s="4"/>
     </row>
-    <row r="688" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:45" ht="15.75" customHeight="1">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -34728,7 +34734,7 @@
       <c r="AR688" s="4"/>
       <c r="AS688" s="4"/>
     </row>
-    <row r="689" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:45" ht="15.75" customHeight="1">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -34775,7 +34781,7 @@
       <c r="AR689" s="4"/>
       <c r="AS689" s="4"/>
     </row>
-    <row r="690" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:45" ht="15.75" customHeight="1">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -34822,7 +34828,7 @@
       <c r="AR690" s="4"/>
       <c r="AS690" s="4"/>
     </row>
-    <row r="691" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:45" ht="15.75" customHeight="1">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -34869,7 +34875,7 @@
       <c r="AR691" s="4"/>
       <c r="AS691" s="4"/>
     </row>
-    <row r="692" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:45" ht="15.75" customHeight="1">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -34916,7 +34922,7 @@
       <c r="AR692" s="4"/>
       <c r="AS692" s="4"/>
     </row>
-    <row r="693" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:45" ht="15.75" customHeight="1">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -34963,7 +34969,7 @@
       <c r="AR693" s="4"/>
       <c r="AS693" s="4"/>
     </row>
-    <row r="694" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:45" ht="15.75" customHeight="1">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -35010,7 +35016,7 @@
       <c r="AR694" s="4"/>
       <c r="AS694" s="4"/>
     </row>
-    <row r="695" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:45" ht="15.75" customHeight="1">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -35057,7 +35063,7 @@
       <c r="AR695" s="4"/>
       <c r="AS695" s="4"/>
     </row>
-    <row r="696" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:45" ht="15.75" customHeight="1">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -35104,7 +35110,7 @@
       <c r="AR696" s="4"/>
       <c r="AS696" s="4"/>
     </row>
-    <row r="697" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:45" ht="15.75" customHeight="1">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -35151,7 +35157,7 @@
       <c r="AR697" s="4"/>
       <c r="AS697" s="4"/>
     </row>
-    <row r="698" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:45" ht="15.75" customHeight="1">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -35198,7 +35204,7 @@
       <c r="AR698" s="4"/>
       <c r="AS698" s="4"/>
     </row>
-    <row r="699" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:45" ht="15.75" customHeight="1">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -35245,7 +35251,7 @@
       <c r="AR699" s="4"/>
       <c r="AS699" s="4"/>
     </row>
-    <row r="700" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:45" ht="15.75" customHeight="1">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -35292,7 +35298,7 @@
       <c r="AR700" s="4"/>
       <c r="AS700" s="4"/>
     </row>
-    <row r="701" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:45" ht="15.75" customHeight="1">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -35339,7 +35345,7 @@
       <c r="AR701" s="4"/>
       <c r="AS701" s="4"/>
     </row>
-    <row r="702" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:45" ht="15.75" customHeight="1">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -35386,7 +35392,7 @@
       <c r="AR702" s="4"/>
       <c r="AS702" s="4"/>
     </row>
-    <row r="703" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:45" ht="15.75" customHeight="1">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -35433,7 +35439,7 @@
       <c r="AR703" s="4"/>
       <c r="AS703" s="4"/>
     </row>
-    <row r="704" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:45" ht="15.75" customHeight="1">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -35480,7 +35486,7 @@
       <c r="AR704" s="4"/>
       <c r="AS704" s="4"/>
     </row>
-    <row r="705" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:45" ht="15.75" customHeight="1">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -35527,7 +35533,7 @@
       <c r="AR705" s="4"/>
       <c r="AS705" s="4"/>
     </row>
-    <row r="706" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:45" ht="15.75" customHeight="1">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -35574,7 +35580,7 @@
       <c r="AR706" s="4"/>
       <c r="AS706" s="4"/>
     </row>
-    <row r="707" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:45" ht="15.75" customHeight="1">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -35621,7 +35627,7 @@
       <c r="AR707" s="4"/>
       <c r="AS707" s="4"/>
     </row>
-    <row r="708" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:45" ht="15.75" customHeight="1">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -35668,7 +35674,7 @@
       <c r="AR708" s="4"/>
       <c r="AS708" s="4"/>
     </row>
-    <row r="709" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:45" ht="15.75" customHeight="1">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -35715,7 +35721,7 @@
       <c r="AR709" s="4"/>
       <c r="AS709" s="4"/>
     </row>
-    <row r="710" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:45" ht="15.75" customHeight="1">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -35762,7 +35768,7 @@
       <c r="AR710" s="4"/>
       <c r="AS710" s="4"/>
     </row>
-    <row r="711" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:45" ht="15.75" customHeight="1">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -35809,7 +35815,7 @@
       <c r="AR711" s="4"/>
       <c r="AS711" s="4"/>
     </row>
-    <row r="712" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:45" ht="15.75" customHeight="1">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -35856,7 +35862,7 @@
       <c r="AR712" s="4"/>
       <c r="AS712" s="4"/>
     </row>
-    <row r="713" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:45" ht="15.75" customHeight="1">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -35903,7 +35909,7 @@
       <c r="AR713" s="4"/>
       <c r="AS713" s="4"/>
     </row>
-    <row r="714" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:45" ht="15.75" customHeight="1">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -35950,7 +35956,7 @@
       <c r="AR714" s="4"/>
       <c r="AS714" s="4"/>
     </row>
-    <row r="715" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:45" ht="15.75" customHeight="1">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -35997,7 +36003,7 @@
       <c r="AR715" s="4"/>
       <c r="AS715" s="4"/>
     </row>
-    <row r="716" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:45" ht="15.75" customHeight="1">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -36044,7 +36050,7 @@
       <c r="AR716" s="4"/>
       <c r="AS716" s="4"/>
     </row>
-    <row r="717" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:45" ht="15.75" customHeight="1">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -36091,7 +36097,7 @@
       <c r="AR717" s="4"/>
       <c r="AS717" s="4"/>
     </row>
-    <row r="718" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:45" ht="15.75" customHeight="1">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -36138,7 +36144,7 @@
       <c r="AR718" s="4"/>
       <c r="AS718" s="4"/>
     </row>
-    <row r="719" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:45" ht="15.75" customHeight="1">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -36185,7 +36191,7 @@
       <c r="AR719" s="4"/>
       <c r="AS719" s="4"/>
     </row>
-    <row r="720" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:45" ht="15.75" customHeight="1">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -36232,7 +36238,7 @@
       <c r="AR720" s="4"/>
       <c r="AS720" s="4"/>
     </row>
-    <row r="721" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:45" ht="15.75" customHeight="1">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -36279,7 +36285,7 @@
       <c r="AR721" s="4"/>
       <c r="AS721" s="4"/>
     </row>
-    <row r="722" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:45" ht="15.75" customHeight="1">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -36326,7 +36332,7 @@
       <c r="AR722" s="4"/>
       <c r="AS722" s="4"/>
     </row>
-    <row r="723" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:45" ht="15.75" customHeight="1">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -36373,7 +36379,7 @@
       <c r="AR723" s="4"/>
       <c r="AS723" s="4"/>
     </row>
-    <row r="724" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:45" ht="15.75" customHeight="1">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -36420,7 +36426,7 @@
       <c r="AR724" s="4"/>
       <c r="AS724" s="4"/>
     </row>
-    <row r="725" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:45" ht="15.75" customHeight="1">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -36467,7 +36473,7 @@
       <c r="AR725" s="4"/>
       <c r="AS725" s="4"/>
     </row>
-    <row r="726" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:45" ht="15.75" customHeight="1">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -36514,7 +36520,7 @@
       <c r="AR726" s="4"/>
       <c r="AS726" s="4"/>
     </row>
-    <row r="727" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:45" ht="15.75" customHeight="1">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -36561,7 +36567,7 @@
       <c r="AR727" s="4"/>
       <c r="AS727" s="4"/>
     </row>
-    <row r="728" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:45" ht="15.75" customHeight="1">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -36608,7 +36614,7 @@
       <c r="AR728" s="4"/>
       <c r="AS728" s="4"/>
     </row>
-    <row r="729" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:45" ht="15.75" customHeight="1">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -36655,7 +36661,7 @@
       <c r="AR729" s="4"/>
       <c r="AS729" s="4"/>
     </row>
-    <row r="730" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:45" ht="15.75" customHeight="1">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -36702,7 +36708,7 @@
       <c r="AR730" s="4"/>
       <c r="AS730" s="4"/>
     </row>
-    <row r="731" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:45" ht="15.75" customHeight="1">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -36749,7 +36755,7 @@
       <c r="AR731" s="4"/>
       <c r="AS731" s="4"/>
     </row>
-    <row r="732" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:45" ht="15.75" customHeight="1">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -36796,7 +36802,7 @@
       <c r="AR732" s="4"/>
       <c r="AS732" s="4"/>
     </row>
-    <row r="733" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:45" ht="15.75" customHeight="1">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -36843,7 +36849,7 @@
       <c r="AR733" s="4"/>
       <c r="AS733" s="4"/>
     </row>
-    <row r="734" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:45" ht="15.75" customHeight="1">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -36890,7 +36896,7 @@
       <c r="AR734" s="4"/>
       <c r="AS734" s="4"/>
     </row>
-    <row r="735" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:45" ht="15.75" customHeight="1">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -36937,7 +36943,7 @@
       <c r="AR735" s="4"/>
       <c r="AS735" s="4"/>
     </row>
-    <row r="736" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:45" ht="15.75" customHeight="1">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -36984,7 +36990,7 @@
       <c r="AR736" s="4"/>
       <c r="AS736" s="4"/>
     </row>
-    <row r="737" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:45" ht="15.75" customHeight="1">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -37031,7 +37037,7 @@
       <c r="AR737" s="4"/>
       <c r="AS737" s="4"/>
     </row>
-    <row r="738" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:45" ht="15.75" customHeight="1">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -37078,7 +37084,7 @@
       <c r="AR738" s="4"/>
       <c r="AS738" s="4"/>
     </row>
-    <row r="739" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:45" ht="15.75" customHeight="1">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -37125,7 +37131,7 @@
       <c r="AR739" s="4"/>
       <c r="AS739" s="4"/>
     </row>
-    <row r="740" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:45" ht="15.75" customHeight="1">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -37172,7 +37178,7 @@
       <c r="AR740" s="4"/>
       <c r="AS740" s="4"/>
     </row>
-    <row r="741" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:45" ht="15.75" customHeight="1">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -37219,7 +37225,7 @@
       <c r="AR741" s="4"/>
       <c r="AS741" s="4"/>
     </row>
-    <row r="742" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:45" ht="15.75" customHeight="1">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -37266,7 +37272,7 @@
       <c r="AR742" s="4"/>
       <c r="AS742" s="4"/>
     </row>
-    <row r="743" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:45" ht="15.75" customHeight="1">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -37313,7 +37319,7 @@
       <c r="AR743" s="4"/>
       <c r="AS743" s="4"/>
     </row>
-    <row r="744" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:45" ht="15.75" customHeight="1">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -37360,7 +37366,7 @@
       <c r="AR744" s="4"/>
       <c r="AS744" s="4"/>
     </row>
-    <row r="745" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:45" ht="15.75" customHeight="1">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -37407,7 +37413,7 @@
       <c r="AR745" s="4"/>
       <c r="AS745" s="4"/>
     </row>
-    <row r="746" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:45" ht="15.75" customHeight="1">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -37454,7 +37460,7 @@
       <c r="AR746" s="4"/>
       <c r="AS746" s="4"/>
     </row>
-    <row r="747" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:45" ht="15.75" customHeight="1">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -37501,7 +37507,7 @@
       <c r="AR747" s="4"/>
       <c r="AS747" s="4"/>
     </row>
-    <row r="748" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:45" ht="15.75" customHeight="1">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -37548,7 +37554,7 @@
       <c r="AR748" s="4"/>
       <c r="AS748" s="4"/>
     </row>
-    <row r="749" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:45" ht="15.75" customHeight="1">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -37595,7 +37601,7 @@
       <c r="AR749" s="4"/>
       <c r="AS749" s="4"/>
     </row>
-    <row r="750" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:45" ht="15.75" customHeight="1">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -37642,7 +37648,7 @@
       <c r="AR750" s="4"/>
       <c r="AS750" s="4"/>
     </row>
-    <row r="751" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:45" ht="15.75" customHeight="1">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -37689,7 +37695,7 @@
       <c r="AR751" s="4"/>
       <c r="AS751" s="4"/>
     </row>
-    <row r="752" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:45" ht="15.75" customHeight="1">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -37736,7 +37742,7 @@
       <c r="AR752" s="4"/>
       <c r="AS752" s="4"/>
     </row>
-    <row r="753" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:45" ht="15.75" customHeight="1">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -37783,7 +37789,7 @@
       <c r="AR753" s="4"/>
       <c r="AS753" s="4"/>
     </row>
-    <row r="754" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:45" ht="15.75" customHeight="1">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -37830,7 +37836,7 @@
       <c r="AR754" s="4"/>
       <c r="AS754" s="4"/>
     </row>
-    <row r="755" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:45" ht="15.75" customHeight="1">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -37877,7 +37883,7 @@
       <c r="AR755" s="4"/>
       <c r="AS755" s="4"/>
     </row>
-    <row r="756" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:45" ht="15.75" customHeight="1">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -37924,7 +37930,7 @@
       <c r="AR756" s="4"/>
       <c r="AS756" s="4"/>
     </row>
-    <row r="757" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:45" ht="15.75" customHeight="1">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -37971,7 +37977,7 @@
       <c r="AR757" s="4"/>
       <c r="AS757" s="4"/>
     </row>
-    <row r="758" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:45" ht="15.75" customHeight="1">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -38018,7 +38024,7 @@
       <c r="AR758" s="4"/>
       <c r="AS758" s="4"/>
     </row>
-    <row r="759" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:45" ht="15.75" customHeight="1">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -38065,7 +38071,7 @@
       <c r="AR759" s="4"/>
       <c r="AS759" s="4"/>
     </row>
-    <row r="760" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:45" ht="15.75" customHeight="1">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -38112,7 +38118,7 @@
       <c r="AR760" s="4"/>
       <c r="AS760" s="4"/>
     </row>
-    <row r="761" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:45" ht="15.75" customHeight="1">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -38159,7 +38165,7 @@
       <c r="AR761" s="4"/>
       <c r="AS761" s="4"/>
     </row>
-    <row r="762" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:45" ht="15.75" customHeight="1">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -38206,7 +38212,7 @@
       <c r="AR762" s="4"/>
       <c r="AS762" s="4"/>
     </row>
-    <row r="763" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:45" ht="15.75" customHeight="1">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -38253,7 +38259,7 @@
       <c r="AR763" s="4"/>
       <c r="AS763" s="4"/>
     </row>
-    <row r="764" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:45" ht="15.75" customHeight="1">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -38300,7 +38306,7 @@
       <c r="AR764" s="4"/>
       <c r="AS764" s="4"/>
     </row>
-    <row r="765" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:45" ht="15.75" customHeight="1">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -38347,7 +38353,7 @@
       <c r="AR765" s="4"/>
       <c r="AS765" s="4"/>
     </row>
-    <row r="766" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:45" ht="15.75" customHeight="1">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -38394,7 +38400,7 @@
       <c r="AR766" s="4"/>
       <c r="AS766" s="4"/>
     </row>
-    <row r="767" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:45" ht="15.75" customHeight="1">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -38441,7 +38447,7 @@
       <c r="AR767" s="4"/>
       <c r="AS767" s="4"/>
     </row>
-    <row r="768" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:45" ht="15.75" customHeight="1">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -38488,7 +38494,7 @@
       <c r="AR768" s="4"/>
       <c r="AS768" s="4"/>
     </row>
-    <row r="769" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:45" ht="15.75" customHeight="1">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -38535,7 +38541,7 @@
       <c r="AR769" s="4"/>
       <c r="AS769" s="4"/>
     </row>
-    <row r="770" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:45" ht="15.75" customHeight="1">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -38582,7 +38588,7 @@
       <c r="AR770" s="4"/>
       <c r="AS770" s="4"/>
     </row>
-    <row r="771" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:45" ht="15.75" customHeight="1">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -38629,7 +38635,7 @@
       <c r="AR771" s="4"/>
       <c r="AS771" s="4"/>
     </row>
-    <row r="772" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:45" ht="15.75" customHeight="1">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -38676,7 +38682,7 @@
       <c r="AR772" s="4"/>
       <c r="AS772" s="4"/>
     </row>
-    <row r="773" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:45" ht="15.75" customHeight="1">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -38723,7 +38729,7 @@
       <c r="AR773" s="4"/>
       <c r="AS773" s="4"/>
     </row>
-    <row r="774" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:45" ht="15.75" customHeight="1">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -38770,7 +38776,7 @@
       <c r="AR774" s="4"/>
       <c r="AS774" s="4"/>
     </row>
-    <row r="775" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:45" ht="15.75" customHeight="1">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -38817,7 +38823,7 @@
       <c r="AR775" s="4"/>
       <c r="AS775" s="4"/>
     </row>
-    <row r="776" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:45" ht="15.75" customHeight="1">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -38864,7 +38870,7 @@
       <c r="AR776" s="4"/>
       <c r="AS776" s="4"/>
     </row>
-    <row r="777" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:45" ht="15.75" customHeight="1">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -38911,7 +38917,7 @@
       <c r="AR777" s="4"/>
       <c r="AS777" s="4"/>
     </row>
-    <row r="778" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:45" ht="15.75" customHeight="1">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -38958,7 +38964,7 @@
       <c r="AR778" s="4"/>
       <c r="AS778" s="4"/>
     </row>
-    <row r="779" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:45" ht="15.75" customHeight="1">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -39005,7 +39011,7 @@
       <c r="AR779" s="4"/>
       <c r="AS779" s="4"/>
     </row>
-    <row r="780" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:45" ht="15.75" customHeight="1">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -39052,7 +39058,7 @@
       <c r="AR780" s="4"/>
       <c r="AS780" s="4"/>
     </row>
-    <row r="781" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:45" ht="15.75" customHeight="1">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -39099,7 +39105,7 @@
       <c r="AR781" s="4"/>
       <c r="AS781" s="4"/>
     </row>
-    <row r="782" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:45" ht="15.75" customHeight="1">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -39146,7 +39152,7 @@
       <c r="AR782" s="4"/>
       <c r="AS782" s="4"/>
     </row>
-    <row r="783" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:45" ht="15.75" customHeight="1">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -39193,7 +39199,7 @@
       <c r="AR783" s="4"/>
       <c r="AS783" s="4"/>
     </row>
-    <row r="784" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:45" ht="15.75" customHeight="1">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -39240,7 +39246,7 @@
       <c r="AR784" s="4"/>
       <c r="AS784" s="4"/>
     </row>
-    <row r="785" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:45" ht="15.75" customHeight="1">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -39287,7 +39293,7 @@
       <c r="AR785" s="4"/>
       <c r="AS785" s="4"/>
     </row>
-    <row r="786" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:45" ht="15.75" customHeight="1">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -39334,7 +39340,7 @@
       <c r="AR786" s="4"/>
       <c r="AS786" s="4"/>
     </row>
-    <row r="787" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:45" ht="15.75" customHeight="1">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -39381,7 +39387,7 @@
       <c r="AR787" s="4"/>
       <c r="AS787" s="4"/>
     </row>
-    <row r="788" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:45" ht="15.75" customHeight="1">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -39428,7 +39434,7 @@
       <c r="AR788" s="4"/>
       <c r="AS788" s="4"/>
     </row>
-    <row r="789" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:45" ht="15.75" customHeight="1">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -39475,7 +39481,7 @@
       <c r="AR789" s="4"/>
       <c r="AS789" s="4"/>
     </row>
-    <row r="790" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:45" ht="15.75" customHeight="1">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -39522,7 +39528,7 @@
       <c r="AR790" s="4"/>
       <c r="AS790" s="4"/>
     </row>
-    <row r="791" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:45" ht="15.75" customHeight="1">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -39569,7 +39575,7 @@
       <c r="AR791" s="4"/>
       <c r="AS791" s="4"/>
     </row>
-    <row r="792" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:45" ht="15.75" customHeight="1">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -39616,7 +39622,7 @@
       <c r="AR792" s="4"/>
       <c r="AS792" s="4"/>
     </row>
-    <row r="793" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:45" ht="15.75" customHeight="1">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -39663,7 +39669,7 @@
       <c r="AR793" s="4"/>
       <c r="AS793" s="4"/>
     </row>
-    <row r="794" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:45" ht="15.75" customHeight="1">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -39710,7 +39716,7 @@
       <c r="AR794" s="4"/>
       <c r="AS794" s="4"/>
     </row>
-    <row r="795" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:45" ht="15.75" customHeight="1">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -39757,7 +39763,7 @@
       <c r="AR795" s="4"/>
       <c r="AS795" s="4"/>
     </row>
-    <row r="796" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:45" ht="15.75" customHeight="1">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -39804,7 +39810,7 @@
       <c r="AR796" s="4"/>
       <c r="AS796" s="4"/>
     </row>
-    <row r="797" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:45" ht="15.75" customHeight="1">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -39851,7 +39857,7 @@
       <c r="AR797" s="4"/>
       <c r="AS797" s="4"/>
     </row>
-    <row r="798" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:45" ht="15.75" customHeight="1">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -39898,7 +39904,7 @@
       <c r="AR798" s="4"/>
       <c r="AS798" s="4"/>
     </row>
-    <row r="799" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:45" ht="15.75" customHeight="1">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -39945,7 +39951,7 @@
       <c r="AR799" s="4"/>
       <c r="AS799" s="4"/>
     </row>
-    <row r="800" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:45" ht="15.75" customHeight="1">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -39992,7 +39998,7 @@
       <c r="AR800" s="4"/>
       <c r="AS800" s="4"/>
     </row>
-    <row r="801" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:45" ht="15.75" customHeight="1">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -40039,7 +40045,7 @@
       <c r="AR801" s="4"/>
       <c r="AS801" s="4"/>
     </row>
-    <row r="802" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:45" ht="15.75" customHeight="1">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -40086,7 +40092,7 @@
       <c r="AR802" s="4"/>
       <c r="AS802" s="4"/>
     </row>
-    <row r="803" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:45" ht="15.75" customHeight="1">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -40133,7 +40139,7 @@
       <c r="AR803" s="4"/>
       <c r="AS803" s="4"/>
     </row>
-    <row r="804" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:45" ht="15.75" customHeight="1">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -40180,7 +40186,7 @@
       <c r="AR804" s="4"/>
       <c r="AS804" s="4"/>
     </row>
-    <row r="805" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:45" ht="15.75" customHeight="1">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -40227,7 +40233,7 @@
       <c r="AR805" s="4"/>
       <c r="AS805" s="4"/>
     </row>
-    <row r="806" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:45" ht="15.75" customHeight="1">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -40274,7 +40280,7 @@
       <c r="AR806" s="4"/>
       <c r="AS806" s="4"/>
     </row>
-    <row r="807" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:45" ht="15.75" customHeight="1">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -40321,7 +40327,7 @@
       <c r="AR807" s="4"/>
       <c r="AS807" s="4"/>
     </row>
-    <row r="808" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:45" ht="15.75" customHeight="1">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -40368,7 +40374,7 @@
       <c r="AR808" s="4"/>
       <c r="AS808" s="4"/>
     </row>
-    <row r="809" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:45" ht="15.75" customHeight="1">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -40415,7 +40421,7 @@
       <c r="AR809" s="4"/>
       <c r="AS809" s="4"/>
     </row>
-    <row r="810" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:45" ht="15.75" customHeight="1">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -40462,7 +40468,7 @@
       <c r="AR810" s="4"/>
       <c r="AS810" s="4"/>
     </row>
-    <row r="811" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:45" ht="15.75" customHeight="1">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -40509,7 +40515,7 @@
       <c r="AR811" s="4"/>
       <c r="AS811" s="4"/>
     </row>
-    <row r="812" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:45" ht="15.75" customHeight="1">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -40556,7 +40562,7 @@
       <c r="AR812" s="4"/>
       <c r="AS812" s="4"/>
     </row>
-    <row r="813" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:45" ht="15.75" customHeight="1">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -40603,7 +40609,7 @@
       <c r="AR813" s="4"/>
       <c r="AS813" s="4"/>
     </row>
-    <row r="814" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:45" ht="15.75" customHeight="1">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -40650,7 +40656,7 @@
       <c r="AR814" s="4"/>
       <c r="AS814" s="4"/>
     </row>
-    <row r="815" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:45" ht="15.75" customHeight="1">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -40697,7 +40703,7 @@
       <c r="AR815" s="4"/>
       <c r="AS815" s="4"/>
     </row>
-    <row r="816" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:45" ht="15.75" customHeight="1">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -40744,7 +40750,7 @@
       <c r="AR816" s="4"/>
       <c r="AS816" s="4"/>
     </row>
-    <row r="817" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:45" ht="15.75" customHeight="1">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -40791,7 +40797,7 @@
       <c r="AR817" s="4"/>
       <c r="AS817" s="4"/>
     </row>
-    <row r="818" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:45" ht="15.75" customHeight="1">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -40838,7 +40844,7 @@
       <c r="AR818" s="4"/>
       <c r="AS818" s="4"/>
     </row>
-    <row r="819" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:45" ht="15.75" customHeight="1">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -40885,7 +40891,7 @@
       <c r="AR819" s="4"/>
       <c r="AS819" s="4"/>
     </row>
-    <row r="820" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:45" ht="15.75" customHeight="1">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -40932,7 +40938,7 @@
       <c r="AR820" s="4"/>
       <c r="AS820" s="4"/>
     </row>
-    <row r="821" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:45" ht="15.75" customHeight="1">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -40979,7 +40985,7 @@
       <c r="AR821" s="4"/>
       <c r="AS821" s="4"/>
     </row>
-    <row r="822" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:45" ht="15.75" customHeight="1">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -41026,7 +41032,7 @@
       <c r="AR822" s="4"/>
       <c r="AS822" s="4"/>
     </row>
-    <row r="823" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:45" ht="15.75" customHeight="1">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -41073,7 +41079,7 @@
       <c r="AR823" s="4"/>
       <c r="AS823" s="4"/>
     </row>
-    <row r="824" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:45" ht="15.75" customHeight="1">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -41120,7 +41126,7 @@
       <c r="AR824" s="4"/>
       <c r="AS824" s="4"/>
     </row>
-    <row r="825" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:45" ht="15.75" customHeight="1">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -41167,7 +41173,7 @@
       <c r="AR825" s="4"/>
       <c r="AS825" s="4"/>
     </row>
-    <row r="826" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:45" ht="15.75" customHeight="1">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -41214,7 +41220,7 @@
       <c r="AR826" s="4"/>
       <c r="AS826" s="4"/>
     </row>
-    <row r="827" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:45" ht="15.75" customHeight="1">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -41261,7 +41267,7 @@
       <c r="AR827" s="4"/>
       <c r="AS827" s="4"/>
     </row>
-    <row r="828" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:45" ht="15.75" customHeight="1">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -41308,7 +41314,7 @@
       <c r="AR828" s="4"/>
       <c r="AS828" s="4"/>
     </row>
-    <row r="829" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:45" ht="15.75" customHeight="1">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -41355,7 +41361,7 @@
       <c r="AR829" s="4"/>
       <c r="AS829" s="4"/>
     </row>
-    <row r="830" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:45" ht="15.75" customHeight="1">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -41402,7 +41408,7 @@
       <c r="AR830" s="4"/>
       <c r="AS830" s="4"/>
     </row>
-    <row r="831" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:45" ht="15.75" customHeight="1">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -41449,7 +41455,7 @@
       <c r="AR831" s="4"/>
       <c r="AS831" s="4"/>
     </row>
-    <row r="832" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:45" ht="15.75" customHeight="1">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -41496,7 +41502,7 @@
       <c r="AR832" s="4"/>
       <c r="AS832" s="4"/>
     </row>
-    <row r="833" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:45" ht="15.75" customHeight="1">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -41543,7 +41549,7 @@
       <c r="AR833" s="4"/>
       <c r="AS833" s="4"/>
     </row>
-    <row r="834" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:45" ht="15.75" customHeight="1">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -41590,7 +41596,7 @@
       <c r="AR834" s="4"/>
       <c r="AS834" s="4"/>
     </row>
-    <row r="835" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:45" ht="15.75" customHeight="1">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -41637,7 +41643,7 @@
       <c r="AR835" s="4"/>
       <c r="AS835" s="4"/>
     </row>
-    <row r="836" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:45" ht="15.75" customHeight="1">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -41684,7 +41690,7 @@
       <c r="AR836" s="4"/>
       <c r="AS836" s="4"/>
     </row>
-    <row r="837" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:45" ht="15.75" customHeight="1">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -41731,7 +41737,7 @@
       <c r="AR837" s="4"/>
       <c r="AS837" s="4"/>
     </row>
-    <row r="838" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:45" ht="15.75" customHeight="1">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -41778,7 +41784,7 @@
       <c r="AR838" s="4"/>
       <c r="AS838" s="4"/>
     </row>
-    <row r="839" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:45" ht="15.75" customHeight="1">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -41825,7 +41831,7 @@
       <c r="AR839" s="4"/>
       <c r="AS839" s="4"/>
     </row>
-    <row r="840" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:45" ht="15.75" customHeight="1">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -41872,7 +41878,7 @@
       <c r="AR840" s="4"/>
       <c r="AS840" s="4"/>
     </row>
-    <row r="841" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:45" ht="15.75" customHeight="1">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -41919,7 +41925,7 @@
       <c r="AR841" s="4"/>
       <c r="AS841" s="4"/>
     </row>
-    <row r="842" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:45" ht="15.75" customHeight="1">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -41966,7 +41972,7 @@
       <c r="AR842" s="4"/>
       <c r="AS842" s="4"/>
     </row>
-    <row r="843" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:45" ht="15.75" customHeight="1">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -42013,7 +42019,7 @@
       <c r="AR843" s="4"/>
       <c r="AS843" s="4"/>
     </row>
-    <row r="844" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:45" ht="15.75" customHeight="1">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -42060,7 +42066,7 @@
       <c r="AR844" s="4"/>
       <c r="AS844" s="4"/>
     </row>
-    <row r="845" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:45" ht="15.75" customHeight="1">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -42107,7 +42113,7 @@
       <c r="AR845" s="4"/>
       <c r="AS845" s="4"/>
     </row>
-    <row r="846" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:45" ht="15.75" customHeight="1">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -42154,7 +42160,7 @@
       <c r="AR846" s="4"/>
       <c r="AS846" s="4"/>
     </row>
-    <row r="847" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:45" ht="15.75" customHeight="1">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -42201,7 +42207,7 @@
       <c r="AR847" s="4"/>
       <c r="AS847" s="4"/>
     </row>
-    <row r="848" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:45" ht="15.75" customHeight="1">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -42248,7 +42254,7 @@
       <c r="AR848" s="4"/>
       <c r="AS848" s="4"/>
     </row>
-    <row r="849" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:45" ht="15.75" customHeight="1">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -42295,7 +42301,7 @@
       <c r="AR849" s="4"/>
       <c r="AS849" s="4"/>
     </row>
-    <row r="850" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:45" ht="15.75" customHeight="1">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -42342,7 +42348,7 @@
       <c r="AR850" s="4"/>
       <c r="AS850" s="4"/>
     </row>
-    <row r="851" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:45" ht="15.75" customHeight="1">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -42389,7 +42395,7 @@
       <c r="AR851" s="4"/>
       <c r="AS851" s="4"/>
     </row>
-    <row r="852" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:45" ht="15.75" customHeight="1">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -42436,7 +42442,7 @@
       <c r="AR852" s="4"/>
       <c r="AS852" s="4"/>
     </row>
-    <row r="853" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:45" ht="15.75" customHeight="1">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -42483,7 +42489,7 @@
       <c r="AR853" s="4"/>
       <c r="AS853" s="4"/>
     </row>
-    <row r="854" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:45" ht="15.75" customHeight="1">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -42530,7 +42536,7 @@
       <c r="AR854" s="4"/>
       <c r="AS854" s="4"/>
     </row>
-    <row r="855" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:45" ht="15.75" customHeight="1">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -42577,7 +42583,7 @@
       <c r="AR855" s="4"/>
       <c r="AS855" s="4"/>
     </row>
-    <row r="856" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:45" ht="15.75" customHeight="1">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -42624,7 +42630,7 @@
       <c r="AR856" s="4"/>
       <c r="AS856" s="4"/>
     </row>
-    <row r="857" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:45" ht="15.75" customHeight="1">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -42671,7 +42677,7 @@
       <c r="AR857" s="4"/>
       <c r="AS857" s="4"/>
     </row>
-    <row r="858" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:45" ht="15.75" customHeight="1">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -42718,7 +42724,7 @@
       <c r="AR858" s="4"/>
       <c r="AS858" s="4"/>
     </row>
-    <row r="859" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:45" ht="15.75" customHeight="1">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -42765,7 +42771,7 @@
       <c r="AR859" s="4"/>
       <c r="AS859" s="4"/>
     </row>
-    <row r="860" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:45" ht="15.75" customHeight="1">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -42812,7 +42818,7 @@
       <c r="AR860" s="4"/>
       <c r="AS860" s="4"/>
     </row>
-    <row r="861" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:45" ht="15.75" customHeight="1">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -42859,7 +42865,7 @@
       <c r="AR861" s="4"/>
       <c r="AS861" s="4"/>
     </row>
-    <row r="862" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:45" ht="15.75" customHeight="1">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -42906,7 +42912,7 @@
       <c r="AR862" s="4"/>
       <c r="AS862" s="4"/>
     </row>
-    <row r="863" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:45" ht="15.75" customHeight="1">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -42953,7 +42959,7 @@
       <c r="AR863" s="4"/>
       <c r="AS863" s="4"/>
     </row>
-    <row r="864" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:45" ht="15.75" customHeight="1">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -43000,7 +43006,7 @@
       <c r="AR864" s="4"/>
       <c r="AS864" s="4"/>
     </row>
-    <row r="865" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:45" ht="15.75" customHeight="1">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -43047,7 +43053,7 @@
       <c r="AR865" s="4"/>
       <c r="AS865" s="4"/>
     </row>
-    <row r="866" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:45" ht="15.75" customHeight="1">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -43094,7 +43100,7 @@
       <c r="AR866" s="4"/>
       <c r="AS866" s="4"/>
     </row>
-    <row r="867" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:45" ht="15.75" customHeight="1">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -43141,7 +43147,7 @@
       <c r="AR867" s="4"/>
       <c r="AS867" s="4"/>
     </row>
-    <row r="868" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:45" ht="15.75" customHeight="1">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -43188,7 +43194,7 @@
       <c r="AR868" s="4"/>
       <c r="AS868" s="4"/>
     </row>
-    <row r="869" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:45" ht="15.75" customHeight="1">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -43235,7 +43241,7 @@
       <c r="AR869" s="4"/>
       <c r="AS869" s="4"/>
     </row>
-    <row r="870" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:45" ht="15.75" customHeight="1">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -43282,7 +43288,7 @@
       <c r="AR870" s="4"/>
       <c r="AS870" s="4"/>
     </row>
-    <row r="871" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:45" ht="15.75" customHeight="1">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -43329,7 +43335,7 @@
       <c r="AR871" s="4"/>
       <c r="AS871" s="4"/>
     </row>
-    <row r="872" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:45" ht="15.75" customHeight="1">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -43376,7 +43382,7 @@
       <c r="AR872" s="4"/>
       <c r="AS872" s="4"/>
     </row>
-    <row r="873" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:45" ht="15.75" customHeight="1">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -43423,7 +43429,7 @@
       <c r="AR873" s="4"/>
       <c r="AS873" s="4"/>
     </row>
-    <row r="874" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:45" ht="15.75" customHeight="1">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -43470,7 +43476,7 @@
       <c r="AR874" s="4"/>
       <c r="AS874" s="4"/>
     </row>
-    <row r="875" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:45" ht="15.75" customHeight="1">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -43517,7 +43523,7 @@
       <c r="AR875" s="4"/>
       <c r="AS875" s="4"/>
     </row>
-    <row r="876" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:45" ht="15.75" customHeight="1">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -43564,7 +43570,7 @@
       <c r="AR876" s="4"/>
       <c r="AS876" s="4"/>
     </row>
-    <row r="877" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:45" ht="15.75" customHeight="1">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -43611,7 +43617,7 @@
       <c r="AR877" s="4"/>
       <c r="AS877" s="4"/>
     </row>
-    <row r="878" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:45" ht="15.75" customHeight="1">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -43658,7 +43664,7 @@
       <c r="AR878" s="4"/>
       <c r="AS878" s="4"/>
     </row>
-    <row r="879" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:45" ht="15.75" customHeight="1">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -43705,7 +43711,7 @@
       <c r="AR879" s="4"/>
       <c r="AS879" s="4"/>
     </row>
-    <row r="880" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:45" ht="15.75" customHeight="1">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -43752,7 +43758,7 @@
       <c r="AR880" s="4"/>
       <c r="AS880" s="4"/>
     </row>
-    <row r="881" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:45" ht="15.75" customHeight="1">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -43799,7 +43805,7 @@
       <c r="AR881" s="4"/>
       <c r="AS881" s="4"/>
     </row>
-    <row r="882" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:45" ht="15.75" customHeight="1">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -43846,7 +43852,7 @@
       <c r="AR882" s="4"/>
       <c r="AS882" s="4"/>
     </row>
-    <row r="883" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:45" ht="15.75" customHeight="1">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -43893,7 +43899,7 @@
       <c r="AR883" s="4"/>
       <c r="AS883" s="4"/>
     </row>
-    <row r="884" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:45" ht="15.75" customHeight="1">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -43940,7 +43946,7 @@
       <c r="AR884" s="4"/>
       <c r="AS884" s="4"/>
     </row>
-    <row r="885" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:45" ht="15.75" customHeight="1">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -43987,7 +43993,7 @@
       <c r="AR885" s="4"/>
       <c r="AS885" s="4"/>
     </row>
-    <row r="886" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:45" ht="15.75" customHeight="1">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -44034,7 +44040,7 @@
       <c r="AR886" s="4"/>
       <c r="AS886" s="4"/>
     </row>
-    <row r="887" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:45" ht="15.75" customHeight="1">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -44081,7 +44087,7 @@
       <c r="AR887" s="4"/>
       <c r="AS887" s="4"/>
     </row>
-    <row r="888" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:45" ht="15.75" customHeight="1">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -44128,7 +44134,7 @@
       <c r="AR888" s="4"/>
       <c r="AS888" s="4"/>
     </row>
-    <row r="889" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:45" ht="15.75" customHeight="1">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -44175,7 +44181,7 @@
       <c r="AR889" s="4"/>
       <c r="AS889" s="4"/>
     </row>
-    <row r="890" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:45" ht="15.75" customHeight="1">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -44222,7 +44228,7 @@
       <c r="AR890" s="4"/>
       <c r="AS890" s="4"/>
     </row>
-    <row r="891" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:45" ht="15.75" customHeight="1">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -44269,7 +44275,7 @@
       <c r="AR891" s="4"/>
       <c r="AS891" s="4"/>
     </row>
-    <row r="892" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:45" ht="15.75" customHeight="1">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -44316,7 +44322,7 @@
       <c r="AR892" s="4"/>
       <c r="AS892" s="4"/>
     </row>
-    <row r="893" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:45" ht="15.75" customHeight="1">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -44363,7 +44369,7 @@
       <c r="AR893" s="4"/>
       <c r="AS893" s="4"/>
     </row>
-    <row r="894" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:45" ht="15.75" customHeight="1">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -44410,7 +44416,7 @@
       <c r="AR894" s="4"/>
       <c r="AS894" s="4"/>
     </row>
-    <row r="895" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:45" ht="15.75" customHeight="1">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -44457,7 +44463,7 @@
       <c r="AR895" s="4"/>
       <c r="AS895" s="4"/>
     </row>
-    <row r="896" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:45" ht="15.75" customHeight="1">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -44504,7 +44510,7 @@
       <c r="AR896" s="4"/>
       <c r="AS896" s="4"/>
     </row>
-    <row r="897" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:45" ht="15.75" customHeight="1">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -44551,7 +44557,7 @@
       <c r="AR897" s="4"/>
       <c r="AS897" s="4"/>
     </row>
-    <row r="898" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:45" ht="15.75" customHeight="1">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -44598,7 +44604,7 @@
       <c r="AR898" s="4"/>
       <c r="AS898" s="4"/>
     </row>
-    <row r="899" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:45" ht="15.75" customHeight="1">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -44645,7 +44651,7 @@
       <c r="AR899" s="4"/>
       <c r="AS899" s="4"/>
     </row>
-    <row r="900" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:45" ht="15.75" customHeight="1">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -44692,7 +44698,7 @@
       <c r="AR900" s="4"/>
       <c r="AS900" s="4"/>
     </row>
-    <row r="901" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:45" ht="15.75" customHeight="1">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -44739,7 +44745,7 @@
       <c r="AR901" s="4"/>
       <c r="AS901" s="4"/>
     </row>
-    <row r="902" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:45" ht="15.75" customHeight="1">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -44786,7 +44792,7 @@
       <c r="AR902" s="4"/>
       <c r="AS902" s="4"/>
     </row>
-    <row r="903" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:45" ht="15.75" customHeight="1">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -44833,7 +44839,7 @@
       <c r="AR903" s="4"/>
       <c r="AS903" s="4"/>
     </row>
-    <row r="904" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:45" ht="15.75" customHeight="1">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -44880,7 +44886,7 @@
       <c r="AR904" s="4"/>
       <c r="AS904" s="4"/>
     </row>
-    <row r="905" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:45" ht="15.75" customHeight="1">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -44927,7 +44933,7 @@
       <c r="AR905" s="4"/>
       <c r="AS905" s="4"/>
     </row>
-    <row r="906" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:45" ht="15.75" customHeight="1">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -44974,7 +44980,7 @@
       <c r="AR906" s="4"/>
       <c r="AS906" s="4"/>
     </row>
-    <row r="907" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:45" ht="15.75" customHeight="1">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -45021,7 +45027,7 @@
       <c r="AR907" s="4"/>
       <c r="AS907" s="4"/>
     </row>
-    <row r="908" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:45" ht="15.75" customHeight="1">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -45068,7 +45074,7 @@
       <c r="AR908" s="4"/>
       <c r="AS908" s="4"/>
     </row>
-    <row r="909" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:45" ht="15.75" customHeight="1">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -45115,7 +45121,7 @@
       <c r="AR909" s="4"/>
       <c r="AS909" s="4"/>
     </row>
-    <row r="910" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:45" ht="15.75" customHeight="1">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -45162,7 +45168,7 @@
       <c r="AR910" s="4"/>
       <c r="AS910" s="4"/>
     </row>
-    <row r="911" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:45" ht="15.75" customHeight="1">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -45209,7 +45215,7 @@
       <c r="AR911" s="4"/>
       <c r="AS911" s="4"/>
     </row>
-    <row r="912" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:45" ht="15.75" customHeight="1">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -45256,7 +45262,7 @@
       <c r="AR912" s="4"/>
       <c r="AS912" s="4"/>
     </row>
-    <row r="913" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:45" ht="15.75" customHeight="1">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -45303,7 +45309,7 @@
       <c r="AR913" s="4"/>
       <c r="AS913" s="4"/>
     </row>
-    <row r="914" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:45" ht="15.75" customHeight="1">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -45350,7 +45356,7 @@
       <c r="AR914" s="4"/>
       <c r="AS914" s="4"/>
     </row>
-    <row r="915" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:45" ht="15.75" customHeight="1">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -45397,7 +45403,7 @@
       <c r="AR915" s="4"/>
       <c r="AS915" s="4"/>
     </row>
-    <row r="916" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:45" ht="15.75" customHeight="1">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -45444,7 +45450,7 @@
       <c r="AR916" s="4"/>
       <c r="AS916" s="4"/>
     </row>
-    <row r="917" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:45" ht="15.75" customHeight="1">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -45491,7 +45497,7 @@
       <c r="AR917" s="4"/>
       <c r="AS917" s="4"/>
     </row>
-    <row r="918" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:45" ht="15.75" customHeight="1">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -45538,7 +45544,7 @@
       <c r="AR918" s="4"/>
       <c r="AS918" s="4"/>
     </row>
-    <row r="919" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:45" ht="15.75" customHeight="1">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -45585,7 +45591,7 @@
       <c r="AR919" s="4"/>
       <c r="AS919" s="4"/>
     </row>
-    <row r="920" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:45" ht="15.75" customHeight="1">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -45632,7 +45638,7 @@
       <c r="AR920" s="4"/>
       <c r="AS920" s="4"/>
     </row>
-    <row r="921" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:45" ht="15.75" customHeight="1">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -45679,7 +45685,7 @@
       <c r="AR921" s="4"/>
       <c r="AS921" s="4"/>
     </row>
-    <row r="922" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:45" ht="15.75" customHeight="1">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -45726,7 +45732,7 @@
       <c r="AR922" s="4"/>
       <c r="AS922" s="4"/>
     </row>
-    <row r="923" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:45" ht="15.75" customHeight="1">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -45773,7 +45779,7 @@
       <c r="AR923" s="4"/>
       <c r="AS923" s="4"/>
     </row>
-    <row r="924" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:45" ht="15.75" customHeight="1">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -45820,7 +45826,7 @@
       <c r="AR924" s="4"/>
       <c r="AS924" s="4"/>
     </row>
-    <row r="925" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:45" ht="15.75" customHeight="1">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -45867,7 +45873,7 @@
       <c r="AR925" s="4"/>
       <c r="AS925" s="4"/>
     </row>
-    <row r="926" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:45" ht="15.75" customHeight="1">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -45914,7 +45920,7 @@
       <c r="AR926" s="4"/>
       <c r="AS926" s="4"/>
     </row>
-    <row r="927" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:45" ht="15.75" customHeight="1">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -45961,7 +45967,7 @@
       <c r="AR927" s="4"/>
       <c r="AS927" s="4"/>
     </row>
-    <row r="928" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:45" ht="15.75" customHeight="1">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -46008,7 +46014,7 @@
       <c r="AR928" s="4"/>
       <c r="AS928" s="4"/>
     </row>
-    <row r="929" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:45" ht="15.75" customHeight="1">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -46055,7 +46061,7 @@
       <c r="AR929" s="4"/>
       <c r="AS929" s="4"/>
     </row>
-    <row r="930" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:45" ht="15.75" customHeight="1">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -46102,7 +46108,7 @@
       <c r="AR930" s="4"/>
       <c r="AS930" s="4"/>
     </row>
-    <row r="931" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:45" ht="15.75" customHeight="1">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -46149,7 +46155,7 @@
       <c r="AR931" s="4"/>
       <c r="AS931" s="4"/>
     </row>
-    <row r="932" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:45" ht="15.75" customHeight="1">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -46196,7 +46202,7 @@
       <c r="AR932" s="4"/>
       <c r="AS932" s="4"/>
     </row>
-    <row r="933" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:45" ht="15.75" customHeight="1">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -46243,7 +46249,7 @@
       <c r="AR933" s="4"/>
       <c r="AS933" s="4"/>
     </row>
-    <row r="934" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:45" ht="15.75" customHeight="1">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -46290,7 +46296,7 @@
       <c r="AR934" s="4"/>
       <c r="AS934" s="4"/>
     </row>
-    <row r="935" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:45" ht="15.75" customHeight="1">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -46337,7 +46343,7 @@
       <c r="AR935" s="4"/>
       <c r="AS935" s="4"/>
     </row>
-    <row r="936" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:45" ht="15.75" customHeight="1">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -46384,7 +46390,7 @@
       <c r="AR936" s="4"/>
       <c r="AS936" s="4"/>
     </row>
-    <row r="937" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:45" ht="15.75" customHeight="1">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -46431,7 +46437,7 @@
       <c r="AR937" s="4"/>
       <c r="AS937" s="4"/>
     </row>
-    <row r="938" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:45" ht="15.75" customHeight="1">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -46478,7 +46484,7 @@
       <c r="AR938" s="4"/>
       <c r="AS938" s="4"/>
     </row>
-    <row r="939" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:45" ht="15.75" customHeight="1">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -46525,7 +46531,7 @@
       <c r="AR939" s="4"/>
       <c r="AS939" s="4"/>
     </row>
-    <row r="940" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:45" ht="15.75" customHeight="1">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -46572,7 +46578,7 @@
       <c r="AR940" s="4"/>
       <c r="AS940" s="4"/>
     </row>
-    <row r="941" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:45" ht="15.75" customHeight="1">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -46619,7 +46625,7 @@
       <c r="AR941" s="4"/>
       <c r="AS941" s="4"/>
     </row>
-    <row r="942" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:45" ht="15.75" customHeight="1">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -46666,7 +46672,7 @@
       <c r="AR942" s="4"/>
       <c r="AS942" s="4"/>
     </row>
-    <row r="943" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:45" ht="15.75" customHeight="1">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -46713,7 +46719,7 @@
       <c r="AR943" s="4"/>
       <c r="AS943" s="4"/>
     </row>
-    <row r="944" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:45" ht="15.75" customHeight="1">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -46760,7 +46766,7 @@
       <c r="AR944" s="4"/>
       <c r="AS944" s="4"/>
     </row>
-    <row r="945" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:45" ht="15.75" customHeight="1">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -46807,7 +46813,7 @@
       <c r="AR945" s="4"/>
       <c r="AS945" s="4"/>
     </row>
-    <row r="946" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:45" ht="15.75" customHeight="1">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -46854,7 +46860,7 @@
       <c r="AR946" s="4"/>
       <c r="AS946" s="4"/>
     </row>
-    <row r="947" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:45" ht="15.75" customHeight="1">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -46901,7 +46907,7 @@
       <c r="AR947" s="4"/>
       <c r="AS947" s="4"/>
     </row>
-    <row r="948" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:45" ht="15.75" customHeight="1">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -46948,7 +46954,7 @@
       <c r="AR948" s="4"/>
       <c r="AS948" s="4"/>
     </row>
-    <row r="949" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:45" ht="15.75" customHeight="1">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -46995,7 +47001,7 @@
       <c r="AR949" s="4"/>
       <c r="AS949" s="4"/>
     </row>
-    <row r="950" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:45" ht="15.75" customHeight="1">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -47042,7 +47048,7 @@
       <c r="AR950" s="4"/>
       <c r="AS950" s="4"/>
     </row>
-    <row r="951" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:45" ht="15.75" customHeight="1">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -47089,7 +47095,7 @@
       <c r="AR951" s="4"/>
       <c r="AS951" s="4"/>
     </row>
-    <row r="952" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:45" ht="15.75" customHeight="1">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -47136,7 +47142,7 @@
       <c r="AR952" s="4"/>
       <c r="AS952" s="4"/>
     </row>
-    <row r="953" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:45" ht="15.75" customHeight="1">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -47183,7 +47189,7 @@
       <c r="AR953" s="4"/>
       <c r="AS953" s="4"/>
     </row>
-    <row r="954" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:45" ht="15.75" customHeight="1">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -47230,7 +47236,7 @@
       <c r="AR954" s="4"/>
       <c r="AS954" s="4"/>
     </row>
-    <row r="955" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:45" ht="15.75" customHeight="1">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -47277,7 +47283,7 @@
       <c r="AR955" s="4"/>
       <c r="AS955" s="4"/>
     </row>
-    <row r="956" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:45" ht="15.75" customHeight="1">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -47324,7 +47330,7 @@
       <c r="AR956" s="4"/>
       <c r="AS956" s="4"/>
     </row>
-    <row r="957" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:45" ht="15.75" customHeight="1">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -47371,7 +47377,7 @@
       <c r="AR957" s="4"/>
       <c r="AS957" s="4"/>
     </row>
-    <row r="958" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:45" ht="15.75" customHeight="1">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -47418,7 +47424,7 @@
       <c r="AR958" s="4"/>
       <c r="AS958" s="4"/>
     </row>
-    <row r="959" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:45" ht="15.75" customHeight="1">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -47465,7 +47471,7 @@
       <c r="AR959" s="4"/>
       <c r="AS959" s="4"/>
     </row>
-    <row r="960" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:45" ht="15.75" customHeight="1">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -47512,7 +47518,7 @@
       <c r="AR960" s="4"/>
       <c r="AS960" s="4"/>
     </row>
-    <row r="961" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:45" ht="15.75" customHeight="1">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -47559,7 +47565,7 @@
       <c r="AR961" s="4"/>
       <c r="AS961" s="4"/>
     </row>
-    <row r="962" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:45" ht="15.75" customHeight="1">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -47606,7 +47612,7 @@
       <c r="AR962" s="4"/>
       <c r="AS962" s="4"/>
     </row>
-    <row r="963" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:45" ht="15.75" customHeight="1">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -47653,7 +47659,7 @@
       <c r="AR963" s="4"/>
       <c r="AS963" s="4"/>
     </row>
-    <row r="964" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:45" ht="15.75" customHeight="1">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -47700,7 +47706,7 @@
       <c r="AR964" s="4"/>
       <c r="AS964" s="4"/>
     </row>
-    <row r="965" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:45" ht="15.75" customHeight="1">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -47747,7 +47753,7 @@
       <c r="AR965" s="4"/>
       <c r="AS965" s="4"/>
     </row>
-    <row r="966" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:45" ht="15.75" customHeight="1">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -47794,7 +47800,7 @@
       <c r="AR966" s="4"/>
       <c r="AS966" s="4"/>
     </row>
-    <row r="967" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:45" ht="15.75" customHeight="1">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -47841,7 +47847,7 @@
       <c r="AR967" s="4"/>
       <c r="AS967" s="4"/>
     </row>
-    <row r="968" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:45" ht="15.75" customHeight="1">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -47888,7 +47894,7 @@
       <c r="AR968" s="4"/>
       <c r="AS968" s="4"/>
     </row>
-    <row r="969" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:45" ht="15.75" customHeight="1">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -47935,7 +47941,7 @@
       <c r="AR969" s="4"/>
       <c r="AS969" s="4"/>
     </row>
-    <row r="970" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:45" ht="15.75" customHeight="1">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -47982,7 +47988,7 @@
       <c r="AR970" s="4"/>
       <c r="AS970" s="4"/>
     </row>
-    <row r="971" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:45" ht="15.75" customHeight="1">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -48029,7 +48035,7 @@
       <c r="AR971" s="4"/>
       <c r="AS971" s="4"/>
     </row>
-    <row r="972" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:45" ht="15.75" customHeight="1">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -48076,7 +48082,7 @@
       <c r="AR972" s="4"/>
       <c r="AS972" s="4"/>
     </row>
-    <row r="973" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:45" ht="15.75" customHeight="1">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -48123,7 +48129,7 @@
       <c r="AR973" s="4"/>
       <c r="AS973" s="4"/>
     </row>
-    <row r="974" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:45" ht="15.75" customHeight="1">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -48170,7 +48176,7 @@
       <c r="AR974" s="4"/>
       <c r="AS974" s="4"/>
     </row>
-    <row r="975" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:45" ht="15.75" customHeight="1">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -48217,7 +48223,7 @@
       <c r="AR975" s="4"/>
       <c r="AS975" s="4"/>
     </row>
-    <row r="976" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:45" ht="15.75" customHeight="1">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -48264,7 +48270,7 @@
       <c r="AR976" s="4"/>
       <c r="AS976" s="4"/>
     </row>
-    <row r="977" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:45" ht="15.75" customHeight="1">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -48311,7 +48317,7 @@
       <c r="AR977" s="4"/>
       <c r="AS977" s="4"/>
     </row>
-    <row r="978" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:45" ht="15.75" customHeight="1">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -48358,7 +48364,7 @@
       <c r="AR978" s="4"/>
       <c r="AS978" s="4"/>
     </row>
-    <row r="979" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:45" ht="15.75" customHeight="1">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -48405,7 +48411,7 @@
       <c r="AR979" s="4"/>
       <c r="AS979" s="4"/>
     </row>
-    <row r="980" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:45" ht="15.75" customHeight="1">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -48452,7 +48458,7 @@
       <c r="AR980" s="4"/>
       <c r="AS980" s="4"/>
     </row>
-    <row r="981" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:45" ht="15.75" customHeight="1">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -48499,7 +48505,7 @@
       <c r="AR981" s="4"/>
       <c r="AS981" s="4"/>
     </row>
-    <row r="982" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:45" ht="15.75" customHeight="1">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -48546,7 +48552,7 @@
       <c r="AR982" s="4"/>
       <c r="AS982" s="4"/>
     </row>
-    <row r="983" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:45" ht="15.75" customHeight="1">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -48593,7 +48599,7 @@
       <c r="AR983" s="4"/>
       <c r="AS983" s="4"/>
     </row>
-    <row r="984" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:45" ht="15.75" customHeight="1">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -48640,7 +48646,7 @@
       <c r="AR984" s="4"/>
       <c r="AS984" s="4"/>
     </row>
-    <row r="985" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:45" ht="15.75" customHeight="1">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -48687,7 +48693,7 @@
       <c r="AR985" s="4"/>
       <c r="AS985" s="4"/>
     </row>
-    <row r="986" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:45" ht="15.75" customHeight="1">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -48734,7 +48740,7 @@
       <c r="AR986" s="4"/>
       <c r="AS986" s="4"/>
     </row>
-    <row r="987" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:45" ht="15.75" customHeight="1">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -48781,7 +48787,7 @@
       <c r="AR987" s="4"/>
       <c r="AS987" s="4"/>
     </row>
-    <row r="988" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:45" ht="15.75" customHeight="1">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -48828,7 +48834,7 @@
       <c r="AR988" s="4"/>
       <c r="AS988" s="4"/>
     </row>
-    <row r="989" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:45" ht="15.75" customHeight="1">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -48875,7 +48881,7 @@
       <c r="AR989" s="4"/>
       <c r="AS989" s="4"/>
     </row>
-    <row r="990" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:45" ht="15.75" customHeight="1">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -48922,7 +48928,7 @@
       <c r="AR990" s="4"/>
       <c r="AS990" s="4"/>
     </row>
-    <row r="991" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:45" ht="15.75" customHeight="1">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -48969,7 +48975,7 @@
       <c r="AR991" s="4"/>
       <c r="AS991" s="4"/>
     </row>
-    <row r="992" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:45" ht="15.75" customHeight="1">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -49016,7 +49022,7 @@
       <c r="AR992" s="4"/>
       <c r="AS992" s="4"/>
     </row>
-    <row r="993" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:45" ht="15.75" customHeight="1">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -49063,7 +49069,7 @@
       <c r="AR993" s="4"/>
       <c r="AS993" s="4"/>
     </row>
-    <row r="994" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:45" ht="15.75" customHeight="1">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -49110,7 +49116,7 @@
       <c r="AR994" s="4"/>
       <c r="AS994" s="4"/>
     </row>
-    <row r="995" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:45" ht="15.75" customHeight="1">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -49157,7 +49163,7 @@
       <c r="AR995" s="4"/>
       <c r="AS995" s="4"/>
     </row>
-    <row r="996" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:45" ht="15.75" customHeight="1">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -49204,7 +49210,7 @@
       <c r="AR996" s="4"/>
       <c r="AS996" s="4"/>
     </row>
-    <row r="997" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:45" ht="15.75" customHeight="1">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -49251,7 +49257,7 @@
       <c r="AR997" s="4"/>
       <c r="AS997" s="4"/>
     </row>
-    <row r="998" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:45" ht="15.75" customHeight="1">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -49298,7 +49304,7 @@
       <c r="AR998" s="4"/>
       <c r="AS998" s="4"/>
     </row>
-    <row r="999" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:45" ht="15.75" customHeight="1">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -49345,7 +49351,7 @@
       <c r="AR999" s="4"/>
       <c r="AS999" s="4"/>
     </row>
-    <row r="1000" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:45" ht="15.75" customHeight="1">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
